--- a/reports/myform137.xlsx
+++ b/reports/myform137.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>SF10-ES</t>
   </si>
@@ -56,13 +56,13 @@
     <t>LAST NAME:</t>
   </si>
   <si>
-    <t>STINSON</t>
+    <t>SCHERBATZKY</t>
   </si>
   <si>
     <t>FIRST NAME:</t>
   </si>
   <si>
-    <t>BARNEY</t>
+    <t>ROBIN</t>
   </si>
   <si>
     <t>NAME EXTN. (Jr,I,II)</t>
@@ -71,25 +71,22 @@
     <t>MIDDLE NAME:</t>
   </si>
   <si>
-    <t>WAITFORIT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Learner Reference Number (LRN): </t>
   </si>
   <si>
-    <t>LRN40559200000011</t>
+    <t>LRN40559200000012</t>
   </si>
   <si>
     <t>Birthdate (mm/dd/yyyy):</t>
   </si>
   <si>
-    <t>1990-01-01</t>
+    <t>2017-06-01</t>
   </si>
   <si>
     <t xml:space="preserve">Sex: </t>
   </si>
   <si>
-    <t>MALE</t>
+    <t>FEMALE</t>
   </si>
   <si>
     <t>ELIGIBILITY FOR ELEMENTARY SCHOOL ENROLMENT</t>
@@ -146,9 +143,6 @@
     <t xml:space="preserve">School ID: </t>
   </si>
   <si>
-    <t>RIZAL ELEM SCHOOL</t>
-  </si>
-  <si>
     <t>District:</t>
   </si>
   <si>
@@ -167,22 +161,19 @@
     <t>Division:</t>
   </si>
   <si>
-    <t>PANABO</t>
-  </si>
-  <si>
     <t>Region:</t>
   </si>
   <si>
     <t>Classified as Grade:</t>
   </si>
   <si>
-    <t>Grade 1</t>
+    <t>Grade 2</t>
   </si>
   <si>
     <t>Section:</t>
   </si>
   <si>
-    <t>SECTION APPLE</t>
+    <t>SECTION ABACA</t>
   </si>
   <si>
     <t xml:space="preserve">School Year: </t>
@@ -194,13 +185,10 @@
     <t>School Year:</t>
   </si>
   <si>
-    <t>2024-2025</t>
-  </si>
-  <si>
     <t>Name of Adviser/Teacher:</t>
   </si>
   <si>
-    <t>SHELDON COOPER</t>
+    <t>HEV ABI</t>
   </si>
   <si>
     <t xml:space="preserve">Signature: </t>
@@ -221,9 +209,6 @@
       </rPr>
       <t xml:space="preserve"/>
     </r>
-  </si>
-  <si>
-    <t>RODRIGO DUTERTE</t>
   </si>
   <si>
     <t>Signature:</t>
@@ -251,9 +236,6 @@
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>Passed</t>
   </si>
   <si>
     <t>Mathematics</t>
@@ -3275,9 +3257,7 @@
       <c r="AM9" s="20"/>
       <c r="AN9" s="20"/>
       <c r="AO9" s="20"/>
-      <c r="AQ9" s="133" t="s">
-        <v>11</v>
-      </c>
+      <c r="AQ9" s="133"/>
       <c r="AR9" s="133"/>
       <c r="AS9" s="133"/>
       <c r="AT9" s="133"/>
@@ -3289,7 +3269,7 @@
     </row>
     <row r="10" spans="1:53" customHeight="1" ht="26.25">
       <c r="B10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -3299,7 +3279,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="98"/>
       <c r="L10" s="98"/>
@@ -3307,10 +3287,10 @@
       <c r="N10" s="98"/>
       <c r="O10" s="98"/>
       <c r="U10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" s="199" t="s">
         <v>14</v>
-      </c>
-      <c r="V10" s="199" t="s">
-        <v>15</v>
       </c>
       <c r="W10" s="199"/>
       <c r="X10" s="199"/>
@@ -3328,10 +3308,10 @@
       <c r="AJ10" s="198"/>
       <c r="AK10" s="22"/>
       <c r="AS10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT10" s="198" t="s">
         <v>16</v>
-      </c>
-      <c r="AT10" s="198" t="s">
-        <v>17</v>
       </c>
       <c r="AU10" s="198"/>
       <c r="AV10" s="198"/>
@@ -3345,7 +3325,7 @@
     </row>
     <row r="12" spans="1:53" customHeight="1" ht="16.5">
       <c r="B12" s="139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="140"/>
       <c r="D12" s="140"/>
@@ -3449,7 +3429,7 @@
     </row>
     <row r="14" spans="1:53" customHeight="1" ht="20.1">
       <c r="B14" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -3461,7 +3441,7 @@
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M14" s="27"/>
       <c r="N14" s="26"/>
@@ -3473,7 +3453,7 @@
       <c r="T14" s="26"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W14" s="27"/>
       <c r="X14" s="27"/>
@@ -3488,7 +3468,7 @@
       <c r="AG14" s="27"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ14" s="26"/>
       <c r="AK14" s="26"/>
@@ -3508,7 +3488,7 @@
     </row>
     <row r="15" spans="1:53" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="B15" s="202" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="203"/>
       <c r="D15" s="203"/>
@@ -3526,13 +3506,13 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S15" s="29"/>
       <c r="T15" s="204"/>
       <c r="U15" s="204"/>
       <c r="V15" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W15" s="30"/>
       <c r="X15" s="30"/>
@@ -3616,7 +3596,7 @@
     </row>
     <row r="17" spans="1:53" customHeight="1" ht="15.75" s="31" customFormat="1">
       <c r="B17" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -3670,7 +3650,7 @@
     <row r="18" spans="1:53" customHeight="1" ht="20.25">
       <c r="B18" s="36"/>
       <c r="C18" s="160" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="160"/>
       <c r="E18" s="160"/>
@@ -3681,7 +3661,7 @@
       <c r="J18" s="205"/>
       <c r="K18" s="205"/>
       <c r="L18" s="160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="160"/>
@@ -3700,7 +3680,7 @@
       <c r="AA18" s="91"/>
       <c r="AB18" s="91"/>
       <c r="AE18" s="130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF18" s="130"/>
       <c r="AG18" s="130"/>
@@ -3725,7 +3705,7 @@
     <row r="19" spans="1:53" customHeight="1" ht="20.25">
       <c r="B19" s="38"/>
       <c r="C19" s="99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="99"/>
       <c r="E19" s="99"/>
@@ -3753,7 +3733,7 @@
       <c r="AA19" s="91"/>
       <c r="AB19" s="91"/>
       <c r="AD19" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE19" s="39"/>
       <c r="AF19" s="39"/>
@@ -3824,7 +3804,7 @@
     </row>
     <row r="21" spans="1:53" customHeight="1" ht="15">
       <c r="B21" s="210" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="211"/>
       <c r="D21" s="211"/>
@@ -3927,11 +3907,11 @@
     </row>
     <row r="23" spans="1:53" customHeight="1" ht="20.1">
       <c r="B23" s="213" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="214"/>
       <c r="D23" s="126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="126"/>
       <c r="F23" s="126"/>
@@ -3944,7 +3924,7 @@
       <c r="M23" s="126"/>
       <c r="N23" s="126"/>
       <c r="O23" s="191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" s="191"/>
       <c r="Q23" s="191"/>
@@ -3952,12 +3932,10 @@
       <c r="S23" s="126"/>
       <c r="T23" s="128"/>
       <c r="V23" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W23" s="44"/>
-      <c r="X23" s="126" t="s">
-        <v>36</v>
-      </c>
+      <c r="X23" s="126"/>
       <c r="Y23" s="126"/>
       <c r="Z23" s="126"/>
       <c r="AA23" s="126"/>
@@ -3978,33 +3956,31 @@
       <c r="AP23" s="126"/>
       <c r="AQ23" s="126"/>
       <c r="AR23" s="127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS23" s="127"/>
       <c r="AT23" s="127"/>
       <c r="AU23" s="127"/>
       <c r="AV23" s="127"/>
-      <c r="AW23" s="126">
-        <v>123123</v>
-      </c>
+      <c r="AW23" s="126"/>
       <c r="AX23" s="128"/>
     </row>
     <row r="24" spans="1:53" customHeight="1" ht="20.1">
       <c r="B24" s="45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J24" s="91"/>
       <c r="K24" s="91"/>
@@ -4015,29 +3991,25 @@
       <c r="P24" s="91"/>
       <c r="Q24" s="91"/>
       <c r="R24" s="124" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S24" s="124"/>
       <c r="T24" s="46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V24" s="45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W24" s="16"/>
-      <c r="X24" s="90">
-        <v>2</v>
-      </c>
+      <c r="X24" s="90"/>
       <c r="Y24" s="90"/>
       <c r="Z24" s="90"/>
       <c r="AA24" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB24" s="16"/>
       <c r="AC24" s="16"/>
-      <c r="AD24" s="91" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD24" s="91"/>
       <c r="AE24" s="91"/>
       <c r="AF24" s="91"/>
       <c r="AG24" s="91"/>
@@ -4055,64 +4027,58 @@
       <c r="AS24" s="91"/>
       <c r="AT24" s="91"/>
       <c r="AU24" s="124" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AV24" s="124"/>
       <c r="AW24" s="124"/>
-      <c r="AX24" s="47" t="s">
-        <v>41</v>
-      </c>
+      <c r="AX24" s="47"/>
     </row>
     <row r="25" spans="1:53" customHeight="1" ht="20.1">
       <c r="B25" s="48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="91" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K25" s="91"/>
       <c r="L25" s="91"/>
       <c r="M25" s="91"/>
       <c r="N25" s="91"/>
       <c r="O25" s="197" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P25" s="197"/>
       <c r="Q25" s="197"/>
       <c r="R25" s="197"/>
       <c r="S25" s="91" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T25" s="92"/>
       <c r="V25" s="129" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W25" s="130"/>
       <c r="X25" s="130"/>
       <c r="Y25" s="130"/>
-      <c r="Z25" s="91">
-        <v>1</v>
-      </c>
+      <c r="Z25" s="91"/>
       <c r="AA25" s="91"/>
       <c r="AB25" s="124" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC25" s="124"/>
       <c r="AD25" s="124"/>
-      <c r="AE25" s="91">
-        <v>1</v>
-      </c>
+      <c r="AE25" s="91"/>
       <c r="AF25" s="91"/>
       <c r="AG25" s="91"/>
       <c r="AH25" s="91"/>
@@ -4123,23 +4089,21 @@
       <c r="AM25" s="91"/>
       <c r="AN25" s="91"/>
       <c r="AO25" s="124" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AP25" s="124"/>
       <c r="AQ25" s="124"/>
       <c r="AR25" s="124"/>
       <c r="AS25" s="124"/>
       <c r="AT25" s="124"/>
-      <c r="AU25" s="91" t="s">
-        <v>52</v>
-      </c>
+      <c r="AU25" s="91"/>
       <c r="AV25" s="91"/>
       <c r="AW25" s="91"/>
       <c r="AX25" s="92"/>
     </row>
     <row r="26" spans="1:53" customHeight="1" ht="19.5">
       <c r="B26" s="129" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C26" s="130"/>
       <c r="D26" s="130"/>
@@ -4147,7 +4111,7 @@
       <c r="F26" s="130"/>
       <c r="G26" s="130"/>
       <c r="H26" s="91" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I26" s="91"/>
       <c r="J26" s="91"/>
@@ -4156,7 +4120,7 @@
       <c r="M26" s="91"/>
       <c r="N26" s="91"/>
       <c r="O26" s="124" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P26" s="124"/>
       <c r="Q26" s="124"/>
@@ -4164,7 +4128,7 @@
       <c r="S26" s="91"/>
       <c r="T26" s="92"/>
       <c r="V26" s="51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
@@ -4172,9 +4136,7 @@
       <c r="Z26" s="39"/>
       <c r="AA26" s="40"/>
       <c r="AB26" s="40"/>
-      <c r="AC26" s="91" t="s">
-        <v>57</v>
-      </c>
+      <c r="AC26" s="91"/>
       <c r="AD26" s="91"/>
       <c r="AE26" s="91"/>
       <c r="AF26" s="91"/>
@@ -4188,7 +4150,7 @@
       <c r="AN26" s="91"/>
       <c r="AO26" s="91"/>
       <c r="AP26" s="124" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AQ26" s="124"/>
       <c r="AR26" s="124"/>
@@ -4251,7 +4213,7 @@
     </row>
     <row r="28" spans="1:53" customHeight="1" ht="15">
       <c r="B28" s="173" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C28" s="103"/>
       <c r="D28" s="103"/>
@@ -4262,23 +4224,23 @@
       <c r="I28" s="103"/>
       <c r="J28" s="104"/>
       <c r="K28" s="105" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L28" s="106"/>
       <c r="M28" s="106"/>
       <c r="N28" s="106"/>
       <c r="O28" s="107"/>
       <c r="P28" s="193" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="195"/>
       <c r="R28" s="196"/>
       <c r="S28" s="193" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="T28" s="194"/>
       <c r="V28" s="173" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="W28" s="103"/>
       <c r="X28" s="103"/>
@@ -4294,7 +4256,7 @@
       <c r="AH28" s="103"/>
       <c r="AI28" s="104"/>
       <c r="AJ28" s="175" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK28" s="175"/>
       <c r="AL28" s="175"/>
@@ -4306,12 +4268,12 @@
       <c r="AR28" s="175"/>
       <c r="AS28" s="175"/>
       <c r="AT28" s="102" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AU28" s="103"/>
       <c r="AV28" s="104"/>
       <c r="AW28" s="102" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AX28" s="177"/>
     </row>
@@ -4383,7 +4345,7 @@
     </row>
     <row r="30" spans="1:53" customHeight="1" ht="21.95">
       <c r="B30" s="143" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C30" s="144"/>
       <c r="D30" s="144"/>
@@ -4404,7 +4366,7 @@
       <c r="S30" s="171"/>
       <c r="T30" s="172"/>
       <c r="V30" s="143" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="W30" s="144"/>
       <c r="X30" s="144"/>
@@ -4437,7 +4399,7 @@
     </row>
     <row r="31" spans="1:53" customHeight="1" ht="21.95">
       <c r="B31" s="143" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C31" s="144"/>
       <c r="D31" s="144"/>
@@ -4458,7 +4420,7 @@
       <c r="S31" s="171"/>
       <c r="T31" s="172"/>
       <c r="V31" s="143" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="W31" s="144"/>
       <c r="X31" s="144"/>
@@ -4491,7 +4453,7 @@
     </row>
     <row r="32" spans="1:53" customHeight="1" ht="21.95">
       <c r="B32" s="143" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C32" s="144"/>
       <c r="D32" s="144"/>
@@ -4501,18 +4463,26 @@
       <c r="H32" s="144"/>
       <c r="I32" s="144"/>
       <c r="J32" s="145"/>
-      <c r="K32" s="238"/>
-      <c r="L32" s="239"/>
+      <c r="K32" s="238">
+        <v>92</v>
+      </c>
+      <c r="L32" s="239">
+        <v>89</v>
+      </c>
       <c r="M32" s="240"/>
-      <c r="N32" s="241"/>
-      <c r="O32" s="241"/>
+      <c r="N32" s="241">
+        <v>82</v>
+      </c>
+      <c r="O32" s="241">
+        <v>90</v>
+      </c>
       <c r="P32" s="242"/>
       <c r="Q32" s="243"/>
       <c r="R32" s="244"/>
       <c r="S32" s="171"/>
       <c r="T32" s="172"/>
       <c r="V32" s="143" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="W32" s="144"/>
       <c r="X32" s="144"/>
@@ -4527,37 +4497,25 @@
       <c r="AG32" s="144"/>
       <c r="AH32" s="144"/>
       <c r="AI32" s="145"/>
-      <c r="AJ32" s="256">
-        <v>90</v>
-      </c>
+      <c r="AJ32" s="256"/>
       <c r="AK32" s="257"/>
       <c r="AL32" s="258"/>
-      <c r="AM32" s="256">
-        <v>88</v>
-      </c>
+      <c r="AM32" s="256"/>
       <c r="AN32" s="258"/>
-      <c r="AO32" s="251">
-        <v>87</v>
-      </c>
+      <c r="AO32" s="251"/>
       <c r="AP32" s="252"/>
       <c r="AQ32" s="253"/>
-      <c r="AR32" s="251">
-        <v>79</v>
-      </c>
+      <c r="AR32" s="251"/>
       <c r="AS32" s="253"/>
-      <c r="AT32" s="242">
-        <v>86.0</v>
-      </c>
+      <c r="AT32" s="242"/>
       <c r="AU32" s="243"/>
       <c r="AV32" s="244"/>
-      <c r="AW32" s="149" t="s">
-        <v>67</v>
-      </c>
+      <c r="AW32" s="149"/>
       <c r="AX32" s="150"/>
     </row>
     <row r="33" spans="1:53" customHeight="1" ht="21.95">
       <c r="B33" s="143" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C33" s="144"/>
       <c r="D33" s="144"/>
@@ -4567,9 +4525,7 @@
       <c r="H33" s="144"/>
       <c r="I33" s="144"/>
       <c r="J33" s="145"/>
-      <c r="K33" s="238">
-        <v>99</v>
-      </c>
+      <c r="K33" s="238"/>
       <c r="L33" s="239"/>
       <c r="M33" s="240"/>
       <c r="N33" s="241"/>
@@ -4580,7 +4536,7 @@
       <c r="S33" s="171"/>
       <c r="T33" s="172"/>
       <c r="V33" s="143" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W33" s="144"/>
       <c r="X33" s="144"/>
@@ -4595,37 +4551,25 @@
       <c r="AG33" s="144"/>
       <c r="AH33" s="144"/>
       <c r="AI33" s="145"/>
-      <c r="AJ33" s="251">
-        <v>89</v>
-      </c>
+      <c r="AJ33" s="251"/>
       <c r="AK33" s="252"/>
       <c r="AL33" s="253"/>
-      <c r="AM33" s="251">
-        <v>90</v>
-      </c>
+      <c r="AM33" s="251"/>
       <c r="AN33" s="253"/>
-      <c r="AO33" s="251">
-        <v>99</v>
-      </c>
+      <c r="AO33" s="251"/>
       <c r="AP33" s="252"/>
       <c r="AQ33" s="253"/>
-      <c r="AR33" s="251">
-        <v>87</v>
-      </c>
+      <c r="AR33" s="251"/>
       <c r="AS33" s="253"/>
-      <c r="AT33" s="242">
-        <v>91.25</v>
-      </c>
+      <c r="AT33" s="242"/>
       <c r="AU33" s="243"/>
       <c r="AV33" s="244"/>
-      <c r="AW33" s="149" t="s">
-        <v>67</v>
-      </c>
+      <c r="AW33" s="149"/>
       <c r="AX33" s="150"/>
     </row>
     <row r="34" spans="1:53" customHeight="1" ht="21.95">
       <c r="B34" s="143" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C34" s="144"/>
       <c r="D34" s="144"/>
@@ -4646,7 +4590,7 @@
       <c r="S34" s="192"/>
       <c r="T34" s="172"/>
       <c r="V34" s="143" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W34" s="144"/>
       <c r="X34" s="144"/>
@@ -4679,7 +4623,7 @@
     </row>
     <row r="35" spans="1:53" customHeight="1" ht="21.95">
       <c r="B35" s="143" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C35" s="144"/>
       <c r="D35" s="144"/>
@@ -4689,18 +4633,26 @@
       <c r="H35" s="144"/>
       <c r="I35" s="144"/>
       <c r="J35" s="145"/>
-      <c r="K35" s="238"/>
-      <c r="L35" s="239"/>
+      <c r="K35" s="238">
+        <v>94</v>
+      </c>
+      <c r="L35" s="239">
+        <v>92</v>
+      </c>
       <c r="M35" s="240"/>
-      <c r="N35" s="241"/>
-      <c r="O35" s="241"/>
+      <c r="N35" s="241">
+        <v>97</v>
+      </c>
+      <c r="O35" s="241">
+        <v>87</v>
+      </c>
       <c r="P35" s="242"/>
       <c r="Q35" s="243"/>
       <c r="R35" s="244"/>
       <c r="S35" s="171"/>
       <c r="T35" s="172"/>
       <c r="V35" s="143" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W35" s="144"/>
       <c r="X35" s="144"/>
@@ -4733,7 +4685,7 @@
     </row>
     <row r="36" spans="1:53" customHeight="1" ht="21.95">
       <c r="B36" s="143" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C36" s="144"/>
       <c r="D36" s="144"/>
@@ -4754,7 +4706,7 @@
       <c r="S36" s="171"/>
       <c r="T36" s="172"/>
       <c r="V36" s="143" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="W36" s="144"/>
       <c r="X36" s="144"/>
@@ -4787,7 +4739,7 @@
     </row>
     <row r="37" spans="1:53" customHeight="1" ht="21.95">
       <c r="B37" s="143" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C37" s="144"/>
       <c r="D37" s="144"/>
@@ -4797,30 +4749,18 @@
       <c r="H37" s="144"/>
       <c r="I37" s="144"/>
       <c r="J37" s="145"/>
-      <c r="K37" s="245">
-        <v>88.75</v>
-      </c>
-      <c r="L37" s="246">
-        <v>88.666666666667</v>
-      </c>
+      <c r="K37" s="245"/>
+      <c r="L37" s="246"/>
       <c r="M37" s="247"/>
-      <c r="N37" s="248">
-        <v>89.0</v>
-      </c>
-      <c r="O37" s="248">
-        <v>90.666666666667</v>
-      </c>
-      <c r="P37" s="242">
-        <v>89.27</v>
-      </c>
+      <c r="N37" s="248"/>
+      <c r="O37" s="248"/>
+      <c r="P37" s="242"/>
       <c r="Q37" s="243"/>
       <c r="R37" s="244"/>
-      <c r="S37" s="171" t="s">
-        <v>67</v>
-      </c>
+      <c r="S37" s="171"/>
       <c r="T37" s="172"/>
       <c r="V37" s="143" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W37" s="144"/>
       <c r="X37" s="144"/>
@@ -4853,7 +4793,7 @@
     </row>
     <row r="38" spans="1:53" customHeight="1" ht="21.95">
       <c r="B38" s="151" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C38" s="152"/>
       <c r="D38" s="152"/>
@@ -4863,26 +4803,18 @@
       <c r="H38" s="152"/>
       <c r="I38" s="152"/>
       <c r="J38" s="153"/>
-      <c r="K38" s="238">
-        <v>98</v>
-      </c>
-      <c r="L38" s="239">
-        <v>88</v>
-      </c>
+      <c r="K38" s="238"/>
+      <c r="L38" s="239"/>
       <c r="M38" s="240"/>
-      <c r="N38" s="241">
-        <v>92</v>
-      </c>
-      <c r="O38" s="241">
-        <v>87</v>
-      </c>
+      <c r="N38" s="241"/>
+      <c r="O38" s="241"/>
       <c r="P38" s="242"/>
       <c r="Q38" s="243"/>
       <c r="R38" s="244"/>
       <c r="S38" s="171"/>
       <c r="T38" s="172"/>
       <c r="V38" s="151" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="W38" s="152"/>
       <c r="X38" s="152"/>
@@ -4915,7 +4847,7 @@
     </row>
     <row r="39" spans="1:53" customHeight="1" ht="21.95">
       <c r="B39" s="151" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C39" s="152"/>
       <c r="D39" s="152"/>
@@ -4925,26 +4857,18 @@
       <c r="H39" s="152"/>
       <c r="I39" s="152"/>
       <c r="J39" s="153"/>
-      <c r="K39" s="238">
-        <v>88</v>
-      </c>
-      <c r="L39" s="239">
-        <v>92</v>
-      </c>
+      <c r="K39" s="238"/>
+      <c r="L39" s="239"/>
       <c r="M39" s="240"/>
-      <c r="N39" s="241">
-        <v>87</v>
-      </c>
-      <c r="O39" s="241">
-        <v>90</v>
-      </c>
+      <c r="N39" s="241"/>
+      <c r="O39" s="241"/>
       <c r="P39" s="242"/>
       <c r="Q39" s="243"/>
       <c r="R39" s="244"/>
       <c r="S39" s="171"/>
       <c r="T39" s="172"/>
       <c r="V39" s="151" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W39" s="152"/>
       <c r="X39" s="152"/>
@@ -4977,7 +4901,7 @@
     </row>
     <row r="40" spans="1:53" customHeight="1" ht="21.95">
       <c r="B40" s="151" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C40" s="152"/>
       <c r="D40" s="152"/>
@@ -4987,26 +4911,18 @@
       <c r="H40" s="152"/>
       <c r="I40" s="152"/>
       <c r="J40" s="153"/>
-      <c r="K40" s="238">
-        <v>91</v>
-      </c>
-      <c r="L40" s="239">
-        <v>86</v>
-      </c>
+      <c r="K40" s="238"/>
+      <c r="L40" s="239"/>
       <c r="M40" s="240"/>
-      <c r="N40" s="241">
-        <v>88</v>
-      </c>
-      <c r="O40" s="241">
-        <v>95</v>
-      </c>
+      <c r="N40" s="241"/>
+      <c r="O40" s="241"/>
       <c r="P40" s="242"/>
       <c r="Q40" s="243"/>
       <c r="R40" s="244"/>
       <c r="S40" s="171"/>
       <c r="T40" s="172"/>
       <c r="V40" s="151" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="W40" s="152"/>
       <c r="X40" s="152"/>
@@ -5039,7 +4955,7 @@
     </row>
     <row r="41" spans="1:53" customHeight="1" ht="21.95">
       <c r="B41" s="151" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C41" s="152"/>
       <c r="D41" s="152"/>
@@ -5049,9 +4965,7 @@
       <c r="H41" s="152"/>
       <c r="I41" s="152"/>
       <c r="J41" s="153"/>
-      <c r="K41" s="238">
-        <v>78</v>
-      </c>
+      <c r="K41" s="238"/>
       <c r="L41" s="239"/>
       <c r="M41" s="240"/>
       <c r="N41" s="241"/>
@@ -5062,7 +4976,7 @@
       <c r="S41" s="171"/>
       <c r="T41" s="172"/>
       <c r="V41" s="151" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="W41" s="152"/>
       <c r="X41" s="152"/>
@@ -5095,7 +5009,7 @@
     </row>
     <row r="42" spans="1:53" customHeight="1" ht="21.95">
       <c r="B42" s="143" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C42" s="144"/>
       <c r="D42" s="144"/>
@@ -5116,7 +5030,7 @@
       <c r="S42" s="171"/>
       <c r="T42" s="172"/>
       <c r="V42" s="143" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="W42" s="144"/>
       <c r="X42" s="144"/>
@@ -5149,7 +5063,7 @@
     </row>
     <row r="43" spans="1:53" customHeight="1" ht="21.95">
       <c r="B43" s="146" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C43" s="147"/>
       <c r="D43" s="147"/>
@@ -5170,7 +5084,7 @@
       <c r="S43" s="171"/>
       <c r="T43" s="172"/>
       <c r="V43" s="146" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="W43" s="147"/>
       <c r="X43" s="147"/>
@@ -5203,7 +5117,7 @@
     </row>
     <row r="44" spans="1:53" customHeight="1" ht="21.95">
       <c r="B44" s="146" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C44" s="147"/>
       <c r="D44" s="147"/>
@@ -5224,7 +5138,7 @@
       <c r="S44" s="171"/>
       <c r="T44" s="172"/>
       <c r="V44" s="146" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="W44" s="147"/>
       <c r="X44" s="147"/>
@@ -5257,7 +5171,7 @@
     </row>
     <row r="45" spans="1:53" customHeight="1" ht="21.95">
       <c r="B45" s="161" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C45" s="162"/>
       <c r="D45" s="162"/>
@@ -5269,31 +5183,31 @@
       <c r="J45" s="163"/>
       <c r="K45" s="259">
         <f>AVERAGE(K30:K37,K42)</f>
-        <v>93.875</v>
+        <v>93</v>
       </c>
       <c r="L45" s="260">
         <f>AVERAGE(L30:M37,L42)</f>
-        <v>88.666666666667</v>
+        <v>90.5</v>
       </c>
       <c r="M45" s="261"/>
       <c r="N45" s="259">
         <f>AVERAGE(N30:N37,N42)</f>
-        <v>89</v>
+        <v>89.5</v>
       </c>
       <c r="O45" s="259">
         <f>AVERAGE(O30:O37,O42)</f>
-        <v>90.666666666667</v>
+        <v>88.5</v>
       </c>
       <c r="P45" s="262">
         <f>AVERAGE(K45:O45)</f>
-        <v>90.552083333333</v>
+        <v>90.375</v>
       </c>
       <c r="Q45" s="263"/>
       <c r="R45" s="264"/>
       <c r="S45" s="183"/>
       <c r="T45" s="184"/>
       <c r="V45" s="161" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W45" s="162"/>
       <c r="X45" s="162"/>
@@ -5308,9 +5222,9 @@
       <c r="AG45" s="162"/>
       <c r="AH45" s="162"/>
       <c r="AI45" s="163"/>
-      <c r="AJ45" s="262">
+      <c r="AJ45" s="262" t="e">
         <f>AVERAGE(AJ30:AL37,AJ42)</f>
-        <v>89.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AK45" s="263" t="e">
         <f>AVERAGE(AK30:AK37,AK42)</f>
@@ -5320,25 +5234,25 @@
         <f>AVERAGE(AL30:AL37,AL42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM45" s="262">
+      <c r="AM45" s="262" t="e">
         <f>AVERAGE(AM30:AN37,AM42)</f>
-        <v>89</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AN45" s="264"/>
-      <c r="AO45" s="262">
+      <c r="AO45" s="262" t="e">
         <f>AVERAGE(AO30:AQ37,AO42)</f>
-        <v>93</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AP45" s="263"/>
       <c r="AQ45" s="264"/>
-      <c r="AR45" s="262">
+      <c r="AR45" s="262" t="e">
         <f>AVERAGE(AR30:AS37,AR42)</f>
-        <v>83</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AS45" s="264"/>
-      <c r="AT45" s="262">
+      <c r="AT45" s="262" t="e">
         <f>AVERAGE(AJ45:AS45)</f>
-        <v>88.625</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AU45" s="263"/>
       <c r="AV45" s="264"/>
@@ -5397,14 +5311,14 @@
     </row>
     <row r="47" spans="1:53" customHeight="1" ht="21.95">
       <c r="B47" s="114" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C47" s="115"/>
       <c r="D47" s="115"/>
       <c r="E47" s="115"/>
       <c r="F47" s="116"/>
       <c r="G47" s="111" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H47" s="112"/>
       <c r="I47" s="112"/>
@@ -5420,14 +5334,14 @@
       <c r="S47" s="112"/>
       <c r="T47" s="113"/>
       <c r="V47" s="114" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W47" s="115"/>
       <c r="X47" s="115"/>
       <c r="Y47" s="115"/>
       <c r="Z47" s="116"/>
       <c r="AA47" s="111" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AB47" s="112"/>
       <c r="AC47" s="112"/>
@@ -5455,43 +5369,43 @@
     </row>
     <row r="48" spans="1:53" customHeight="1" ht="31.5">
       <c r="B48" s="117" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C48" s="118"/>
       <c r="D48" s="118"/>
       <c r="E48" s="118"/>
       <c r="F48" s="119"/>
       <c r="G48" s="179" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H48" s="118"/>
       <c r="I48" s="118"/>
       <c r="J48" s="119"/>
       <c r="K48" s="120" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L48" s="121"/>
       <c r="M48" s="121"/>
       <c r="N48" s="122"/>
       <c r="O48" s="120" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P48" s="121"/>
       <c r="Q48" s="121"/>
       <c r="R48" s="122"/>
       <c r="S48" s="188" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="T48" s="189"/>
       <c r="V48" s="117" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="W48" s="118"/>
       <c r="X48" s="118"/>
       <c r="Y48" s="118"/>
       <c r="Z48" s="119"/>
       <c r="AA48" s="120" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB48" s="121"/>
       <c r="AC48" s="121"/>
@@ -5502,7 +5416,7 @@
       <c r="AH48" s="121"/>
       <c r="AI48" s="121"/>
       <c r="AJ48" s="120" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AK48" s="121"/>
       <c r="AL48" s="121"/>
@@ -5511,7 +5425,7 @@
       <c r="AO48" s="121"/>
       <c r="AP48" s="121"/>
       <c r="AQ48" s="121" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AR48" s="121"/>
       <c r="AS48" s="121"/>
@@ -5519,7 +5433,7 @@
       <c r="AU48" s="121"/>
       <c r="AV48" s="122"/>
       <c r="AW48" s="188" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AX48" s="189"/>
     </row>
@@ -5654,7 +5568,7 @@
     </row>
     <row r="52" spans="1:53" customHeight="1" ht="20.1">
       <c r="B52" s="213" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="214"/>
       <c r="D52" s="126"/>
@@ -5669,7 +5583,7 @@
       <c r="M52" s="126"/>
       <c r="N52" s="126"/>
       <c r="O52" s="191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P52" s="191"/>
       <c r="Q52" s="191"/>
@@ -5677,7 +5591,7 @@
       <c r="S52" s="126"/>
       <c r="T52" s="128"/>
       <c r="V52" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W52" s="44"/>
       <c r="X52" s="126"/>
@@ -5701,7 +5615,7 @@
       <c r="AP52" s="126"/>
       <c r="AQ52" s="126"/>
       <c r="AR52" s="127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS52" s="127"/>
       <c r="AT52" s="127"/>
@@ -5712,14 +5626,14 @@
     </row>
     <row r="53" spans="1:53" customHeight="1" ht="20.1">
       <c r="B53" s="45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="90"/>
       <c r="E53" s="90"/>
       <c r="F53" s="90"/>
       <c r="G53" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H53" s="16"/>
       <c r="I53" s="91"/>
@@ -5732,19 +5646,19 @@
       <c r="P53" s="91"/>
       <c r="Q53" s="91"/>
       <c r="R53" s="124" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S53" s="124"/>
       <c r="T53" s="46"/>
       <c r="V53" s="45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W53" s="16"/>
       <c r="X53" s="90"/>
       <c r="Y53" s="90"/>
       <c r="Z53" s="90"/>
       <c r="AA53" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB53" s="16"/>
       <c r="AC53" s="16"/>
@@ -5766,7 +5680,7 @@
       <c r="AS53" s="91"/>
       <c r="AT53" s="91"/>
       <c r="AU53" s="124" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AV53" s="124"/>
       <c r="AW53" s="124"/>
@@ -5774,14 +5688,14 @@
     </row>
     <row r="54" spans="1:53" customHeight="1" ht="20.1">
       <c r="B54" s="48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="49"/>
       <c r="G54" s="50" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -5791,7 +5705,7 @@
       <c r="M54" s="91"/>
       <c r="N54" s="91"/>
       <c r="O54" s="197" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P54" s="197"/>
       <c r="Q54" s="197"/>
@@ -5799,7 +5713,7 @@
       <c r="S54" s="91"/>
       <c r="T54" s="92"/>
       <c r="V54" s="129" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W54" s="130"/>
       <c r="X54" s="130"/>
@@ -5807,7 +5721,7 @@
       <c r="Z54" s="91"/>
       <c r="AA54" s="91"/>
       <c r="AB54" s="124" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC54" s="124"/>
       <c r="AD54" s="124"/>
@@ -5822,7 +5736,7 @@
       <c r="AM54" s="91"/>
       <c r="AN54" s="91"/>
       <c r="AO54" s="124" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AP54" s="124"/>
       <c r="AQ54" s="124"/>
@@ -5836,7 +5750,7 @@
     </row>
     <row r="55" spans="1:53" customHeight="1" ht="20.1">
       <c r="B55" s="129" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C55" s="130"/>
       <c r="D55" s="130"/>
@@ -5851,7 +5765,7 @@
       <c r="M55" s="91"/>
       <c r="N55" s="91"/>
       <c r="O55" s="124" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P55" s="124"/>
       <c r="Q55" s="124"/>
@@ -5859,7 +5773,7 @@
       <c r="S55" s="91"/>
       <c r="T55" s="92"/>
       <c r="V55" s="51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W55" s="39"/>
       <c r="X55" s="39"/>
@@ -5881,7 +5795,7 @@
       <c r="AN55" s="91"/>
       <c r="AO55" s="91"/>
       <c r="AP55" s="124" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AQ55" s="124"/>
       <c r="AR55" s="124"/>
@@ -5994,7 +5908,7 @@
     </row>
     <row r="58" spans="1:53" customHeight="1" ht="18">
       <c r="B58" s="173" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C58" s="103"/>
       <c r="D58" s="103"/>
@@ -6005,23 +5919,23 @@
       <c r="I58" s="103"/>
       <c r="J58" s="104"/>
       <c r="K58" s="215" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L58" s="216"/>
       <c r="M58" s="216"/>
       <c r="N58" s="216"/>
       <c r="O58" s="217"/>
       <c r="P58" s="102" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q58" s="103"/>
       <c r="R58" s="104"/>
       <c r="S58" s="102" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="T58" s="177"/>
       <c r="V58" s="173" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="W58" s="103"/>
       <c r="X58" s="103"/>
@@ -6037,7 +5951,7 @@
       <c r="AH58" s="103"/>
       <c r="AI58" s="104"/>
       <c r="AJ58" s="175" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK58" s="175"/>
       <c r="AL58" s="175"/>
@@ -6049,12 +5963,12 @@
       <c r="AR58" s="175"/>
       <c r="AS58" s="175"/>
       <c r="AT58" s="102" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AU58" s="103"/>
       <c r="AV58" s="104"/>
       <c r="AW58" s="102" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AX58" s="177"/>
     </row>
@@ -6126,7 +6040,7 @@
     </row>
     <row r="60" spans="1:53" customHeight="1" ht="21.95">
       <c r="B60" s="143" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C60" s="144"/>
       <c r="D60" s="144"/>
@@ -6147,7 +6061,7 @@
       <c r="S60" s="149"/>
       <c r="T60" s="150"/>
       <c r="V60" s="143" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="W60" s="144"/>
       <c r="X60" s="144"/>
@@ -6180,7 +6094,7 @@
     </row>
     <row r="61" spans="1:53" customHeight="1" ht="21.95">
       <c r="B61" s="143" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C61" s="144"/>
       <c r="D61" s="144"/>
@@ -6201,7 +6115,7 @@
       <c r="S61" s="149"/>
       <c r="T61" s="150"/>
       <c r="V61" s="143" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="W61" s="144"/>
       <c r="X61" s="144"/>
@@ -6234,7 +6148,7 @@
     </row>
     <row r="62" spans="1:53" customHeight="1" ht="21.95">
       <c r="B62" s="143" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C62" s="144"/>
       <c r="D62" s="144"/>
@@ -6255,7 +6169,7 @@
       <c r="S62" s="149"/>
       <c r="T62" s="150"/>
       <c r="V62" s="143" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="W62" s="144"/>
       <c r="X62" s="144"/>
@@ -6288,7 +6202,7 @@
     </row>
     <row r="63" spans="1:53" customHeight="1" ht="21.95">
       <c r="B63" s="143" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C63" s="144"/>
       <c r="D63" s="144"/>
@@ -6309,7 +6223,7 @@
       <c r="S63" s="149"/>
       <c r="T63" s="150"/>
       <c r="V63" s="143" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W63" s="144"/>
       <c r="X63" s="144"/>
@@ -6342,7 +6256,7 @@
     </row>
     <row r="64" spans="1:53" customHeight="1" ht="21.95">
       <c r="B64" s="143" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C64" s="144"/>
       <c r="D64" s="144"/>
@@ -6363,7 +6277,7 @@
       <c r="S64" s="149"/>
       <c r="T64" s="150"/>
       <c r="V64" s="143" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W64" s="144"/>
       <c r="X64" s="144"/>
@@ -6396,7 +6310,7 @@
     </row>
     <row r="65" spans="1:53" customHeight="1" ht="21.95">
       <c r="B65" s="143" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C65" s="144"/>
       <c r="D65" s="144"/>
@@ -6417,7 +6331,7 @@
       <c r="S65" s="149"/>
       <c r="T65" s="150"/>
       <c r="V65" s="143" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W65" s="144"/>
       <c r="X65" s="144"/>
@@ -6450,7 +6364,7 @@
     </row>
     <row r="66" spans="1:53" customHeight="1" ht="21.95">
       <c r="B66" s="143" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C66" s="144"/>
       <c r="D66" s="144"/>
@@ -6471,7 +6385,7 @@
       <c r="S66" s="149"/>
       <c r="T66" s="150"/>
       <c r="V66" s="143" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="W66" s="144"/>
       <c r="X66" s="144"/>
@@ -6504,7 +6418,7 @@
     </row>
     <row r="67" spans="1:53" customHeight="1" ht="21.95">
       <c r="B67" s="143" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C67" s="144"/>
       <c r="D67" s="144"/>
@@ -6525,7 +6439,7 @@
       <c r="S67" s="149"/>
       <c r="T67" s="150"/>
       <c r="V67" s="143" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W67" s="144"/>
       <c r="X67" s="144"/>
@@ -6558,7 +6472,7 @@
     </row>
     <row r="68" spans="1:53" customHeight="1" ht="21.95">
       <c r="B68" s="151" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C68" s="152"/>
       <c r="D68" s="152"/>
@@ -6579,7 +6493,7 @@
       <c r="S68" s="149"/>
       <c r="T68" s="150"/>
       <c r="V68" s="151" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="W68" s="152"/>
       <c r="X68" s="152"/>
@@ -6612,7 +6526,7 @@
     </row>
     <row r="69" spans="1:53" customHeight="1" ht="21.95">
       <c r="B69" s="151" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C69" s="152"/>
       <c r="D69" s="152"/>
@@ -6633,7 +6547,7 @@
       <c r="S69" s="149"/>
       <c r="T69" s="150"/>
       <c r="V69" s="151" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W69" s="152"/>
       <c r="X69" s="152"/>
@@ -6666,7 +6580,7 @@
     </row>
     <row r="70" spans="1:53" customHeight="1" ht="21.95">
       <c r="B70" s="151" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C70" s="152"/>
       <c r="D70" s="152"/>
@@ -6687,7 +6601,7 @@
       <c r="S70" s="149"/>
       <c r="T70" s="150"/>
       <c r="V70" s="151" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="W70" s="152"/>
       <c r="X70" s="152"/>
@@ -6720,7 +6634,7 @@
     </row>
     <row r="71" spans="1:53" customHeight="1" ht="21.95">
       <c r="B71" s="151" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C71" s="152"/>
       <c r="D71" s="152"/>
@@ -6741,7 +6655,7 @@
       <c r="S71" s="149"/>
       <c r="T71" s="150"/>
       <c r="V71" s="151" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="W71" s="152"/>
       <c r="X71" s="152"/>
@@ -6774,7 +6688,7 @@
     </row>
     <row r="72" spans="1:53" customHeight="1" ht="21.95">
       <c r="B72" s="143" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C72" s="144"/>
       <c r="D72" s="144"/>
@@ -6795,7 +6709,7 @@
       <c r="S72" s="149"/>
       <c r="T72" s="150"/>
       <c r="V72" s="143" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="W72" s="144"/>
       <c r="X72" s="144"/>
@@ -6828,7 +6742,7 @@
     </row>
     <row r="73" spans="1:53" customHeight="1" ht="21.95">
       <c r="B73" s="146" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C73" s="147"/>
       <c r="D73" s="147"/>
@@ -6849,7 +6763,7 @@
       <c r="S73" s="149"/>
       <c r="T73" s="150"/>
       <c r="V73" s="146" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="W73" s="147"/>
       <c r="X73" s="147"/>
@@ -6882,7 +6796,7 @@
     </row>
     <row r="74" spans="1:53" customHeight="1" ht="21.95">
       <c r="B74" s="146" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C74" s="147"/>
       <c r="D74" s="147"/>
@@ -6903,7 +6817,7 @@
       <c r="S74" s="149"/>
       <c r="T74" s="150"/>
       <c r="V74" s="146" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="W74" s="147"/>
       <c r="X74" s="147"/>
@@ -6936,7 +6850,7 @@
     </row>
     <row r="75" spans="1:53" customHeight="1" ht="18.75">
       <c r="B75" s="161" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C75" s="162"/>
       <c r="D75" s="162"/>
@@ -6972,7 +6886,7 @@
       <c r="S75" s="183"/>
       <c r="T75" s="184"/>
       <c r="V75" s="161" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W75" s="162"/>
       <c r="X75" s="162"/>
@@ -7021,14 +6935,14 @@
     <row r="76" spans="1:53" customHeight="1" ht="7.5"/>
     <row r="77" spans="1:53" customHeight="1" ht="15.75">
       <c r="B77" s="114" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C77" s="115"/>
       <c r="D77" s="115"/>
       <c r="E77" s="115"/>
       <c r="F77" s="116"/>
       <c r="G77" s="111" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H77" s="112"/>
       <c r="I77" s="112"/>
@@ -7045,14 +6959,14 @@
       <c r="T77" s="113"/>
       <c r="U77" s="71"/>
       <c r="V77" s="114" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W77" s="115"/>
       <c r="X77" s="115"/>
       <c r="Y77" s="115"/>
       <c r="Z77" s="116"/>
       <c r="AA77" s="111" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AB77" s="112"/>
       <c r="AC77" s="112"/>
@@ -7080,44 +6994,44 @@
     </row>
     <row r="78" spans="1:53" customHeight="1" ht="31.5">
       <c r="B78" s="117" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C78" s="118"/>
       <c r="D78" s="118"/>
       <c r="E78" s="118"/>
       <c r="F78" s="119"/>
       <c r="G78" s="179" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H78" s="118"/>
       <c r="I78" s="118"/>
       <c r="J78" s="119"/>
       <c r="K78" s="120" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L78" s="121"/>
       <c r="M78" s="121"/>
       <c r="N78" s="122"/>
       <c r="O78" s="120" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P78" s="121"/>
       <c r="Q78" s="121"/>
       <c r="R78" s="122"/>
       <c r="S78" s="188" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="T78" s="189"/>
       <c r="U78" s="9"/>
       <c r="V78" s="117" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="W78" s="118"/>
       <c r="X78" s="118"/>
       <c r="Y78" s="118"/>
       <c r="Z78" s="119"/>
       <c r="AA78" s="120" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB78" s="121"/>
       <c r="AC78" s="121"/>
@@ -7128,7 +7042,7 @@
       <c r="AH78" s="121"/>
       <c r="AI78" s="121"/>
       <c r="AJ78" s="120" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AK78" s="121"/>
       <c r="AL78" s="121"/>
@@ -7137,7 +7051,7 @@
       <c r="AO78" s="121"/>
       <c r="AP78" s="121"/>
       <c r="AQ78" s="121" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AR78" s="121"/>
       <c r="AS78" s="121"/>
@@ -7145,7 +7059,7 @@
       <c r="AU78" s="121"/>
       <c r="AV78" s="122"/>
       <c r="AW78" s="188" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AX78" s="189"/>
     </row>
@@ -7297,7 +7211,7 @@
       <c r="AR81" s="9"/>
       <c r="AS81" s="9"/>
       <c r="AT81" s="182" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AU81" s="182"/>
       <c r="AV81" s="182"/>
@@ -8095,12 +8009,12 @@
         <v>0</v>
       </c>
       <c r="AF1" s="73" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:38" customHeight="1" ht="17.25">
       <c r="B2" s="232" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="233"/>
       <c r="D2" s="233"/>
@@ -8138,7 +8052,7 @@
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="20.1" s="31" customFormat="1">
       <c r="B3" s="43" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -8149,7 +8063,7 @@
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
       <c r="K3" s="191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" s="191"/>
       <c r="M3" s="191"/>
@@ -8159,7 +8073,7 @@
       <c r="Q3" s="128"/>
       <c r="R3" s="2"/>
       <c r="S3" s="43" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
@@ -8171,7 +8085,7 @@
       <c r="AA3" s="44"/>
       <c r="AB3" s="44"/>
       <c r="AC3" s="191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD3" s="191"/>
       <c r="AE3" s="191"/>
@@ -8182,7 +8096,7 @@
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="20.1">
       <c r="B4" s="48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -8196,13 +8110,13 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="124" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O4" s="124"/>
       <c r="P4" s="90"/>
       <c r="Q4" s="125"/>
       <c r="S4" s="48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
@@ -8217,7 +8131,7 @@
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="197" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG4" s="197"/>
       <c r="AH4" s="90"/>
@@ -8225,7 +8139,7 @@
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="20.1">
       <c r="B5" s="48" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -8236,7 +8150,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="197" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L5" s="197"/>
       <c r="M5" s="197"/>
@@ -8245,7 +8159,7 @@
       <c r="P5" s="91"/>
       <c r="Q5" s="92"/>
       <c r="S5" s="48" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
@@ -8257,7 +8171,7 @@
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="197" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AD5" s="197"/>
       <c r="AE5" s="197"/>
@@ -8268,7 +8182,7 @@
     </row>
     <row r="6" spans="1:38" customHeight="1" ht="20.1">
       <c r="B6" s="51" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -8279,7 +8193,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="124" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L6" s="124"/>
       <c r="M6" s="124"/>
@@ -8288,7 +8202,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="58"/>
       <c r="S6" s="51" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="T6" s="39"/>
       <c r="U6" s="40"/>
@@ -8300,7 +8214,7 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="124" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AD6" s="124"/>
       <c r="AE6" s="124"/>
@@ -8346,7 +8260,7 @@
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="18">
       <c r="B8" s="173" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" s="103"/>
       <c r="D8" s="103"/>
@@ -8354,23 +8268,23 @@
       <c r="F8" s="103"/>
       <c r="G8" s="104"/>
       <c r="H8" s="215" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I8" s="216"/>
       <c r="J8" s="216"/>
       <c r="K8" s="217"/>
       <c r="L8" s="102" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M8" s="103"/>
       <c r="N8" s="104"/>
       <c r="O8" s="102" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P8" s="103"/>
       <c r="Q8" s="177"/>
       <c r="S8" s="173" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="T8" s="103"/>
       <c r="U8" s="103"/>
@@ -8381,17 +8295,17 @@
       <c r="Z8" s="103"/>
       <c r="AA8" s="104"/>
       <c r="AB8" s="215" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC8" s="216"/>
       <c r="AD8" s="216"/>
       <c r="AE8" s="216"/>
       <c r="AF8" s="217"/>
       <c r="AG8" s="235" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AH8" s="102" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AI8" s="177"/>
     </row>
@@ -8448,7 +8362,7 @@
     </row>
     <row r="10" spans="1:38" customHeight="1" ht="20.1">
       <c r="B10" s="143" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C10" s="144"/>
       <c r="D10" s="144"/>
@@ -8466,7 +8380,7 @@
       <c r="P10" s="223"/>
       <c r="Q10" s="150"/>
       <c r="S10" s="143" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="T10" s="144"/>
       <c r="U10" s="144"/>
@@ -8487,7 +8401,7 @@
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="20.1">
       <c r="B11" s="143" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C11" s="144"/>
       <c r="D11" s="144"/>
@@ -8505,7 +8419,7 @@
       <c r="P11" s="223"/>
       <c r="Q11" s="150"/>
       <c r="S11" s="143" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="T11" s="144"/>
       <c r="U11" s="144"/>
@@ -8526,7 +8440,7 @@
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="20.1">
       <c r="B12" s="143" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C12" s="144"/>
       <c r="D12" s="144"/>
@@ -8544,7 +8458,7 @@
       <c r="P12" s="223"/>
       <c r="Q12" s="150"/>
       <c r="S12" s="143" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="T12" s="144"/>
       <c r="U12" s="144"/>
@@ -8565,7 +8479,7 @@
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="20.1">
       <c r="B13" s="143" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C13" s="144"/>
       <c r="D13" s="144"/>
@@ -8583,7 +8497,7 @@
       <c r="P13" s="223"/>
       <c r="Q13" s="150"/>
       <c r="S13" s="143" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="T13" s="144"/>
       <c r="U13" s="144"/>
@@ -8604,7 +8518,7 @@
     </row>
     <row r="14" spans="1:38" customHeight="1" ht="20.1">
       <c r="B14" s="143" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C14" s="144"/>
       <c r="D14" s="144"/>
@@ -8622,7 +8536,7 @@
       <c r="P14" s="223"/>
       <c r="Q14" s="150"/>
       <c r="S14" s="143" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="T14" s="144"/>
       <c r="U14" s="144"/>
@@ -8643,7 +8557,7 @@
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="20.1">
       <c r="B15" s="143" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" s="144"/>
       <c r="D15" s="144"/>
@@ -8661,7 +8575,7 @@
       <c r="P15" s="223"/>
       <c r="Q15" s="150"/>
       <c r="S15" s="143" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="T15" s="144"/>
       <c r="U15" s="144"/>
@@ -8682,7 +8596,7 @@
     </row>
     <row r="16" spans="1:38" customHeight="1" ht="20.1">
       <c r="B16" s="143" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C16" s="144"/>
       <c r="D16" s="144"/>
@@ -8700,7 +8614,7 @@
       <c r="P16" s="223"/>
       <c r="Q16" s="150"/>
       <c r="S16" s="143" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="T16" s="144"/>
       <c r="U16" s="144"/>
@@ -8721,7 +8635,7 @@
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="20.1">
       <c r="B17" s="143" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C17" s="144"/>
       <c r="D17" s="144"/>
@@ -8739,7 +8653,7 @@
       <c r="P17" s="223"/>
       <c r="Q17" s="150"/>
       <c r="S17" s="143" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T17" s="144"/>
       <c r="U17" s="144"/>
@@ -8760,7 +8674,7 @@
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="20.1">
       <c r="B18" s="151" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C18" s="152"/>
       <c r="D18" s="152"/>
@@ -8778,7 +8692,7 @@
       <c r="P18" s="223"/>
       <c r="Q18" s="150"/>
       <c r="S18" s="151" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="T18" s="152"/>
       <c r="U18" s="152"/>
@@ -8799,7 +8713,7 @@
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="20.1">
       <c r="B19" s="151" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C19" s="152"/>
       <c r="D19" s="152"/>
@@ -8817,7 +8731,7 @@
       <c r="P19" s="223"/>
       <c r="Q19" s="150"/>
       <c r="S19" s="151" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="T19" s="152"/>
       <c r="U19" s="152"/>
@@ -8838,7 +8752,7 @@
     </row>
     <row r="20" spans="1:38" customHeight="1" ht="20.1">
       <c r="B20" s="151" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C20" s="152"/>
       <c r="D20" s="152"/>
@@ -8856,7 +8770,7 @@
       <c r="P20" s="223"/>
       <c r="Q20" s="150"/>
       <c r="S20" s="151" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T20" s="152"/>
       <c r="U20" s="152"/>
@@ -8877,7 +8791,7 @@
     </row>
     <row r="21" spans="1:38" customHeight="1" ht="20.1">
       <c r="B21" s="151" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C21" s="152"/>
       <c r="D21" s="152"/>
@@ -8895,7 +8809,7 @@
       <c r="P21" s="223"/>
       <c r="Q21" s="150"/>
       <c r="S21" s="151" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="T21" s="152"/>
       <c r="U21" s="152"/>
@@ -8916,7 +8830,7 @@
     </row>
     <row r="22" spans="1:38" customHeight="1" ht="20.1">
       <c r="B22" s="143" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C22" s="144"/>
       <c r="D22" s="144"/>
@@ -8934,7 +8848,7 @@
       <c r="P22" s="223"/>
       <c r="Q22" s="150"/>
       <c r="S22" s="143" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="T22" s="144"/>
       <c r="U22" s="144"/>
@@ -8955,7 +8869,7 @@
     </row>
     <row r="23" spans="1:38" customHeight="1" ht="20.1">
       <c r="B23" s="146" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C23" s="147"/>
       <c r="D23" s="147"/>
@@ -8973,7 +8887,7 @@
       <c r="P23" s="223"/>
       <c r="Q23" s="150"/>
       <c r="S23" s="146" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T23" s="147"/>
       <c r="U23" s="147"/>
@@ -8994,7 +8908,7 @@
     </row>
     <row r="24" spans="1:38" customHeight="1" ht="20.1">
       <c r="B24" s="146" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C24" s="147"/>
       <c r="D24" s="147"/>
@@ -9012,7 +8926,7 @@
       <c r="P24" s="223"/>
       <c r="Q24" s="150"/>
       <c r="S24" s="146" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="T24" s="147"/>
       <c r="U24" s="147"/>
@@ -9033,7 +8947,7 @@
     </row>
     <row r="25" spans="1:38" customHeight="1" ht="20.1">
       <c r="B25" s="161" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C25" s="162"/>
       <c r="D25" s="162"/>
@@ -9066,7 +8980,7 @@
       <c r="P25" s="224"/>
       <c r="Q25" s="184"/>
       <c r="S25" s="161" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T25" s="162"/>
       <c r="U25" s="162"/>
@@ -9137,13 +9051,13 @@
     </row>
     <row r="27" spans="1:38" customHeight="1" ht="12">
       <c r="B27" s="225" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C27" s="112"/>
       <c r="D27" s="112"/>
       <c r="E27" s="226"/>
       <c r="F27" s="111" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G27" s="112"/>
       <c r="H27" s="112"/>
@@ -9158,13 +9072,13 @@
       <c r="Q27" s="113"/>
       <c r="R27" s="44"/>
       <c r="S27" s="225" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T27" s="112"/>
       <c r="U27" s="112"/>
       <c r="V27" s="226"/>
       <c r="W27" s="230" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="X27" s="230"/>
       <c r="Y27" s="230"/>
@@ -9181,40 +9095,40 @@
     </row>
     <row r="28" spans="1:38" customHeight="1" ht="31.5">
       <c r="B28" s="117" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C28" s="118"/>
       <c r="D28" s="118"/>
       <c r="E28" s="119"/>
       <c r="F28" s="179" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G28" s="119"/>
       <c r="H28" s="120" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I28" s="121"/>
       <c r="J28" s="122"/>
       <c r="K28" s="120" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L28" s="121"/>
       <c r="M28" s="121"/>
       <c r="N28" s="122"/>
       <c r="O28" s="188" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P28" s="179"/>
       <c r="Q28" s="189"/>
       <c r="R28" s="9"/>
       <c r="S28" s="117" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="T28" s="118"/>
       <c r="U28" s="118"/>
       <c r="V28" s="119"/>
       <c r="W28" s="227" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="X28" s="227"/>
       <c r="Y28" s="227"/>
@@ -9222,16 +9136,16 @@
       <c r="AA28" s="227"/>
       <c r="AB28" s="227"/>
       <c r="AC28" s="227" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AD28" s="227"/>
       <c r="AE28" s="227"/>
       <c r="AF28" s="227" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AG28" s="227"/>
       <c r="AH28" s="188" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AI28" s="189"/>
     </row>
@@ -9345,7 +9259,7 @@
     </row>
     <row r="32" spans="1:38" customHeight="1" ht="18.75">
       <c r="B32" s="43" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
@@ -9356,7 +9270,7 @@
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L32" s="191"/>
       <c r="M32" s="191"/>
@@ -9365,7 +9279,7 @@
       <c r="P32" s="126"/>
       <c r="Q32" s="128"/>
       <c r="S32" s="43" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="T32" s="44"/>
       <c r="U32" s="44"/>
@@ -9377,7 +9291,7 @@
       <c r="AA32" s="44"/>
       <c r="AB32" s="44"/>
       <c r="AC32" s="191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD32" s="191"/>
       <c r="AE32" s="191"/>
@@ -9388,7 +9302,7 @@
     </row>
     <row r="33" spans="1:38" customHeight="1" ht="18">
       <c r="B33" s="48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -9402,13 +9316,13 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="124" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O33" s="124"/>
       <c r="P33" s="90"/>
       <c r="Q33" s="125"/>
       <c r="S33" s="48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
@@ -9423,7 +9337,7 @@
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
       <c r="AF33" s="197" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG33" s="197"/>
       <c r="AH33" s="90"/>
@@ -9431,7 +9345,7 @@
     </row>
     <row r="34" spans="1:38" customHeight="1" ht="18">
       <c r="B34" s="48" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -9442,7 +9356,7 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="197" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L34" s="197"/>
       <c r="M34" s="197"/>
@@ -9451,7 +9365,7 @@
       <c r="P34" s="91"/>
       <c r="Q34" s="92"/>
       <c r="S34" s="48" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
@@ -9463,7 +9377,7 @@
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="197" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AD34" s="197"/>
       <c r="AE34" s="197"/>
@@ -9474,7 +9388,7 @@
     </row>
     <row r="35" spans="1:38" customHeight="1" ht="20.1">
       <c r="B35" s="51" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
@@ -9485,7 +9399,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="124" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L35" s="124"/>
       <c r="M35" s="124"/>
@@ -9494,7 +9408,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="58"/>
       <c r="S35" s="51" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="T35" s="39"/>
       <c r="U35" s="40"/>
@@ -9506,7 +9420,7 @@
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="124" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AD35" s="124"/>
       <c r="AE35" s="124"/>
@@ -9552,7 +9466,7 @@
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="20.1">
       <c r="B37" s="173" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C37" s="103"/>
       <c r="D37" s="103"/>
@@ -9560,24 +9474,24 @@
       <c r="F37" s="103"/>
       <c r="G37" s="104"/>
       <c r="H37" s="215" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I37" s="216"/>
       <c r="J37" s="216"/>
       <c r="K37" s="217"/>
       <c r="L37" s="102" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M37" s="103"/>
       <c r="N37" s="104"/>
       <c r="O37" s="102" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P37" s="103"/>
       <c r="Q37" s="177"/>
       <c r="R37" s="9"/>
       <c r="S37" s="173" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="T37" s="103"/>
       <c r="U37" s="103"/>
@@ -9588,17 +9502,17 @@
       <c r="Z37" s="103"/>
       <c r="AA37" s="104"/>
       <c r="AB37" s="215" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC37" s="216"/>
       <c r="AD37" s="216"/>
       <c r="AE37" s="216"/>
       <c r="AF37" s="217"/>
       <c r="AG37" s="235" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AH37" s="102" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AI37" s="177"/>
     </row>
@@ -9655,7 +9569,7 @@
     </row>
     <row r="39" spans="1:38" customHeight="1" ht="20.1">
       <c r="B39" s="143" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -9673,7 +9587,7 @@
       <c r="P39" s="223"/>
       <c r="Q39" s="150"/>
       <c r="S39" s="143" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="T39" s="144"/>
       <c r="U39" s="144"/>
@@ -9694,7 +9608,7 @@
     </row>
     <row r="40" spans="1:38" customHeight="1" ht="20.1">
       <c r="B40" s="143" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C40" s="144"/>
       <c r="D40" s="144"/>
@@ -9712,7 +9626,7 @@
       <c r="P40" s="223"/>
       <c r="Q40" s="150"/>
       <c r="S40" s="143" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="T40" s="144"/>
       <c r="U40" s="144"/>
@@ -9733,7 +9647,7 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="20.1">
       <c r="B41" s="143" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C41" s="144"/>
       <c r="D41" s="144"/>
@@ -9751,7 +9665,7 @@
       <c r="P41" s="223"/>
       <c r="Q41" s="150"/>
       <c r="S41" s="143" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="T41" s="144"/>
       <c r="U41" s="144"/>
@@ -9772,7 +9686,7 @@
     </row>
     <row r="42" spans="1:38" customHeight="1" ht="20.1">
       <c r="B42" s="143" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C42" s="144"/>
       <c r="D42" s="144"/>
@@ -9790,7 +9704,7 @@
       <c r="P42" s="223"/>
       <c r="Q42" s="150"/>
       <c r="S42" s="143" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="T42" s="144"/>
       <c r="U42" s="144"/>
@@ -9811,7 +9725,7 @@
     </row>
     <row r="43" spans="1:38" customHeight="1" ht="20.1">
       <c r="B43" s="143" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C43" s="144"/>
       <c r="D43" s="144"/>
@@ -9829,7 +9743,7 @@
       <c r="P43" s="83"/>
       <c r="Q43" s="62"/>
       <c r="S43" s="143" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="T43" s="144"/>
       <c r="U43" s="144"/>
@@ -9850,7 +9764,7 @@
     </row>
     <row r="44" spans="1:38" customHeight="1" ht="20.1">
       <c r="B44" s="143" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C44" s="144"/>
       <c r="D44" s="144"/>
@@ -9868,7 +9782,7 @@
       <c r="P44" s="223"/>
       <c r="Q44" s="150"/>
       <c r="S44" s="143" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="T44" s="144"/>
       <c r="U44" s="144"/>
@@ -9889,7 +9803,7 @@
     </row>
     <row r="45" spans="1:38" customHeight="1" ht="20.1">
       <c r="B45" s="143" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C45" s="144"/>
       <c r="D45" s="144"/>
@@ -9907,7 +9821,7 @@
       <c r="P45" s="83"/>
       <c r="Q45" s="62"/>
       <c r="S45" s="143" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="T45" s="144"/>
       <c r="U45" s="144"/>
@@ -9928,7 +9842,7 @@
     </row>
     <row r="46" spans="1:38" customHeight="1" ht="20.1">
       <c r="B46" s="143" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C46" s="144"/>
       <c r="D46" s="144"/>
@@ -9946,7 +9860,7 @@
       <c r="P46" s="223"/>
       <c r="Q46" s="150"/>
       <c r="S46" s="143" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T46" s="144"/>
       <c r="U46" s="144"/>
@@ -9967,7 +9881,7 @@
     </row>
     <row r="47" spans="1:38" customHeight="1" ht="20.1">
       <c r="B47" s="151" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C47" s="152"/>
       <c r="D47" s="152"/>
@@ -9985,7 +9899,7 @@
       <c r="P47" s="223"/>
       <c r="Q47" s="150"/>
       <c r="S47" s="151" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="T47" s="152"/>
       <c r="U47" s="152"/>
@@ -10006,7 +9920,7 @@
     </row>
     <row r="48" spans="1:38" customHeight="1" ht="20.1">
       <c r="B48" s="151" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C48" s="152"/>
       <c r="D48" s="152"/>
@@ -10024,7 +9938,7 @@
       <c r="P48" s="223"/>
       <c r="Q48" s="150"/>
       <c r="S48" s="151" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="T48" s="152"/>
       <c r="U48" s="152"/>
@@ -10045,7 +9959,7 @@
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="20.1">
       <c r="B49" s="151" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C49" s="152"/>
       <c r="D49" s="152"/>
@@ -10063,7 +9977,7 @@
       <c r="P49" s="223"/>
       <c r="Q49" s="150"/>
       <c r="S49" s="151" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T49" s="152"/>
       <c r="U49" s="152"/>
@@ -10084,7 +9998,7 @@
     </row>
     <row r="50" spans="1:38" customHeight="1" ht="20.1">
       <c r="B50" s="151" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C50" s="152"/>
       <c r="D50" s="152"/>
@@ -10102,7 +10016,7 @@
       <c r="P50" s="223"/>
       <c r="Q50" s="150"/>
       <c r="S50" s="151" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="T50" s="152"/>
       <c r="U50" s="152"/>
@@ -10123,7 +10037,7 @@
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="18.75">
       <c r="B51" s="143" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C51" s="144"/>
       <c r="D51" s="144"/>
@@ -10141,7 +10055,7 @@
       <c r="P51" s="223"/>
       <c r="Q51" s="150"/>
       <c r="S51" s="143" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="T51" s="144"/>
       <c r="U51" s="144"/>
@@ -10162,7 +10076,7 @@
     </row>
     <row r="52" spans="1:38">
       <c r="B52" s="146" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C52" s="147"/>
       <c r="D52" s="147"/>
@@ -10180,7 +10094,7 @@
       <c r="P52" s="223"/>
       <c r="Q52" s="150"/>
       <c r="S52" s="146" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T52" s="147"/>
       <c r="U52" s="147"/>
@@ -10201,7 +10115,7 @@
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="20.1">
       <c r="B53" s="146" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C53" s="147"/>
       <c r="D53" s="147"/>
@@ -10219,7 +10133,7 @@
       <c r="P53" s="223"/>
       <c r="Q53" s="150"/>
       <c r="S53" s="146" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="T53" s="147"/>
       <c r="U53" s="147"/>
@@ -10240,7 +10154,7 @@
     </row>
     <row r="54" spans="1:38" customHeight="1" ht="19.5">
       <c r="B54" s="161" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C54" s="162"/>
       <c r="D54" s="162"/>
@@ -10273,7 +10187,7 @@
       <c r="P54" s="224"/>
       <c r="Q54" s="184"/>
       <c r="S54" s="161" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T54" s="162"/>
       <c r="U54" s="162"/>
@@ -10344,13 +10258,13 @@
     </row>
     <row r="56" spans="1:38" customHeight="1" ht="15">
       <c r="B56" s="225" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C56" s="112"/>
       <c r="D56" s="112"/>
       <c r="E56" s="226"/>
       <c r="F56" s="111" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G56" s="112"/>
       <c r="H56" s="112"/>
@@ -10365,13 +10279,13 @@
       <c r="Q56" s="113"/>
       <c r="R56" s="44"/>
       <c r="S56" s="225" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T56" s="112"/>
       <c r="U56" s="112"/>
       <c r="V56" s="226"/>
       <c r="W56" s="230" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="X56" s="230"/>
       <c r="Y56" s="230"/>
@@ -10388,40 +10302,40 @@
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="31.5">
       <c r="B57" s="117" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C57" s="118"/>
       <c r="D57" s="118"/>
       <c r="E57" s="119"/>
       <c r="F57" s="188" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G57" s="188"/>
       <c r="H57" s="120" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I57" s="121"/>
       <c r="J57" s="122"/>
       <c r="K57" s="120" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L57" s="121"/>
       <c r="M57" s="121"/>
       <c r="N57" s="122"/>
       <c r="O57" s="188" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P57" s="179"/>
       <c r="Q57" s="189"/>
       <c r="R57" s="9"/>
       <c r="S57" s="117" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="T57" s="118"/>
       <c r="U57" s="118"/>
       <c r="V57" s="119"/>
       <c r="W57" s="227" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="X57" s="227"/>
       <c r="Y57" s="227"/>
@@ -10429,16 +10343,16 @@
       <c r="AA57" s="227"/>
       <c r="AB57" s="227"/>
       <c r="AC57" s="227" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AD57" s="227"/>
       <c r="AE57" s="227"/>
       <c r="AF57" s="227" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AG57" s="227"/>
       <c r="AH57" s="188" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AI57" s="189"/>
     </row>
@@ -10516,7 +10430,7 @@
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="27">
       <c r="B60" s="237" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C60" s="237"/>
       <c r="D60" s="237"/>
@@ -10555,7 +10469,7 @@
     <row r="61" spans="1:38" customHeight="1" ht="20.1">
       <c r="B61" s="3"/>
       <c r="C61" s="228" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D61" s="228"/>
       <c r="E61" s="228"/>
@@ -10593,7 +10507,7 @@
     <row r="62" spans="1:38" customHeight="1" ht="20.1">
       <c r="B62" s="4"/>
       <c r="C62" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -10609,14 +10523,14 @@
       <c r="O62" s="205"/>
       <c r="P62" s="205"/>
       <c r="Q62" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="R62" s="89"/>
       <c r="S62" s="205"/>
       <c r="T62" s="205"/>
       <c r="U62" s="205"/>
       <c r="V62" s="219" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="W62" s="219"/>
       <c r="X62" s="219"/>
@@ -10631,13 +10545,13 @@
       <c r="AG62" s="219"/>
       <c r="AH62" s="88"/>
       <c r="AI62" s="87" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:38" customHeight="1" ht="20.1">
       <c r="B63" s="4"/>
       <c r="C63" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="205"/>
@@ -10646,7 +10560,7 @@
       <c r="H63" s="205"/>
       <c r="I63" s="205"/>
       <c r="J63" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="218"/>
@@ -10654,13 +10568,13 @@
       <c r="N63" s="218"/>
       <c r="O63" s="12"/>
       <c r="P63" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q63" s="205"/>
       <c r="R63" s="205"/>
       <c r="S63" s="205"/>
       <c r="T63" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
@@ -10755,7 +10669,7 @@
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="205" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F66" s="205"/>
       <c r="G66" s="205"/>
@@ -10765,7 +10679,7 @@
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
@@ -10784,7 +10698,7 @@
       <c r="AB66" s="13"/>
       <c r="AC66" s="13"/>
       <c r="AD66" s="221" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AE66" s="221"/>
       <c r="AF66" s="221"/>
@@ -10795,7 +10709,7 @@
     <row r="68" spans="1:38" customHeight="1" ht="20.1">
       <c r="B68" s="3"/>
       <c r="C68" s="228" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D68" s="228"/>
       <c r="E68" s="228"/>
@@ -10833,7 +10747,7 @@
     <row r="69" spans="1:38" customHeight="1" ht="20.1">
       <c r="B69" s="4"/>
       <c r="C69" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -10849,14 +10763,14 @@
       <c r="O69" s="205"/>
       <c r="P69" s="205"/>
       <c r="Q69" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="R69" s="89"/>
       <c r="S69" s="205"/>
       <c r="T69" s="205"/>
       <c r="U69" s="205"/>
       <c r="V69" s="219" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="W69" s="219"/>
       <c r="X69" s="219"/>
@@ -10871,13 +10785,13 @@
       <c r="AG69" s="219"/>
       <c r="AH69" s="88"/>
       <c r="AI69" s="87" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:38" customHeight="1" ht="20.1">
       <c r="B70" s="4"/>
       <c r="C70" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="205"/>
@@ -10886,7 +10800,7 @@
       <c r="H70" s="205"/>
       <c r="I70" s="205"/>
       <c r="J70" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="218"/>
@@ -10894,13 +10808,13 @@
       <c r="N70" s="218"/>
       <c r="O70" s="12"/>
       <c r="P70" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q70" s="205"/>
       <c r="R70" s="205"/>
       <c r="S70" s="205"/>
       <c r="T70" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
@@ -10995,7 +10909,7 @@
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="205" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F73" s="205"/>
       <c r="G73" s="205"/>
@@ -11005,7 +10919,7 @@
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
       <c r="M73" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N73" s="12"/>
       <c r="O73" s="12"/>
@@ -11024,7 +10938,7 @@
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
       <c r="AD73" s="221" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AE73" s="221"/>
       <c r="AF73" s="221"/>
@@ -11035,7 +10949,7 @@
     <row r="75" spans="1:38" customHeight="1" ht="20.1">
       <c r="B75" s="3"/>
       <c r="C75" s="228" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D75" s="228"/>
       <c r="E75" s="228"/>
@@ -11073,7 +10987,7 @@
     <row r="76" spans="1:38" customHeight="1" ht="20.1">
       <c r="B76" s="4"/>
       <c r="C76" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -11089,14 +11003,14 @@
       <c r="O76" s="205"/>
       <c r="P76" s="205"/>
       <c r="Q76" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="R76" s="89"/>
       <c r="S76" s="205"/>
       <c r="T76" s="205"/>
       <c r="U76" s="205"/>
       <c r="V76" s="219" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="W76" s="219"/>
       <c r="X76" s="219"/>
@@ -11111,13 +11025,13 @@
       <c r="AG76" s="219"/>
       <c r="AH76" s="88"/>
       <c r="AI76" s="87" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:38" customHeight="1" ht="20.1">
       <c r="B77" s="4"/>
       <c r="C77" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="205"/>
@@ -11126,7 +11040,7 @@
       <c r="H77" s="205"/>
       <c r="I77" s="205"/>
       <c r="J77" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K77" s="5"/>
       <c r="L77" s="218"/>
@@ -11134,13 +11048,13 @@
       <c r="N77" s="218"/>
       <c r="O77" s="12"/>
       <c r="P77" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q77" s="205"/>
       <c r="R77" s="205"/>
       <c r="S77" s="205"/>
       <c r="T77" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
@@ -11235,7 +11149,7 @@
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="205" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F80" s="205"/>
       <c r="G80" s="205"/>
@@ -11245,7 +11159,7 @@
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
       <c r="M80" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N80" s="12"/>
       <c r="O80" s="12"/>
@@ -11264,7 +11178,7 @@
       <c r="AB80" s="13"/>
       <c r="AC80" s="13"/>
       <c r="AD80" s="221" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AE80" s="221"/>
       <c r="AF80" s="221"/>
@@ -11274,10 +11188,10 @@
     </row>
     <row r="81" spans="1:38">
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AG81" s="86" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -11725,37 +11639,37 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/reports/myform137.xlsx
+++ b/reports/myform137.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>SF10-ES</t>
   </si>
@@ -56,13 +56,13 @@
     <t>LAST NAME:</t>
   </si>
   <si>
-    <t>SCHERBATZKY</t>
+    <t>STINSON</t>
   </si>
   <si>
     <t>FIRST NAME:</t>
   </si>
   <si>
-    <t>ROBIN</t>
+    <t>BARNEY</t>
   </si>
   <si>
     <t>NAME EXTN. (Jr,I,II)</t>
@@ -71,22 +71,25 @@
     <t>MIDDLE NAME:</t>
   </si>
   <si>
+    <t>WAITFORIT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Learner Reference Number (LRN): </t>
   </si>
   <si>
-    <t>LRN40559200000012</t>
+    <t>LRN40559200000011</t>
   </si>
   <si>
     <t>Birthdate (mm/dd/yyyy):</t>
   </si>
   <si>
-    <t>2017-06-01</t>
+    <t>1990-01-01</t>
   </si>
   <si>
     <t xml:space="preserve">Sex: </t>
   </si>
   <si>
-    <t>FEMALE</t>
+    <t>MALE</t>
   </si>
   <si>
     <t>ELIGIBILITY FOR ELEMENTARY SCHOOL ENROLMENT</t>
@@ -137,58 +140,70 @@
     <t>School:</t>
   </si>
   <si>
+    <t>RIZAL ELEM SCHOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School ID: </t>
+  </si>
+  <si>
     <t>SUNBEAM CHRISTIAN SCHOOL OF PANABO INC.</t>
   </si>
   <si>
-    <t xml:space="preserve">School ID: </t>
-  </si>
-  <si>
     <t>District:</t>
   </si>
   <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>PANABO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region: </t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>Panabo Central</t>
+  </si>
+  <si>
+    <t>Division:</t>
+  </si>
+  <si>
     <t>Panabo</t>
   </si>
   <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region: </t>
-  </si>
-  <si>
-    <t>XI</t>
-  </si>
-  <si>
-    <t>Division:</t>
-  </si>
-  <si>
     <t>Region:</t>
   </si>
   <si>
     <t>Classified as Grade:</t>
   </si>
   <si>
-    <t>Grade 2</t>
-  </si>
-  <si>
     <t>Section:</t>
   </si>
   <si>
-    <t>SECTION ABACA</t>
-  </si>
-  <si>
     <t xml:space="preserve">School Year: </t>
   </si>
   <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>Grade 1</t>
+  </si>
+  <si>
+    <t>SECTION APPLE</t>
+  </si>
+  <si>
+    <t>School Year:</t>
+  </si>
+  <si>
     <t>2023-2024</t>
   </si>
   <si>
-    <t>School Year:</t>
-  </si>
-  <si>
     <t>Name of Adviser/Teacher:</t>
   </si>
   <si>
-    <t>HEV ABI</t>
+    <t>RODRIGO DUTERTE</t>
   </si>
   <si>
     <t xml:space="preserve">Signature: </t>
@@ -211,6 +226,9 @@
     </r>
   </si>
   <si>
+    <t>SHELDON COOPER</t>
+  </si>
+  <si>
     <t>Signature:</t>
   </si>
   <si>
@@ -238,6 +256,9 @@
     <t>English</t>
   </si>
   <si>
+    <t>Passed</t>
+  </si>
+  <si>
     <t>Mathematics</t>
   </si>
   <si>
@@ -287,6 +308,18 @@
   </si>
   <si>
     <t>Recomputed Final Grade</t>
+  </si>
+  <si>
+    <t>Grade 2</t>
+  </si>
+  <si>
+    <t>SECTION ABACA</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>ILLEST MORENA</t>
   </si>
   <si>
     <t>SFRT 2017</t>
@@ -3257,7 +3290,9 @@
       <c r="AM9" s="20"/>
       <c r="AN9" s="20"/>
       <c r="AO9" s="20"/>
-      <c r="AQ9" s="133"/>
+      <c r="AQ9" s="133" t="s">
+        <v>11</v>
+      </c>
       <c r="AR9" s="133"/>
       <c r="AS9" s="133"/>
       <c r="AT9" s="133"/>
@@ -3269,7 +3304,7 @@
     </row>
     <row r="10" spans="1:53" customHeight="1" ht="26.25">
       <c r="B10" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -3279,7 +3314,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" s="98"/>
       <c r="L10" s="98"/>
@@ -3287,10 +3322,10 @@
       <c r="N10" s="98"/>
       <c r="O10" s="98"/>
       <c r="U10" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V10" s="199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W10" s="199"/>
       <c r="X10" s="199"/>
@@ -3308,10 +3343,10 @@
       <c r="AJ10" s="198"/>
       <c r="AK10" s="22"/>
       <c r="AS10" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT10" s="198" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU10" s="198"/>
       <c r="AV10" s="198"/>
@@ -3325,7 +3360,7 @@
     </row>
     <row r="12" spans="1:53" customHeight="1" ht="16.5">
       <c r="B12" s="139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="140"/>
       <c r="D12" s="140"/>
@@ -3429,7 +3464,7 @@
     </row>
     <row r="14" spans="1:53" customHeight="1" ht="20.1">
       <c r="B14" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -3441,7 +3476,7 @@
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M14" s="27"/>
       <c r="N14" s="26"/>
@@ -3453,7 +3488,7 @@
       <c r="T14" s="26"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W14" s="27"/>
       <c r="X14" s="27"/>
@@ -3468,7 +3503,7 @@
       <c r="AG14" s="27"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ14" s="26"/>
       <c r="AK14" s="26"/>
@@ -3488,7 +3523,7 @@
     </row>
     <row r="15" spans="1:53" customHeight="1" ht="13.5" s="31" customFormat="1">
       <c r="B15" s="202" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="203"/>
       <c r="D15" s="203"/>
@@ -3506,13 +3541,13 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S15" s="29"/>
       <c r="T15" s="204"/>
       <c r="U15" s="204"/>
       <c r="V15" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W15" s="30"/>
       <c r="X15" s="30"/>
@@ -3596,7 +3631,7 @@
     </row>
     <row r="17" spans="1:53" customHeight="1" ht="15.75" s="31" customFormat="1">
       <c r="B17" s="34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -3650,7 +3685,7 @@
     <row r="18" spans="1:53" customHeight="1" ht="20.25">
       <c r="B18" s="36"/>
       <c r="C18" s="160" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="160"/>
       <c r="E18" s="160"/>
@@ -3661,7 +3696,7 @@
       <c r="J18" s="205"/>
       <c r="K18" s="205"/>
       <c r="L18" s="160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="160"/>
@@ -3680,7 +3715,7 @@
       <c r="AA18" s="91"/>
       <c r="AB18" s="91"/>
       <c r="AE18" s="130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF18" s="130"/>
       <c r="AG18" s="130"/>
@@ -3705,7 +3740,7 @@
     <row r="19" spans="1:53" customHeight="1" ht="20.25">
       <c r="B19" s="38"/>
       <c r="C19" s="99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="99"/>
       <c r="E19" s="99"/>
@@ -3733,7 +3768,7 @@
       <c r="AA19" s="91"/>
       <c r="AB19" s="91"/>
       <c r="AD19" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE19" s="39"/>
       <c r="AF19" s="39"/>
@@ -3804,7 +3839,7 @@
     </row>
     <row r="21" spans="1:53" customHeight="1" ht="15">
       <c r="B21" s="210" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="211"/>
       <c r="D21" s="211"/>
@@ -3907,11 +3942,11 @@
     </row>
     <row r="23" spans="1:53" customHeight="1" ht="20.1">
       <c r="B23" s="213" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="214"/>
       <c r="D23" s="126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="126"/>
       <c r="F23" s="126"/>
@@ -3924,18 +3959,22 @@
       <c r="M23" s="126"/>
       <c r="N23" s="126"/>
       <c r="O23" s="191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P23" s="191"/>
       <c r="Q23" s="191"/>
       <c r="R23" s="191"/>
-      <c r="S23" s="126"/>
+      <c r="S23" s="126">
+        <v>123123</v>
+      </c>
       <c r="T23" s="128"/>
       <c r="V23" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W23" s="44"/>
-      <c r="X23" s="126"/>
+      <c r="X23" s="126" t="s">
+        <v>36</v>
+      </c>
       <c r="Y23" s="126"/>
       <c r="Z23" s="126"/>
       <c r="AA23" s="126"/>
@@ -3956,31 +3995,33 @@
       <c r="AP23" s="126"/>
       <c r="AQ23" s="126"/>
       <c r="AR23" s="127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS23" s="127"/>
       <c r="AT23" s="127"/>
       <c r="AU23" s="127"/>
       <c r="AV23" s="127"/>
-      <c r="AW23" s="126"/>
+      <c r="AW23" s="126">
+        <v>405592</v>
+      </c>
       <c r="AX23" s="128"/>
     </row>
     <row r="24" spans="1:53" customHeight="1" ht="20.1">
       <c r="B24" s="45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="90" t="s">
-        <v>36</v>
+      <c r="D24" s="90">
+        <v>2</v>
       </c>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="91" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J24" s="91"/>
       <c r="K24" s="91"/>
@@ -3991,25 +4032,29 @@
       <c r="P24" s="91"/>
       <c r="Q24" s="91"/>
       <c r="R24" s="124" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S24" s="124"/>
       <c r="T24" s="46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V24" s="45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W24" s="16"/>
-      <c r="X24" s="90"/>
+      <c r="X24" s="90" t="s">
+        <v>42</v>
+      </c>
       <c r="Y24" s="90"/>
       <c r="Z24" s="90"/>
       <c r="AA24" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB24" s="16"/>
       <c r="AC24" s="16"/>
-      <c r="AD24" s="91"/>
+      <c r="AD24" s="91" t="s">
+        <v>44</v>
+      </c>
       <c r="AE24" s="91"/>
       <c r="AF24" s="91"/>
       <c r="AG24" s="91"/>
@@ -4027,58 +4072,64 @@
       <c r="AS24" s="91"/>
       <c r="AT24" s="91"/>
       <c r="AU24" s="124" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AV24" s="124"/>
       <c r="AW24" s="124"/>
-      <c r="AX24" s="47"/>
+      <c r="AX24" s="47" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" spans="1:53" customHeight="1" ht="20.1">
       <c r="B25" s="48" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="49" t="s">
-        <v>43</v>
+      <c r="F25" s="49">
+        <v>1</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="91" t="s">
-        <v>45</v>
+      <c r="J25" s="91">
+        <v>1</v>
       </c>
       <c r="K25" s="91"/>
       <c r="L25" s="91"/>
       <c r="M25" s="91"/>
       <c r="N25" s="91"/>
       <c r="O25" s="197" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P25" s="197"/>
       <c r="Q25" s="197"/>
       <c r="R25" s="197"/>
       <c r="S25" s="91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T25" s="92"/>
       <c r="V25" s="129" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W25" s="130"/>
       <c r="X25" s="130"/>
       <c r="Y25" s="130"/>
-      <c r="Z25" s="91"/>
+      <c r="Z25" s="91" t="s">
+        <v>50</v>
+      </c>
       <c r="AA25" s="91"/>
       <c r="AB25" s="124" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AC25" s="124"/>
       <c r="AD25" s="124"/>
-      <c r="AE25" s="91"/>
+      <c r="AE25" s="91" t="s">
+        <v>51</v>
+      </c>
       <c r="AF25" s="91"/>
       <c r="AG25" s="91"/>
       <c r="AH25" s="91"/>
@@ -4089,21 +4140,23 @@
       <c r="AM25" s="91"/>
       <c r="AN25" s="91"/>
       <c r="AO25" s="124" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AP25" s="124"/>
       <c r="AQ25" s="124"/>
       <c r="AR25" s="124"/>
       <c r="AS25" s="124"/>
       <c r="AT25" s="124"/>
-      <c r="AU25" s="91"/>
+      <c r="AU25" s="91" t="s">
+        <v>53</v>
+      </c>
       <c r="AV25" s="91"/>
       <c r="AW25" s="91"/>
       <c r="AX25" s="92"/>
     </row>
     <row r="26" spans="1:53" customHeight="1" ht="19.5">
       <c r="B26" s="129" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C26" s="130"/>
       <c r="D26" s="130"/>
@@ -4111,7 +4164,7 @@
       <c r="F26" s="130"/>
       <c r="G26" s="130"/>
       <c r="H26" s="91" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I26" s="91"/>
       <c r="J26" s="91"/>
@@ -4120,7 +4173,7 @@
       <c r="M26" s="91"/>
       <c r="N26" s="91"/>
       <c r="O26" s="124" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P26" s="124"/>
       <c r="Q26" s="124"/>
@@ -4128,7 +4181,7 @@
       <c r="S26" s="91"/>
       <c r="T26" s="92"/>
       <c r="V26" s="51" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
@@ -4136,7 +4189,9 @@
       <c r="Z26" s="39"/>
       <c r="AA26" s="40"/>
       <c r="AB26" s="40"/>
-      <c r="AC26" s="91"/>
+      <c r="AC26" s="91" t="s">
+        <v>58</v>
+      </c>
       <c r="AD26" s="91"/>
       <c r="AE26" s="91"/>
       <c r="AF26" s="91"/>
@@ -4150,7 +4205,7 @@
       <c r="AN26" s="91"/>
       <c r="AO26" s="91"/>
       <c r="AP26" s="124" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AQ26" s="124"/>
       <c r="AR26" s="124"/>
@@ -4213,7 +4268,7 @@
     </row>
     <row r="28" spans="1:53" customHeight="1" ht="15">
       <c r="B28" s="173" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C28" s="103"/>
       <c r="D28" s="103"/>
@@ -4224,23 +4279,23 @@
       <c r="I28" s="103"/>
       <c r="J28" s="104"/>
       <c r="K28" s="105" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L28" s="106"/>
       <c r="M28" s="106"/>
       <c r="N28" s="106"/>
       <c r="O28" s="107"/>
       <c r="P28" s="193" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q28" s="195"/>
       <c r="R28" s="196"/>
       <c r="S28" s="193" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="T28" s="194"/>
       <c r="V28" s="173" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="W28" s="103"/>
       <c r="X28" s="103"/>
@@ -4256,7 +4311,7 @@
       <c r="AH28" s="103"/>
       <c r="AI28" s="104"/>
       <c r="AJ28" s="175" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AK28" s="175"/>
       <c r="AL28" s="175"/>
@@ -4268,12 +4323,12 @@
       <c r="AR28" s="175"/>
       <c r="AS28" s="175"/>
       <c r="AT28" s="102" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AU28" s="103"/>
       <c r="AV28" s="104"/>
       <c r="AW28" s="102" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AX28" s="177"/>
     </row>
@@ -4345,7 +4400,7 @@
     </row>
     <row r="30" spans="1:53" customHeight="1" ht="21.95">
       <c r="B30" s="143" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C30" s="144"/>
       <c r="D30" s="144"/>
@@ -4366,7 +4421,7 @@
       <c r="S30" s="171"/>
       <c r="T30" s="172"/>
       <c r="V30" s="143" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="W30" s="144"/>
       <c r="X30" s="144"/>
@@ -4399,7 +4454,7 @@
     </row>
     <row r="31" spans="1:53" customHeight="1" ht="21.95">
       <c r="B31" s="143" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C31" s="144"/>
       <c r="D31" s="144"/>
@@ -4420,7 +4475,7 @@
       <c r="S31" s="171"/>
       <c r="T31" s="172"/>
       <c r="V31" s="143" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="W31" s="144"/>
       <c r="X31" s="144"/>
@@ -4453,7 +4508,7 @@
     </row>
     <row r="32" spans="1:53" customHeight="1" ht="21.95">
       <c r="B32" s="143" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C32" s="144"/>
       <c r="D32" s="144"/>
@@ -4464,25 +4519,29 @@
       <c r="I32" s="144"/>
       <c r="J32" s="145"/>
       <c r="K32" s="238">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L32" s="239">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M32" s="240"/>
       <c r="N32" s="241">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O32" s="241">
-        <v>90</v>
-      </c>
-      <c r="P32" s="242"/>
+        <v>79</v>
+      </c>
+      <c r="P32" s="242">
+        <v>86.0</v>
+      </c>
       <c r="Q32" s="243"/>
       <c r="R32" s="244"/>
-      <c r="S32" s="171"/>
+      <c r="S32" s="171" t="s">
+        <v>68</v>
+      </c>
       <c r="T32" s="172"/>
       <c r="V32" s="143" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="W32" s="144"/>
       <c r="X32" s="144"/>
@@ -4515,7 +4574,7 @@
     </row>
     <row r="33" spans="1:53" customHeight="1" ht="21.95">
       <c r="B33" s="143" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C33" s="144"/>
       <c r="D33" s="144"/>
@@ -4525,18 +4584,30 @@
       <c r="H33" s="144"/>
       <c r="I33" s="144"/>
       <c r="J33" s="145"/>
-      <c r="K33" s="238"/>
-      <c r="L33" s="239"/>
+      <c r="K33" s="238">
+        <v>89</v>
+      </c>
+      <c r="L33" s="239">
+        <v>90</v>
+      </c>
       <c r="M33" s="240"/>
-      <c r="N33" s="241"/>
-      <c r="O33" s="241"/>
-      <c r="P33" s="242"/>
+      <c r="N33" s="241">
+        <v>99</v>
+      </c>
+      <c r="O33" s="241">
+        <v>87</v>
+      </c>
+      <c r="P33" s="242">
+        <v>91.25</v>
+      </c>
       <c r="Q33" s="243"/>
       <c r="R33" s="244"/>
-      <c r="S33" s="171"/>
+      <c r="S33" s="171" t="s">
+        <v>68</v>
+      </c>
       <c r="T33" s="172"/>
       <c r="V33" s="143" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="W33" s="144"/>
       <c r="X33" s="144"/>
@@ -4569,7 +4640,7 @@
     </row>
     <row r="34" spans="1:53" customHeight="1" ht="21.95">
       <c r="B34" s="143" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C34" s="144"/>
       <c r="D34" s="144"/>
@@ -4590,7 +4661,7 @@
       <c r="S34" s="192"/>
       <c r="T34" s="172"/>
       <c r="V34" s="143" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="W34" s="144"/>
       <c r="X34" s="144"/>
@@ -4623,7 +4694,7 @@
     </row>
     <row r="35" spans="1:53" customHeight="1" ht="21.95">
       <c r="B35" s="143" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C35" s="144"/>
       <c r="D35" s="144"/>
@@ -4633,26 +4704,18 @@
       <c r="H35" s="144"/>
       <c r="I35" s="144"/>
       <c r="J35" s="145"/>
-      <c r="K35" s="238">
-        <v>94</v>
-      </c>
-      <c r="L35" s="239">
-        <v>92</v>
-      </c>
+      <c r="K35" s="238"/>
+      <c r="L35" s="239"/>
       <c r="M35" s="240"/>
-      <c r="N35" s="241">
-        <v>97</v>
-      </c>
-      <c r="O35" s="241">
-        <v>87</v>
-      </c>
+      <c r="N35" s="241"/>
+      <c r="O35" s="241"/>
       <c r="P35" s="242"/>
       <c r="Q35" s="243"/>
       <c r="R35" s="244"/>
       <c r="S35" s="171"/>
       <c r="T35" s="172"/>
       <c r="V35" s="143" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="W35" s="144"/>
       <c r="X35" s="144"/>
@@ -4685,7 +4748,7 @@
     </row>
     <row r="36" spans="1:53" customHeight="1" ht="21.95">
       <c r="B36" s="143" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C36" s="144"/>
       <c r="D36" s="144"/>
@@ -4706,7 +4769,7 @@
       <c r="S36" s="171"/>
       <c r="T36" s="172"/>
       <c r="V36" s="143" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="W36" s="144"/>
       <c r="X36" s="144"/>
@@ -4739,7 +4802,7 @@
     </row>
     <row r="37" spans="1:53" customHeight="1" ht="21.95">
       <c r="B37" s="143" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C37" s="144"/>
       <c r="D37" s="144"/>
@@ -4760,7 +4823,7 @@
       <c r="S37" s="171"/>
       <c r="T37" s="172"/>
       <c r="V37" s="143" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="W37" s="144"/>
       <c r="X37" s="144"/>
@@ -4775,25 +4838,37 @@
       <c r="AG37" s="144"/>
       <c r="AH37" s="144"/>
       <c r="AI37" s="145"/>
-      <c r="AJ37" s="242"/>
+      <c r="AJ37" s="242">
+        <v>76.5</v>
+      </c>
       <c r="AK37" s="243"/>
       <c r="AL37" s="244"/>
-      <c r="AM37" s="242"/>
+      <c r="AM37" s="242">
+        <v>88.666666666667</v>
+      </c>
       <c r="AN37" s="244"/>
-      <c r="AO37" s="242"/>
+      <c r="AO37" s="242">
+        <v>89.0</v>
+      </c>
       <c r="AP37" s="243"/>
       <c r="AQ37" s="244"/>
-      <c r="AR37" s="242"/>
+      <c r="AR37" s="242">
+        <v>90.666666666667</v>
+      </c>
       <c r="AS37" s="244"/>
-      <c r="AT37" s="242"/>
+      <c r="AT37" s="242">
+        <v>86.21</v>
+      </c>
       <c r="AU37" s="243"/>
       <c r="AV37" s="244"/>
-      <c r="AW37" s="149"/>
+      <c r="AW37" s="149" t="s">
+        <v>68</v>
+      </c>
       <c r="AX37" s="150"/>
     </row>
     <row r="38" spans="1:53" customHeight="1" ht="21.95">
       <c r="B38" s="151" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C38" s="152"/>
       <c r="D38" s="152"/>
@@ -4814,7 +4889,7 @@
       <c r="S38" s="171"/>
       <c r="T38" s="172"/>
       <c r="V38" s="151" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="W38" s="152"/>
       <c r="X38" s="152"/>
@@ -4829,15 +4904,23 @@
       <c r="AG38" s="152"/>
       <c r="AH38" s="152"/>
       <c r="AI38" s="153"/>
-      <c r="AJ38" s="251"/>
+      <c r="AJ38" s="251">
+        <v>98</v>
+      </c>
       <c r="AK38" s="252"/>
       <c r="AL38" s="253"/>
-      <c r="AM38" s="251"/>
+      <c r="AM38" s="251">
+        <v>88</v>
+      </c>
       <c r="AN38" s="253"/>
-      <c r="AO38" s="251"/>
+      <c r="AO38" s="251">
+        <v>92</v>
+      </c>
       <c r="AP38" s="252"/>
       <c r="AQ38" s="253"/>
-      <c r="AR38" s="251"/>
+      <c r="AR38" s="251">
+        <v>87</v>
+      </c>
       <c r="AS38" s="253"/>
       <c r="AT38" s="242"/>
       <c r="AU38" s="243"/>
@@ -4847,7 +4930,7 @@
     </row>
     <row r="39" spans="1:53" customHeight="1" ht="21.95">
       <c r="B39" s="151" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C39" s="152"/>
       <c r="D39" s="152"/>
@@ -4868,7 +4951,7 @@
       <c r="S39" s="171"/>
       <c r="T39" s="172"/>
       <c r="V39" s="151" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="W39" s="152"/>
       <c r="X39" s="152"/>
@@ -4883,15 +4966,23 @@
       <c r="AG39" s="152"/>
       <c r="AH39" s="152"/>
       <c r="AI39" s="153"/>
-      <c r="AJ39" s="251"/>
+      <c r="AJ39" s="251">
+        <v>88</v>
+      </c>
       <c r="AK39" s="252"/>
       <c r="AL39" s="253"/>
-      <c r="AM39" s="251"/>
+      <c r="AM39" s="251">
+        <v>92</v>
+      </c>
       <c r="AN39" s="253"/>
-      <c r="AO39" s="251"/>
+      <c r="AO39" s="251">
+        <v>87</v>
+      </c>
       <c r="AP39" s="252"/>
       <c r="AQ39" s="253"/>
-      <c r="AR39" s="251"/>
+      <c r="AR39" s="251">
+        <v>90</v>
+      </c>
       <c r="AS39" s="253"/>
       <c r="AT39" s="242"/>
       <c r="AU39" s="243"/>
@@ -4901,7 +4992,7 @@
     </row>
     <row r="40" spans="1:53" customHeight="1" ht="21.95">
       <c r="B40" s="151" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C40" s="152"/>
       <c r="D40" s="152"/>
@@ -4922,7 +5013,7 @@
       <c r="S40" s="171"/>
       <c r="T40" s="172"/>
       <c r="V40" s="151" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="W40" s="152"/>
       <c r="X40" s="152"/>
@@ -4937,15 +5028,23 @@
       <c r="AG40" s="152"/>
       <c r="AH40" s="152"/>
       <c r="AI40" s="153"/>
-      <c r="AJ40" s="251"/>
+      <c r="AJ40" s="251">
+        <v>91</v>
+      </c>
       <c r="AK40" s="252"/>
       <c r="AL40" s="253"/>
-      <c r="AM40" s="251"/>
+      <c r="AM40" s="251">
+        <v>86</v>
+      </c>
       <c r="AN40" s="253"/>
-      <c r="AO40" s="251"/>
+      <c r="AO40" s="251">
+        <v>88</v>
+      </c>
       <c r="AP40" s="252"/>
       <c r="AQ40" s="253"/>
-      <c r="AR40" s="251"/>
+      <c r="AR40" s="251">
+        <v>95</v>
+      </c>
       <c r="AS40" s="253"/>
       <c r="AT40" s="242"/>
       <c r="AU40" s="243"/>
@@ -4955,7 +5054,7 @@
     </row>
     <row r="41" spans="1:53" customHeight="1" ht="21.95">
       <c r="B41" s="151" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C41" s="152"/>
       <c r="D41" s="152"/>
@@ -4976,7 +5075,7 @@
       <c r="S41" s="171"/>
       <c r="T41" s="172"/>
       <c r="V41" s="151" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W41" s="152"/>
       <c r="X41" s="152"/>
@@ -5009,7 +5108,7 @@
     </row>
     <row r="42" spans="1:53" customHeight="1" ht="21.95">
       <c r="B42" s="143" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C42" s="144"/>
       <c r="D42" s="144"/>
@@ -5030,7 +5129,7 @@
       <c r="S42" s="171"/>
       <c r="T42" s="172"/>
       <c r="V42" s="143" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="W42" s="144"/>
       <c r="X42" s="144"/>
@@ -5063,7 +5162,7 @@
     </row>
     <row r="43" spans="1:53" customHeight="1" ht="21.95">
       <c r="B43" s="146" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C43" s="147"/>
       <c r="D43" s="147"/>
@@ -5084,7 +5183,7 @@
       <c r="S43" s="171"/>
       <c r="T43" s="172"/>
       <c r="V43" s="146" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="W43" s="147"/>
       <c r="X43" s="147"/>
@@ -5117,7 +5216,7 @@
     </row>
     <row r="44" spans="1:53" customHeight="1" ht="21.95">
       <c r="B44" s="146" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C44" s="147"/>
       <c r="D44" s="147"/>
@@ -5138,7 +5237,7 @@
       <c r="S44" s="171"/>
       <c r="T44" s="172"/>
       <c r="V44" s="146" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="W44" s="147"/>
       <c r="X44" s="147"/>
@@ -5171,7 +5270,7 @@
     </row>
     <row r="45" spans="1:53" customHeight="1" ht="21.95">
       <c r="B45" s="161" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C45" s="162"/>
       <c r="D45" s="162"/>
@@ -5183,31 +5282,31 @@
       <c r="J45" s="163"/>
       <c r="K45" s="259">
         <f>AVERAGE(K30:K37,K42)</f>
-        <v>93</v>
+        <v>89.5</v>
       </c>
       <c r="L45" s="260">
         <f>AVERAGE(L30:M37,L42)</f>
-        <v>90.5</v>
+        <v>89</v>
       </c>
       <c r="M45" s="261"/>
       <c r="N45" s="259">
         <f>AVERAGE(N30:N37,N42)</f>
-        <v>89.5</v>
+        <v>93</v>
       </c>
       <c r="O45" s="259">
         <f>AVERAGE(O30:O37,O42)</f>
-        <v>88.5</v>
+        <v>83</v>
       </c>
       <c r="P45" s="262">
         <f>AVERAGE(K45:O45)</f>
-        <v>90.375</v>
+        <v>88.625</v>
       </c>
       <c r="Q45" s="263"/>
       <c r="R45" s="264"/>
       <c r="S45" s="183"/>
       <c r="T45" s="184"/>
       <c r="V45" s="161" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="W45" s="162"/>
       <c r="X45" s="162"/>
@@ -5222,9 +5321,9 @@
       <c r="AG45" s="162"/>
       <c r="AH45" s="162"/>
       <c r="AI45" s="163"/>
-      <c r="AJ45" s="262" t="e">
+      <c r="AJ45" s="262">
         <f>AVERAGE(AJ30:AL37,AJ42)</f>
-        <v>#DIV/0!</v>
+        <v>76.5</v>
       </c>
       <c r="AK45" s="263" t="e">
         <f>AVERAGE(AK30:AK37,AK42)</f>
@@ -5234,25 +5333,25 @@
         <f>AVERAGE(AL30:AL37,AL42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM45" s="262" t="e">
+      <c r="AM45" s="262">
         <f>AVERAGE(AM30:AN37,AM42)</f>
-        <v>#DIV/0!</v>
+        <v>88.666666666667</v>
       </c>
       <c r="AN45" s="264"/>
-      <c r="AO45" s="262" t="e">
+      <c r="AO45" s="262">
         <f>AVERAGE(AO30:AQ37,AO42)</f>
-        <v>#DIV/0!</v>
+        <v>89</v>
       </c>
       <c r="AP45" s="263"/>
       <c r="AQ45" s="264"/>
-      <c r="AR45" s="262" t="e">
+      <c r="AR45" s="262">
         <f>AVERAGE(AR30:AS37,AR42)</f>
-        <v>#DIV/0!</v>
+        <v>90.666666666667</v>
       </c>
       <c r="AS45" s="264"/>
-      <c r="AT45" s="262" t="e">
+      <c r="AT45" s="262">
         <f>AVERAGE(AJ45:AS45)</f>
-        <v>#DIV/0!</v>
+        <v>86.208333333333</v>
       </c>
       <c r="AU45" s="263"/>
       <c r="AV45" s="264"/>
@@ -5311,14 +5410,14 @@
     </row>
     <row r="47" spans="1:53" customHeight="1" ht="21.95">
       <c r="B47" s="114" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C47" s="115"/>
       <c r="D47" s="115"/>
       <c r="E47" s="115"/>
       <c r="F47" s="116"/>
       <c r="G47" s="111" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H47" s="112"/>
       <c r="I47" s="112"/>
@@ -5334,14 +5433,14 @@
       <c r="S47" s="112"/>
       <c r="T47" s="113"/>
       <c r="V47" s="114" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="W47" s="115"/>
       <c r="X47" s="115"/>
       <c r="Y47" s="115"/>
       <c r="Z47" s="116"/>
       <c r="AA47" s="111" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AB47" s="112"/>
       <c r="AC47" s="112"/>
@@ -5369,43 +5468,43 @@
     </row>
     <row r="48" spans="1:53" customHeight="1" ht="31.5">
       <c r="B48" s="117" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C48" s="118"/>
       <c r="D48" s="118"/>
       <c r="E48" s="118"/>
       <c r="F48" s="119"/>
       <c r="G48" s="179" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H48" s="118"/>
       <c r="I48" s="118"/>
       <c r="J48" s="119"/>
       <c r="K48" s="120" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L48" s="121"/>
       <c r="M48" s="121"/>
       <c r="N48" s="122"/>
       <c r="O48" s="120" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P48" s="121"/>
       <c r="Q48" s="121"/>
       <c r="R48" s="122"/>
       <c r="S48" s="188" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="T48" s="189"/>
       <c r="V48" s="117" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="W48" s="118"/>
       <c r="X48" s="118"/>
       <c r="Y48" s="118"/>
       <c r="Z48" s="119"/>
       <c r="AA48" s="120" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AB48" s="121"/>
       <c r="AC48" s="121"/>
@@ -5416,7 +5515,7 @@
       <c r="AH48" s="121"/>
       <c r="AI48" s="121"/>
       <c r="AJ48" s="120" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK48" s="121"/>
       <c r="AL48" s="121"/>
@@ -5425,7 +5524,7 @@
       <c r="AO48" s="121"/>
       <c r="AP48" s="121"/>
       <c r="AQ48" s="121" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AR48" s="121"/>
       <c r="AS48" s="121"/>
@@ -5433,7 +5532,7 @@
       <c r="AU48" s="121"/>
       <c r="AV48" s="122"/>
       <c r="AW48" s="188" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AX48" s="189"/>
     </row>
@@ -5568,10 +5667,12 @@
     </row>
     <row r="52" spans="1:53" customHeight="1" ht="20.1">
       <c r="B52" s="213" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C52" s="214"/>
-      <c r="D52" s="126"/>
+      <c r="D52" s="126" t="s">
+        <v>36</v>
+      </c>
       <c r="E52" s="126"/>
       <c r="F52" s="126"/>
       <c r="G52" s="126"/>
@@ -5583,7 +5684,7 @@
       <c r="M52" s="126"/>
       <c r="N52" s="126"/>
       <c r="O52" s="191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P52" s="191"/>
       <c r="Q52" s="191"/>
@@ -5591,7 +5692,7 @@
       <c r="S52" s="126"/>
       <c r="T52" s="128"/>
       <c r="V52" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W52" s="44"/>
       <c r="X52" s="126"/>
@@ -5615,7 +5716,7 @@
       <c r="AP52" s="126"/>
       <c r="AQ52" s="126"/>
       <c r="AR52" s="127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS52" s="127"/>
       <c r="AT52" s="127"/>
@@ -5626,17 +5727,21 @@
     </row>
     <row r="53" spans="1:53" customHeight="1" ht="20.1">
       <c r="B53" s="45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C53" s="16"/>
-      <c r="D53" s="90"/>
+      <c r="D53" s="90" t="s">
+        <v>44</v>
+      </c>
       <c r="E53" s="90"/>
       <c r="F53" s="90"/>
       <c r="G53" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H53" s="16"/>
-      <c r="I53" s="91"/>
+      <c r="I53" s="91" t="s">
+        <v>44</v>
+      </c>
       <c r="J53" s="91"/>
       <c r="K53" s="91"/>
       <c r="L53" s="91"/>
@@ -5646,19 +5751,21 @@
       <c r="P53" s="91"/>
       <c r="Q53" s="91"/>
       <c r="R53" s="124" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S53" s="124"/>
-      <c r="T53" s="46"/>
+      <c r="T53" s="46" t="s">
+        <v>41</v>
+      </c>
       <c r="V53" s="45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W53" s="16"/>
       <c r="X53" s="90"/>
       <c r="Y53" s="90"/>
       <c r="Z53" s="90"/>
       <c r="AA53" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB53" s="16"/>
       <c r="AC53" s="16"/>
@@ -5680,7 +5787,7 @@
       <c r="AS53" s="91"/>
       <c r="AT53" s="91"/>
       <c r="AU53" s="124" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AV53" s="124"/>
       <c r="AW53" s="124"/>
@@ -5688,32 +5795,38 @@
     </row>
     <row r="54" spans="1:53" customHeight="1" ht="20.1">
       <c r="B54" s="48" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="49"/>
+      <c r="F54" s="49" t="s">
+        <v>86</v>
+      </c>
       <c r="G54" s="50" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="91"/>
+      <c r="J54" s="91" t="s">
+        <v>87</v>
+      </c>
       <c r="K54" s="91"/>
       <c r="L54" s="91"/>
       <c r="M54" s="91"/>
       <c r="N54" s="91"/>
       <c r="O54" s="197" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P54" s="197"/>
       <c r="Q54" s="197"/>
       <c r="R54" s="197"/>
-      <c r="S54" s="91"/>
+      <c r="S54" s="91" t="s">
+        <v>88</v>
+      </c>
       <c r="T54" s="92"/>
       <c r="V54" s="129" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W54" s="130"/>
       <c r="X54" s="130"/>
@@ -5721,7 +5834,7 @@
       <c r="Z54" s="91"/>
       <c r="AA54" s="91"/>
       <c r="AB54" s="124" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AC54" s="124"/>
       <c r="AD54" s="124"/>
@@ -5736,7 +5849,7 @@
       <c r="AM54" s="91"/>
       <c r="AN54" s="91"/>
       <c r="AO54" s="124" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AP54" s="124"/>
       <c r="AQ54" s="124"/>
@@ -5750,14 +5863,16 @@
     </row>
     <row r="55" spans="1:53" customHeight="1" ht="20.1">
       <c r="B55" s="129" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C55" s="130"/>
       <c r="D55" s="130"/>
       <c r="E55" s="130"/>
       <c r="F55" s="130"/>
       <c r="G55" s="130"/>
-      <c r="H55" s="91"/>
+      <c r="H55" s="91" t="s">
+        <v>89</v>
+      </c>
       <c r="I55" s="91"/>
       <c r="J55" s="91"/>
       <c r="K55" s="91"/>
@@ -5765,7 +5880,7 @@
       <c r="M55" s="91"/>
       <c r="N55" s="91"/>
       <c r="O55" s="124" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P55" s="124"/>
       <c r="Q55" s="124"/>
@@ -5773,7 +5888,7 @@
       <c r="S55" s="91"/>
       <c r="T55" s="92"/>
       <c r="V55" s="51" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="W55" s="39"/>
       <c r="X55" s="39"/>
@@ -5795,7 +5910,7 @@
       <c r="AN55" s="91"/>
       <c r="AO55" s="91"/>
       <c r="AP55" s="124" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AQ55" s="124"/>
       <c r="AR55" s="124"/>
@@ -5908,7 +6023,7 @@
     </row>
     <row r="58" spans="1:53" customHeight="1" ht="18">
       <c r="B58" s="173" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C58" s="103"/>
       <c r="D58" s="103"/>
@@ -5919,23 +6034,23 @@
       <c r="I58" s="103"/>
       <c r="J58" s="104"/>
       <c r="K58" s="215" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L58" s="216"/>
       <c r="M58" s="216"/>
       <c r="N58" s="216"/>
       <c r="O58" s="217"/>
       <c r="P58" s="102" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q58" s="103"/>
       <c r="R58" s="104"/>
       <c r="S58" s="102" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="T58" s="177"/>
       <c r="V58" s="173" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="W58" s="103"/>
       <c r="X58" s="103"/>
@@ -5951,7 +6066,7 @@
       <c r="AH58" s="103"/>
       <c r="AI58" s="104"/>
       <c r="AJ58" s="175" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AK58" s="175"/>
       <c r="AL58" s="175"/>
@@ -5963,12 +6078,12 @@
       <c r="AR58" s="175"/>
       <c r="AS58" s="175"/>
       <c r="AT58" s="102" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AU58" s="103"/>
       <c r="AV58" s="104"/>
       <c r="AW58" s="102" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AX58" s="177"/>
     </row>
@@ -6040,7 +6155,7 @@
     </row>
     <row r="60" spans="1:53" customHeight="1" ht="21.95">
       <c r="B60" s="143" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C60" s="144"/>
       <c r="D60" s="144"/>
@@ -6061,7 +6176,7 @@
       <c r="S60" s="149"/>
       <c r="T60" s="150"/>
       <c r="V60" s="143" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="W60" s="144"/>
       <c r="X60" s="144"/>
@@ -6094,7 +6209,7 @@
     </row>
     <row r="61" spans="1:53" customHeight="1" ht="21.95">
       <c r="B61" s="143" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C61" s="144"/>
       <c r="D61" s="144"/>
@@ -6115,7 +6230,7 @@
       <c r="S61" s="149"/>
       <c r="T61" s="150"/>
       <c r="V61" s="143" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="W61" s="144"/>
       <c r="X61" s="144"/>
@@ -6148,7 +6263,7 @@
     </row>
     <row r="62" spans="1:53" customHeight="1" ht="21.95">
       <c r="B62" s="143" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C62" s="144"/>
       <c r="D62" s="144"/>
@@ -6158,18 +6273,26 @@
       <c r="H62" s="144"/>
       <c r="I62" s="144"/>
       <c r="J62" s="145"/>
-      <c r="K62" s="238"/>
-      <c r="L62" s="239"/>
+      <c r="K62" s="238">
+        <v>88</v>
+      </c>
+      <c r="L62" s="239">
+        <v>92</v>
+      </c>
       <c r="M62" s="240"/>
-      <c r="N62" s="241"/>
-      <c r="O62" s="241"/>
+      <c r="N62" s="241">
+        <v>91</v>
+      </c>
+      <c r="O62" s="241">
+        <v>82</v>
+      </c>
       <c r="P62" s="242"/>
       <c r="Q62" s="243"/>
       <c r="R62" s="244"/>
       <c r="S62" s="149"/>
       <c r="T62" s="150"/>
       <c r="V62" s="143" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="W62" s="144"/>
       <c r="X62" s="144"/>
@@ -6202,7 +6325,7 @@
     </row>
     <row r="63" spans="1:53" customHeight="1" ht="21.95">
       <c r="B63" s="143" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C63" s="144"/>
       <c r="D63" s="144"/>
@@ -6223,7 +6346,7 @@
       <c r="S63" s="149"/>
       <c r="T63" s="150"/>
       <c r="V63" s="143" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="W63" s="144"/>
       <c r="X63" s="144"/>
@@ -6256,7 +6379,7 @@
     </row>
     <row r="64" spans="1:53" customHeight="1" ht="21.95">
       <c r="B64" s="143" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C64" s="144"/>
       <c r="D64" s="144"/>
@@ -6277,7 +6400,7 @@
       <c r="S64" s="149"/>
       <c r="T64" s="150"/>
       <c r="V64" s="143" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="W64" s="144"/>
       <c r="X64" s="144"/>
@@ -6310,7 +6433,7 @@
     </row>
     <row r="65" spans="1:53" customHeight="1" ht="21.95">
       <c r="B65" s="143" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C65" s="144"/>
       <c r="D65" s="144"/>
@@ -6331,7 +6454,7 @@
       <c r="S65" s="149"/>
       <c r="T65" s="150"/>
       <c r="V65" s="143" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="W65" s="144"/>
       <c r="X65" s="144"/>
@@ -6364,7 +6487,7 @@
     </row>
     <row r="66" spans="1:53" customHeight="1" ht="21.95">
       <c r="B66" s="143" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C66" s="144"/>
       <c r="D66" s="144"/>
@@ -6385,7 +6508,7 @@
       <c r="S66" s="149"/>
       <c r="T66" s="150"/>
       <c r="V66" s="143" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="W66" s="144"/>
       <c r="X66" s="144"/>
@@ -6418,7 +6541,7 @@
     </row>
     <row r="67" spans="1:53" customHeight="1" ht="21.95">
       <c r="B67" s="143" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C67" s="144"/>
       <c r="D67" s="144"/>
@@ -6439,7 +6562,7 @@
       <c r="S67" s="149"/>
       <c r="T67" s="150"/>
       <c r="V67" s="143" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="W67" s="144"/>
       <c r="X67" s="144"/>
@@ -6472,7 +6595,7 @@
     </row>
     <row r="68" spans="1:53" customHeight="1" ht="21.95">
       <c r="B68" s="151" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C68" s="152"/>
       <c r="D68" s="152"/>
@@ -6493,7 +6616,7 @@
       <c r="S68" s="149"/>
       <c r="T68" s="150"/>
       <c r="V68" s="151" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="W68" s="152"/>
       <c r="X68" s="152"/>
@@ -6526,7 +6649,7 @@
     </row>
     <row r="69" spans="1:53" customHeight="1" ht="21.95">
       <c r="B69" s="151" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C69" s="152"/>
       <c r="D69" s="152"/>
@@ -6547,7 +6670,7 @@
       <c r="S69" s="149"/>
       <c r="T69" s="150"/>
       <c r="V69" s="151" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="W69" s="152"/>
       <c r="X69" s="152"/>
@@ -6580,7 +6703,7 @@
     </row>
     <row r="70" spans="1:53" customHeight="1" ht="21.95">
       <c r="B70" s="151" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C70" s="152"/>
       <c r="D70" s="152"/>
@@ -6601,7 +6724,7 @@
       <c r="S70" s="149"/>
       <c r="T70" s="150"/>
       <c r="V70" s="151" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="W70" s="152"/>
       <c r="X70" s="152"/>
@@ -6634,7 +6757,7 @@
     </row>
     <row r="71" spans="1:53" customHeight="1" ht="21.95">
       <c r="B71" s="151" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C71" s="152"/>
       <c r="D71" s="152"/>
@@ -6655,7 +6778,7 @@
       <c r="S71" s="149"/>
       <c r="T71" s="150"/>
       <c r="V71" s="151" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W71" s="152"/>
       <c r="X71" s="152"/>
@@ -6688,7 +6811,7 @@
     </row>
     <row r="72" spans="1:53" customHeight="1" ht="21.95">
       <c r="B72" s="143" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C72" s="144"/>
       <c r="D72" s="144"/>
@@ -6709,7 +6832,7 @@
       <c r="S72" s="149"/>
       <c r="T72" s="150"/>
       <c r="V72" s="143" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="W72" s="144"/>
       <c r="X72" s="144"/>
@@ -6742,7 +6865,7 @@
     </row>
     <row r="73" spans="1:53" customHeight="1" ht="21.95">
       <c r="B73" s="146" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C73" s="147"/>
       <c r="D73" s="147"/>
@@ -6763,7 +6886,7 @@
       <c r="S73" s="149"/>
       <c r="T73" s="150"/>
       <c r="V73" s="146" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="W73" s="147"/>
       <c r="X73" s="147"/>
@@ -6796,7 +6919,7 @@
     </row>
     <row r="74" spans="1:53" customHeight="1" ht="21.95">
       <c r="B74" s="146" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C74" s="147"/>
       <c r="D74" s="147"/>
@@ -6817,7 +6940,7 @@
       <c r="S74" s="149"/>
       <c r="T74" s="150"/>
       <c r="V74" s="146" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="W74" s="147"/>
       <c r="X74" s="147"/>
@@ -6850,7 +6973,7 @@
     </row>
     <row r="75" spans="1:53" customHeight="1" ht="18.75">
       <c r="B75" s="161" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C75" s="162"/>
       <c r="D75" s="162"/>
@@ -6860,33 +6983,33 @@
       <c r="H75" s="162"/>
       <c r="I75" s="162"/>
       <c r="J75" s="163"/>
-      <c r="K75" s="259" t="e">
+      <c r="K75" s="259">
         <f>AVERAGE(K60:K67,K72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L75" s="260" t="e">
+        <v>88</v>
+      </c>
+      <c r="L75" s="260">
         <f>AVERAGE(L60:M67,L72)</f>
-        <v>#DIV/0!</v>
+        <v>92</v>
       </c>
       <c r="M75" s="261"/>
-      <c r="N75" s="259" t="e">
+      <c r="N75" s="259">
         <f>AVERAGE(N60:N67,N72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O75" s="259" t="e">
+        <v>91</v>
+      </c>
+      <c r="O75" s="259">
         <f>AVERAGE(O60:O67,O72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P75" s="262" t="e">
+        <v>82</v>
+      </c>
+      <c r="P75" s="262">
         <f>AVERAGE(K75:O75)</f>
-        <v>#DIV/0!</v>
+        <v>88.25</v>
       </c>
       <c r="Q75" s="263"/>
       <c r="R75" s="264"/>
       <c r="S75" s="183"/>
       <c r="T75" s="184"/>
       <c r="V75" s="161" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="W75" s="162"/>
       <c r="X75" s="162"/>
@@ -6935,14 +7058,14 @@
     <row r="76" spans="1:53" customHeight="1" ht="7.5"/>
     <row r="77" spans="1:53" customHeight="1" ht="15.75">
       <c r="B77" s="114" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C77" s="115"/>
       <c r="D77" s="115"/>
       <c r="E77" s="115"/>
       <c r="F77" s="116"/>
       <c r="G77" s="111" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H77" s="112"/>
       <c r="I77" s="112"/>
@@ -6959,14 +7082,14 @@
       <c r="T77" s="113"/>
       <c r="U77" s="71"/>
       <c r="V77" s="114" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="W77" s="115"/>
       <c r="X77" s="115"/>
       <c r="Y77" s="115"/>
       <c r="Z77" s="116"/>
       <c r="AA77" s="111" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AB77" s="112"/>
       <c r="AC77" s="112"/>
@@ -6994,44 +7117,44 @@
     </row>
     <row r="78" spans="1:53" customHeight="1" ht="31.5">
       <c r="B78" s="117" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C78" s="118"/>
       <c r="D78" s="118"/>
       <c r="E78" s="118"/>
       <c r="F78" s="119"/>
       <c r="G78" s="179" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H78" s="118"/>
       <c r="I78" s="118"/>
       <c r="J78" s="119"/>
       <c r="K78" s="120" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L78" s="121"/>
       <c r="M78" s="121"/>
       <c r="N78" s="122"/>
       <c r="O78" s="120" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P78" s="121"/>
       <c r="Q78" s="121"/>
       <c r="R78" s="122"/>
       <c r="S78" s="188" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="T78" s="189"/>
       <c r="U78" s="9"/>
       <c r="V78" s="117" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="W78" s="118"/>
       <c r="X78" s="118"/>
       <c r="Y78" s="118"/>
       <c r="Z78" s="119"/>
       <c r="AA78" s="120" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AB78" s="121"/>
       <c r="AC78" s="121"/>
@@ -7042,7 +7165,7 @@
       <c r="AH78" s="121"/>
       <c r="AI78" s="121"/>
       <c r="AJ78" s="120" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK78" s="121"/>
       <c r="AL78" s="121"/>
@@ -7051,7 +7174,7 @@
       <c r="AO78" s="121"/>
       <c r="AP78" s="121"/>
       <c r="AQ78" s="121" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AR78" s="121"/>
       <c r="AS78" s="121"/>
@@ -7059,7 +7182,7 @@
       <c r="AU78" s="121"/>
       <c r="AV78" s="122"/>
       <c r="AW78" s="188" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AX78" s="189"/>
     </row>
@@ -7211,7 +7334,7 @@
       <c r="AR81" s="9"/>
       <c r="AS81" s="9"/>
       <c r="AT81" s="182" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AU81" s="182"/>
       <c r="AV81" s="182"/>
@@ -8009,12 +8132,12 @@
         <v>0</v>
       </c>
       <c r="AF1" s="73" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:38" customHeight="1" ht="17.25">
       <c r="B2" s="232" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="233"/>
       <c r="D2" s="233"/>
@@ -8052,7 +8175,7 @@
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="20.1" s="31" customFormat="1">
       <c r="B3" s="43" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -8063,7 +8186,7 @@
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
       <c r="K3" s="191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" s="191"/>
       <c r="M3" s="191"/>
@@ -8073,7 +8196,7 @@
       <c r="Q3" s="128"/>
       <c r="R3" s="2"/>
       <c r="S3" s="43" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
@@ -8085,7 +8208,7 @@
       <c r="AA3" s="44"/>
       <c r="AB3" s="44"/>
       <c r="AC3" s="191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD3" s="191"/>
       <c r="AE3" s="191"/>
@@ -8096,7 +8219,7 @@
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="20.1">
       <c r="B4" s="48" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -8110,13 +8233,13 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="124" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O4" s="124"/>
       <c r="P4" s="90"/>
       <c r="Q4" s="125"/>
       <c r="S4" s="48" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
@@ -8131,7 +8254,7 @@
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="197" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG4" s="197"/>
       <c r="AH4" s="90"/>
@@ -8139,7 +8262,7 @@
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="20.1">
       <c r="B5" s="48" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -8150,7 +8273,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="197" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L5" s="197"/>
       <c r="M5" s="197"/>
@@ -8159,7 +8282,7 @@
       <c r="P5" s="91"/>
       <c r="Q5" s="92"/>
       <c r="S5" s="48" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
@@ -8171,7 +8294,7 @@
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="197" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AD5" s="197"/>
       <c r="AE5" s="197"/>
@@ -8182,7 +8305,7 @@
     </row>
     <row r="6" spans="1:38" customHeight="1" ht="20.1">
       <c r="B6" s="51" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -8193,7 +8316,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="124" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L6" s="124"/>
       <c r="M6" s="124"/>
@@ -8202,7 +8325,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="58"/>
       <c r="S6" s="51" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="T6" s="39"/>
       <c r="U6" s="40"/>
@@ -8214,7 +8337,7 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="124" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AD6" s="124"/>
       <c r="AE6" s="124"/>
@@ -8260,7 +8383,7 @@
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="18">
       <c r="B8" s="173" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C8" s="103"/>
       <c r="D8" s="103"/>
@@ -8268,23 +8391,23 @@
       <c r="F8" s="103"/>
       <c r="G8" s="104"/>
       <c r="H8" s="215" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I8" s="216"/>
       <c r="J8" s="216"/>
       <c r="K8" s="217"/>
       <c r="L8" s="102" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M8" s="103"/>
       <c r="N8" s="104"/>
       <c r="O8" s="102" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P8" s="103"/>
       <c r="Q8" s="177"/>
       <c r="S8" s="173" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="T8" s="103"/>
       <c r="U8" s="103"/>
@@ -8295,17 +8418,17 @@
       <c r="Z8" s="103"/>
       <c r="AA8" s="104"/>
       <c r="AB8" s="215" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AC8" s="216"/>
       <c r="AD8" s="216"/>
       <c r="AE8" s="216"/>
       <c r="AF8" s="217"/>
       <c r="AG8" s="235" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH8" s="102" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AI8" s="177"/>
     </row>
@@ -8362,7 +8485,7 @@
     </row>
     <row r="10" spans="1:38" customHeight="1" ht="20.1">
       <c r="B10" s="143" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C10" s="144"/>
       <c r="D10" s="144"/>
@@ -8380,7 +8503,7 @@
       <c r="P10" s="223"/>
       <c r="Q10" s="150"/>
       <c r="S10" s="143" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="T10" s="144"/>
       <c r="U10" s="144"/>
@@ -8401,7 +8524,7 @@
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="20.1">
       <c r="B11" s="143" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C11" s="144"/>
       <c r="D11" s="144"/>
@@ -8419,7 +8542,7 @@
       <c r="P11" s="223"/>
       <c r="Q11" s="150"/>
       <c r="S11" s="143" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T11" s="144"/>
       <c r="U11" s="144"/>
@@ -8440,7 +8563,7 @@
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="20.1">
       <c r="B12" s="143" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C12" s="144"/>
       <c r="D12" s="144"/>
@@ -8458,7 +8581,7 @@
       <c r="P12" s="223"/>
       <c r="Q12" s="150"/>
       <c r="S12" s="143" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T12" s="144"/>
       <c r="U12" s="144"/>
@@ -8479,7 +8602,7 @@
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="20.1">
       <c r="B13" s="143" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C13" s="144"/>
       <c r="D13" s="144"/>
@@ -8497,7 +8620,7 @@
       <c r="P13" s="223"/>
       <c r="Q13" s="150"/>
       <c r="S13" s="143" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="T13" s="144"/>
       <c r="U13" s="144"/>
@@ -8518,7 +8641,7 @@
     </row>
     <row r="14" spans="1:38" customHeight="1" ht="20.1">
       <c r="B14" s="143" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C14" s="144"/>
       <c r="D14" s="144"/>
@@ -8536,7 +8659,7 @@
       <c r="P14" s="223"/>
       <c r="Q14" s="150"/>
       <c r="S14" s="143" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="T14" s="144"/>
       <c r="U14" s="144"/>
@@ -8557,7 +8680,7 @@
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="20.1">
       <c r="B15" s="143" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C15" s="144"/>
       <c r="D15" s="144"/>
@@ -8575,7 +8698,7 @@
       <c r="P15" s="223"/>
       <c r="Q15" s="150"/>
       <c r="S15" s="143" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="T15" s="144"/>
       <c r="U15" s="144"/>
@@ -8596,7 +8719,7 @@
     </row>
     <row r="16" spans="1:38" customHeight="1" ht="20.1">
       <c r="B16" s="143" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C16" s="144"/>
       <c r="D16" s="144"/>
@@ -8614,7 +8737,7 @@
       <c r="P16" s="223"/>
       <c r="Q16" s="150"/>
       <c r="S16" s="143" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="T16" s="144"/>
       <c r="U16" s="144"/>
@@ -8635,7 +8758,7 @@
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="20.1">
       <c r="B17" s="143" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C17" s="144"/>
       <c r="D17" s="144"/>
@@ -8653,7 +8776,7 @@
       <c r="P17" s="223"/>
       <c r="Q17" s="150"/>
       <c r="S17" s="143" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="T17" s="144"/>
       <c r="U17" s="144"/>
@@ -8674,7 +8797,7 @@
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="20.1">
       <c r="B18" s="151" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C18" s="152"/>
       <c r="D18" s="152"/>
@@ -8692,7 +8815,7 @@
       <c r="P18" s="223"/>
       <c r="Q18" s="150"/>
       <c r="S18" s="151" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T18" s="152"/>
       <c r="U18" s="152"/>
@@ -8713,7 +8836,7 @@
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="20.1">
       <c r="B19" s="151" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C19" s="152"/>
       <c r="D19" s="152"/>
@@ -8731,7 +8854,7 @@
       <c r="P19" s="223"/>
       <c r="Q19" s="150"/>
       <c r="S19" s="151" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="T19" s="152"/>
       <c r="U19" s="152"/>
@@ -8752,7 +8875,7 @@
     </row>
     <row r="20" spans="1:38" customHeight="1" ht="20.1">
       <c r="B20" s="151" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C20" s="152"/>
       <c r="D20" s="152"/>
@@ -8770,7 +8893,7 @@
       <c r="P20" s="223"/>
       <c r="Q20" s="150"/>
       <c r="S20" s="151" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T20" s="152"/>
       <c r="U20" s="152"/>
@@ -8791,7 +8914,7 @@
     </row>
     <row r="21" spans="1:38" customHeight="1" ht="20.1">
       <c r="B21" s="151" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C21" s="152"/>
       <c r="D21" s="152"/>
@@ -8809,7 +8932,7 @@
       <c r="P21" s="223"/>
       <c r="Q21" s="150"/>
       <c r="S21" s="151" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="T21" s="152"/>
       <c r="U21" s="152"/>
@@ -8830,7 +8953,7 @@
     </row>
     <row r="22" spans="1:38" customHeight="1" ht="20.1">
       <c r="B22" s="143" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C22" s="144"/>
       <c r="D22" s="144"/>
@@ -8848,7 +8971,7 @@
       <c r="P22" s="223"/>
       <c r="Q22" s="150"/>
       <c r="S22" s="143" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="T22" s="144"/>
       <c r="U22" s="144"/>
@@ -8869,7 +8992,7 @@
     </row>
     <row r="23" spans="1:38" customHeight="1" ht="20.1">
       <c r="B23" s="146" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C23" s="147"/>
       <c r="D23" s="147"/>
@@ -8887,7 +9010,7 @@
       <c r="P23" s="223"/>
       <c r="Q23" s="150"/>
       <c r="S23" s="146" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T23" s="147"/>
       <c r="U23" s="147"/>
@@ -8908,7 +9031,7 @@
     </row>
     <row r="24" spans="1:38" customHeight="1" ht="20.1">
       <c r="B24" s="146" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C24" s="147"/>
       <c r="D24" s="147"/>
@@ -8926,7 +9049,7 @@
       <c r="P24" s="223"/>
       <c r="Q24" s="150"/>
       <c r="S24" s="146" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="T24" s="147"/>
       <c r="U24" s="147"/>
@@ -8947,7 +9070,7 @@
     </row>
     <row r="25" spans="1:38" customHeight="1" ht="20.1">
       <c r="B25" s="161" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C25" s="162"/>
       <c r="D25" s="162"/>
@@ -8980,7 +9103,7 @@
       <c r="P25" s="224"/>
       <c r="Q25" s="184"/>
       <c r="S25" s="161" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="T25" s="162"/>
       <c r="U25" s="162"/>
@@ -9051,13 +9174,13 @@
     </row>
     <row r="27" spans="1:38" customHeight="1" ht="12">
       <c r="B27" s="225" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C27" s="112"/>
       <c r="D27" s="112"/>
       <c r="E27" s="226"/>
       <c r="F27" s="111" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G27" s="112"/>
       <c r="H27" s="112"/>
@@ -9072,13 +9195,13 @@
       <c r="Q27" s="113"/>
       <c r="R27" s="44"/>
       <c r="S27" s="225" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="T27" s="112"/>
       <c r="U27" s="112"/>
       <c r="V27" s="226"/>
       <c r="W27" s="230" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="X27" s="230"/>
       <c r="Y27" s="230"/>
@@ -9095,40 +9218,40 @@
     </row>
     <row r="28" spans="1:38" customHeight="1" ht="31.5">
       <c r="B28" s="117" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C28" s="118"/>
       <c r="D28" s="118"/>
       <c r="E28" s="119"/>
       <c r="F28" s="179" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G28" s="119"/>
       <c r="H28" s="120" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I28" s="121"/>
       <c r="J28" s="122"/>
       <c r="K28" s="120" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L28" s="121"/>
       <c r="M28" s="121"/>
       <c r="N28" s="122"/>
       <c r="O28" s="188" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P28" s="179"/>
       <c r="Q28" s="189"/>
       <c r="R28" s="9"/>
       <c r="S28" s="117" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="T28" s="118"/>
       <c r="U28" s="118"/>
       <c r="V28" s="119"/>
       <c r="W28" s="227" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="X28" s="227"/>
       <c r="Y28" s="227"/>
@@ -9136,16 +9259,16 @@
       <c r="AA28" s="227"/>
       <c r="AB28" s="227"/>
       <c r="AC28" s="227" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AD28" s="227"/>
       <c r="AE28" s="227"/>
       <c r="AF28" s="227" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AG28" s="227"/>
       <c r="AH28" s="188" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AI28" s="189"/>
     </row>
@@ -9259,7 +9382,7 @@
     </row>
     <row r="32" spans="1:38" customHeight="1" ht="18.75">
       <c r="B32" s="43" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
@@ -9270,7 +9393,7 @@
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L32" s="191"/>
       <c r="M32" s="191"/>
@@ -9279,7 +9402,7 @@
       <c r="P32" s="126"/>
       <c r="Q32" s="128"/>
       <c r="S32" s="43" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="T32" s="44"/>
       <c r="U32" s="44"/>
@@ -9291,7 +9414,7 @@
       <c r="AA32" s="44"/>
       <c r="AB32" s="44"/>
       <c r="AC32" s="191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD32" s="191"/>
       <c r="AE32" s="191"/>
@@ -9302,7 +9425,7 @@
     </row>
     <row r="33" spans="1:38" customHeight="1" ht="18">
       <c r="B33" s="48" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -9316,13 +9439,13 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="124" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O33" s="124"/>
       <c r="P33" s="90"/>
       <c r="Q33" s="125"/>
       <c r="S33" s="48" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
@@ -9337,7 +9460,7 @@
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
       <c r="AF33" s="197" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG33" s="197"/>
       <c r="AH33" s="90"/>
@@ -9345,7 +9468,7 @@
     </row>
     <row r="34" spans="1:38" customHeight="1" ht="18">
       <c r="B34" s="48" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -9356,7 +9479,7 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="197" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L34" s="197"/>
       <c r="M34" s="197"/>
@@ -9365,7 +9488,7 @@
       <c r="P34" s="91"/>
       <c r="Q34" s="92"/>
       <c r="S34" s="48" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
@@ -9377,7 +9500,7 @@
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="197" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AD34" s="197"/>
       <c r="AE34" s="197"/>
@@ -9388,7 +9511,7 @@
     </row>
     <row r="35" spans="1:38" customHeight="1" ht="20.1">
       <c r="B35" s="51" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
@@ -9399,7 +9522,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="124" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L35" s="124"/>
       <c r="M35" s="124"/>
@@ -9408,7 +9531,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="58"/>
       <c r="S35" s="51" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="T35" s="39"/>
       <c r="U35" s="40"/>
@@ -9420,7 +9543,7 @@
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="124" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AD35" s="124"/>
       <c r="AE35" s="124"/>
@@ -9466,7 +9589,7 @@
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="20.1">
       <c r="B37" s="173" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C37" s="103"/>
       <c r="D37" s="103"/>
@@ -9474,24 +9597,24 @@
       <c r="F37" s="103"/>
       <c r="G37" s="104"/>
       <c r="H37" s="215" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I37" s="216"/>
       <c r="J37" s="216"/>
       <c r="K37" s="217"/>
       <c r="L37" s="102" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M37" s="103"/>
       <c r="N37" s="104"/>
       <c r="O37" s="102" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P37" s="103"/>
       <c r="Q37" s="177"/>
       <c r="R37" s="9"/>
       <c r="S37" s="173" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="T37" s="103"/>
       <c r="U37" s="103"/>
@@ -9502,17 +9625,17 @@
       <c r="Z37" s="103"/>
       <c r="AA37" s="104"/>
       <c r="AB37" s="215" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AC37" s="216"/>
       <c r="AD37" s="216"/>
       <c r="AE37" s="216"/>
       <c r="AF37" s="217"/>
       <c r="AG37" s="235" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH37" s="102" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AI37" s="177"/>
     </row>
@@ -9569,7 +9692,7 @@
     </row>
     <row r="39" spans="1:38" customHeight="1" ht="20.1">
       <c r="B39" s="143" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -9587,7 +9710,7 @@
       <c r="P39" s="223"/>
       <c r="Q39" s="150"/>
       <c r="S39" s="143" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="T39" s="144"/>
       <c r="U39" s="144"/>
@@ -9608,7 +9731,7 @@
     </row>
     <row r="40" spans="1:38" customHeight="1" ht="20.1">
       <c r="B40" s="143" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C40" s="144"/>
       <c r="D40" s="144"/>
@@ -9626,7 +9749,7 @@
       <c r="P40" s="223"/>
       <c r="Q40" s="150"/>
       <c r="S40" s="143" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T40" s="144"/>
       <c r="U40" s="144"/>
@@ -9647,7 +9770,7 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="20.1">
       <c r="B41" s="143" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C41" s="144"/>
       <c r="D41" s="144"/>
@@ -9665,7 +9788,7 @@
       <c r="P41" s="223"/>
       <c r="Q41" s="150"/>
       <c r="S41" s="143" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T41" s="144"/>
       <c r="U41" s="144"/>
@@ -9686,7 +9809,7 @@
     </row>
     <row r="42" spans="1:38" customHeight="1" ht="20.1">
       <c r="B42" s="143" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C42" s="144"/>
       <c r="D42" s="144"/>
@@ -9704,7 +9827,7 @@
       <c r="P42" s="223"/>
       <c r="Q42" s="150"/>
       <c r="S42" s="143" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="T42" s="144"/>
       <c r="U42" s="144"/>
@@ -9725,7 +9848,7 @@
     </row>
     <row r="43" spans="1:38" customHeight="1" ht="20.1">
       <c r="B43" s="143" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C43" s="144"/>
       <c r="D43" s="144"/>
@@ -9743,7 +9866,7 @@
       <c r="P43" s="83"/>
       <c r="Q43" s="62"/>
       <c r="S43" s="143" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="T43" s="144"/>
       <c r="U43" s="144"/>
@@ -9764,7 +9887,7 @@
     </row>
     <row r="44" spans="1:38" customHeight="1" ht="20.1">
       <c r="B44" s="143" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C44" s="144"/>
       <c r="D44" s="144"/>
@@ -9782,7 +9905,7 @@
       <c r="P44" s="223"/>
       <c r="Q44" s="150"/>
       <c r="S44" s="143" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="T44" s="144"/>
       <c r="U44" s="144"/>
@@ -9803,7 +9926,7 @@
     </row>
     <row r="45" spans="1:38" customHeight="1" ht="20.1">
       <c r="B45" s="143" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C45" s="144"/>
       <c r="D45" s="144"/>
@@ -9821,7 +9944,7 @@
       <c r="P45" s="83"/>
       <c r="Q45" s="62"/>
       <c r="S45" s="143" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="T45" s="144"/>
       <c r="U45" s="144"/>
@@ -9842,7 +9965,7 @@
     </row>
     <row r="46" spans="1:38" customHeight="1" ht="20.1">
       <c r="B46" s="143" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C46" s="144"/>
       <c r="D46" s="144"/>
@@ -9860,7 +9983,7 @@
       <c r="P46" s="223"/>
       <c r="Q46" s="150"/>
       <c r="S46" s="143" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="T46" s="144"/>
       <c r="U46" s="144"/>
@@ -9881,7 +10004,7 @@
     </row>
     <row r="47" spans="1:38" customHeight="1" ht="20.1">
       <c r="B47" s="151" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C47" s="152"/>
       <c r="D47" s="152"/>
@@ -9899,7 +10022,7 @@
       <c r="P47" s="223"/>
       <c r="Q47" s="150"/>
       <c r="S47" s="151" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T47" s="152"/>
       <c r="U47" s="152"/>
@@ -9920,7 +10043,7 @@
     </row>
     <row r="48" spans="1:38" customHeight="1" ht="20.1">
       <c r="B48" s="151" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C48" s="152"/>
       <c r="D48" s="152"/>
@@ -9938,7 +10061,7 @@
       <c r="P48" s="223"/>
       <c r="Q48" s="150"/>
       <c r="S48" s="151" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="T48" s="152"/>
       <c r="U48" s="152"/>
@@ -9959,7 +10082,7 @@
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="20.1">
       <c r="B49" s="151" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C49" s="152"/>
       <c r="D49" s="152"/>
@@ -9977,7 +10100,7 @@
       <c r="P49" s="223"/>
       <c r="Q49" s="150"/>
       <c r="S49" s="151" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T49" s="152"/>
       <c r="U49" s="152"/>
@@ -9998,7 +10121,7 @@
     </row>
     <row r="50" spans="1:38" customHeight="1" ht="20.1">
       <c r="B50" s="151" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C50" s="152"/>
       <c r="D50" s="152"/>
@@ -10016,7 +10139,7 @@
       <c r="P50" s="223"/>
       <c r="Q50" s="150"/>
       <c r="S50" s="151" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="T50" s="152"/>
       <c r="U50" s="152"/>
@@ -10037,7 +10160,7 @@
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="18.75">
       <c r="B51" s="143" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C51" s="144"/>
       <c r="D51" s="144"/>
@@ -10055,7 +10178,7 @@
       <c r="P51" s="223"/>
       <c r="Q51" s="150"/>
       <c r="S51" s="143" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="T51" s="144"/>
       <c r="U51" s="144"/>
@@ -10076,7 +10199,7 @@
     </row>
     <row r="52" spans="1:38">
       <c r="B52" s="146" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C52" s="147"/>
       <c r="D52" s="147"/>
@@ -10094,7 +10217,7 @@
       <c r="P52" s="223"/>
       <c r="Q52" s="150"/>
       <c r="S52" s="146" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T52" s="147"/>
       <c r="U52" s="147"/>
@@ -10115,7 +10238,7 @@
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="20.1">
       <c r="B53" s="146" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C53" s="147"/>
       <c r="D53" s="147"/>
@@ -10133,7 +10256,7 @@
       <c r="P53" s="223"/>
       <c r="Q53" s="150"/>
       <c r="S53" s="146" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="T53" s="147"/>
       <c r="U53" s="147"/>
@@ -10154,7 +10277,7 @@
     </row>
     <row r="54" spans="1:38" customHeight="1" ht="19.5">
       <c r="B54" s="161" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C54" s="162"/>
       <c r="D54" s="162"/>
@@ -10187,7 +10310,7 @@
       <c r="P54" s="224"/>
       <c r="Q54" s="184"/>
       <c r="S54" s="161" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="T54" s="162"/>
       <c r="U54" s="162"/>
@@ -10258,13 +10381,13 @@
     </row>
     <row r="56" spans="1:38" customHeight="1" ht="15">
       <c r="B56" s="225" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C56" s="112"/>
       <c r="D56" s="112"/>
       <c r="E56" s="226"/>
       <c r="F56" s="111" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G56" s="112"/>
       <c r="H56" s="112"/>
@@ -10279,13 +10402,13 @@
       <c r="Q56" s="113"/>
       <c r="R56" s="44"/>
       <c r="S56" s="225" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="T56" s="112"/>
       <c r="U56" s="112"/>
       <c r="V56" s="226"/>
       <c r="W56" s="230" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="X56" s="230"/>
       <c r="Y56" s="230"/>
@@ -10302,40 +10425,40 @@
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="31.5">
       <c r="B57" s="117" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C57" s="118"/>
       <c r="D57" s="118"/>
       <c r="E57" s="119"/>
       <c r="F57" s="188" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G57" s="188"/>
       <c r="H57" s="120" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I57" s="121"/>
       <c r="J57" s="122"/>
       <c r="K57" s="120" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L57" s="121"/>
       <c r="M57" s="121"/>
       <c r="N57" s="122"/>
       <c r="O57" s="188" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P57" s="179"/>
       <c r="Q57" s="189"/>
       <c r="R57" s="9"/>
       <c r="S57" s="117" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="T57" s="118"/>
       <c r="U57" s="118"/>
       <c r="V57" s="119"/>
       <c r="W57" s="227" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="X57" s="227"/>
       <c r="Y57" s="227"/>
@@ -10343,16 +10466,16 @@
       <c r="AA57" s="227"/>
       <c r="AB57" s="227"/>
       <c r="AC57" s="227" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AD57" s="227"/>
       <c r="AE57" s="227"/>
       <c r="AF57" s="227" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AG57" s="227"/>
       <c r="AH57" s="188" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AI57" s="189"/>
     </row>
@@ -10430,7 +10553,7 @@
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="27">
       <c r="B60" s="237" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C60" s="237"/>
       <c r="D60" s="237"/>
@@ -10469,7 +10592,7 @@
     <row r="61" spans="1:38" customHeight="1" ht="20.1">
       <c r="B61" s="3"/>
       <c r="C61" s="228" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D61" s="228"/>
       <c r="E61" s="228"/>
@@ -10507,7 +10630,7 @@
     <row r="62" spans="1:38" customHeight="1" ht="20.1">
       <c r="B62" s="4"/>
       <c r="C62" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -10523,14 +10646,14 @@
       <c r="O62" s="205"/>
       <c r="P62" s="205"/>
       <c r="Q62" s="5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="R62" s="89"/>
       <c r="S62" s="205"/>
       <c r="T62" s="205"/>
       <c r="U62" s="205"/>
       <c r="V62" s="219" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="W62" s="219"/>
       <c r="X62" s="219"/>
@@ -10545,13 +10668,13 @@
       <c r="AG62" s="219"/>
       <c r="AH62" s="88"/>
       <c r="AI62" s="87" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:38" customHeight="1" ht="20.1">
       <c r="B63" s="4"/>
       <c r="C63" s="5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="205"/>
@@ -10560,7 +10683,7 @@
       <c r="H63" s="205"/>
       <c r="I63" s="205"/>
       <c r="J63" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="218"/>
@@ -10568,13 +10691,13 @@
       <c r="N63" s="218"/>
       <c r="O63" s="12"/>
       <c r="P63" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q63" s="205"/>
       <c r="R63" s="205"/>
       <c r="S63" s="205"/>
       <c r="T63" s="6" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
@@ -10669,7 +10792,7 @@
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="205" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F66" s="205"/>
       <c r="G66" s="205"/>
@@ -10679,7 +10802,7 @@
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="12" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
@@ -10698,7 +10821,7 @@
       <c r="AB66" s="13"/>
       <c r="AC66" s="13"/>
       <c r="AD66" s="221" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="AE66" s="221"/>
       <c r="AF66" s="221"/>
@@ -10709,7 +10832,7 @@
     <row r="68" spans="1:38" customHeight="1" ht="20.1">
       <c r="B68" s="3"/>
       <c r="C68" s="228" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D68" s="228"/>
       <c r="E68" s="228"/>
@@ -10747,7 +10870,7 @@
     <row r="69" spans="1:38" customHeight="1" ht="20.1">
       <c r="B69" s="4"/>
       <c r="C69" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -10763,14 +10886,14 @@
       <c r="O69" s="205"/>
       <c r="P69" s="205"/>
       <c r="Q69" s="5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="R69" s="89"/>
       <c r="S69" s="205"/>
       <c r="T69" s="205"/>
       <c r="U69" s="205"/>
       <c r="V69" s="219" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="W69" s="219"/>
       <c r="X69" s="219"/>
@@ -10785,13 +10908,13 @@
       <c r="AG69" s="219"/>
       <c r="AH69" s="88"/>
       <c r="AI69" s="87" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:38" customHeight="1" ht="20.1">
       <c r="B70" s="4"/>
       <c r="C70" s="5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="205"/>
@@ -10800,7 +10923,7 @@
       <c r="H70" s="205"/>
       <c r="I70" s="205"/>
       <c r="J70" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="218"/>
@@ -10808,13 +10931,13 @@
       <c r="N70" s="218"/>
       <c r="O70" s="12"/>
       <c r="P70" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q70" s="205"/>
       <c r="R70" s="205"/>
       <c r="S70" s="205"/>
       <c r="T70" s="6" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
@@ -10909,7 +11032,7 @@
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="205" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F73" s="205"/>
       <c r="G73" s="205"/>
@@ -10919,7 +11042,7 @@
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
       <c r="M73" s="12" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="N73" s="12"/>
       <c r="O73" s="12"/>
@@ -10938,7 +11061,7 @@
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
       <c r="AD73" s="221" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="AE73" s="221"/>
       <c r="AF73" s="221"/>
@@ -10949,7 +11072,7 @@
     <row r="75" spans="1:38" customHeight="1" ht="20.1">
       <c r="B75" s="3"/>
       <c r="C75" s="228" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D75" s="228"/>
       <c r="E75" s="228"/>
@@ -10987,7 +11110,7 @@
     <row r="76" spans="1:38" customHeight="1" ht="20.1">
       <c r="B76" s="4"/>
       <c r="C76" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -11003,14 +11126,14 @@
       <c r="O76" s="205"/>
       <c r="P76" s="205"/>
       <c r="Q76" s="5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="R76" s="89"/>
       <c r="S76" s="205"/>
       <c r="T76" s="205"/>
       <c r="U76" s="205"/>
       <c r="V76" s="219" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="W76" s="219"/>
       <c r="X76" s="219"/>
@@ -11025,13 +11148,13 @@
       <c r="AG76" s="219"/>
       <c r="AH76" s="88"/>
       <c r="AI76" s="87" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:38" customHeight="1" ht="20.1">
       <c r="B77" s="4"/>
       <c r="C77" s="5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="205"/>
@@ -11040,7 +11163,7 @@
       <c r="H77" s="205"/>
       <c r="I77" s="205"/>
       <c r="J77" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K77" s="5"/>
       <c r="L77" s="218"/>
@@ -11048,13 +11171,13 @@
       <c r="N77" s="218"/>
       <c r="O77" s="12"/>
       <c r="P77" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q77" s="205"/>
       <c r="R77" s="205"/>
       <c r="S77" s="205"/>
       <c r="T77" s="6" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
@@ -11149,7 +11272,7 @@
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="205" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F80" s="205"/>
       <c r="G80" s="205"/>
@@ -11159,7 +11282,7 @@
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
       <c r="M80" s="12" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="N80" s="12"/>
       <c r="O80" s="12"/>
@@ -11178,7 +11301,7 @@
       <c r="AB80" s="13"/>
       <c r="AC80" s="13"/>
       <c r="AD80" s="221" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="AE80" s="221"/>
       <c r="AF80" s="221"/>
@@ -11188,10 +11311,10 @@
     </row>
     <row r="81" spans="1:38">
       <c r="B81" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="AG81" s="86" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -11639,37 +11762,37 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/reports/myform137.xlsx
+++ b/reports/myform137.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>SF10-ES</t>
   </si>
@@ -56,13 +56,13 @@
     <t>LAST NAME:</t>
   </si>
   <si>
-    <t>STINSON</t>
+    <t>GALORIO</t>
   </si>
   <si>
     <t>FIRST NAME:</t>
   </si>
   <si>
-    <t>BARNEY</t>
+    <t>BRIAN REY</t>
   </si>
   <si>
     <t>NAME EXTN. (Jr,I,II)</t>
@@ -71,19 +71,19 @@
     <t>MIDDLE NAME:</t>
   </si>
   <si>
-    <t>WAITFORIT</t>
+    <t>GALO</t>
   </si>
   <si>
     <t xml:space="preserve">Learner Reference Number (LRN): </t>
   </si>
   <si>
-    <t>LRN40559200000011</t>
+    <t>LRN40559200000027</t>
   </si>
   <si>
     <t>Birthdate (mm/dd/yyyy):</t>
   </si>
   <si>
-    <t>1990-01-01</t>
+    <t>2002-05-04</t>
   </si>
   <si>
     <t xml:space="preserve">Sex: </t>
@@ -140,22 +140,19 @@
     <t>School:</t>
   </si>
   <si>
-    <t>RIZAL ELEM SCHOOL</t>
+    <t>SUNBEAM CHRISTIAN SCHOOL OF PANABO INC.</t>
   </si>
   <si>
     <t xml:space="preserve">School ID: </t>
   </si>
   <si>
-    <t>SUNBEAM CHRISTIAN SCHOOL OF PANABO INC.</t>
-  </si>
-  <si>
     <t>District:</t>
   </si>
   <si>
-    <t>Division</t>
+    <t>Panabo</t>
   </si>
   <si>
-    <t>PANABO</t>
+    <t>Division</t>
   </si>
   <si>
     <t xml:space="preserve">Region: </t>
@@ -164,13 +161,7 @@
     <t>XI</t>
   </si>
   <si>
-    <t>Panabo Central</t>
-  </si>
-  <si>
     <t>Division:</t>
-  </si>
-  <si>
-    <t>Panabo</t>
   </si>
   <si>
     <t>Region:</t>
@@ -179,31 +170,25 @@
     <t>Classified as Grade:</t>
   </si>
   <si>
+    <t>Grade 5</t>
+  </si>
+  <si>
     <t>Section:</t>
   </si>
   <si>
     <t xml:space="preserve">School Year: </t>
   </si>
   <si>
-    <t>2022-2023</t>
-  </si>
-  <si>
-    <t>Grade 1</t>
-  </si>
-  <si>
-    <t>SECTION APPLE</t>
+    <t>2024-2025</t>
   </si>
   <si>
     <t>School Year:</t>
   </si>
   <si>
-    <t>2023-2024</t>
-  </si>
-  <si>
     <t>Name of Adviser/Teacher:</t>
   </si>
   <si>
-    <t>RODRIGO DUTERTE</t>
+    <t>Craizia Jane Del Rosario</t>
   </si>
   <si>
     <t xml:space="preserve">Signature: </t>
@@ -224,9 +209,6 @@
       </rPr>
       <t xml:space="preserve"/>
     </r>
-  </si>
-  <si>
-    <t>SHELDON COOPER</t>
   </si>
   <si>
     <t>Signature:</t>
@@ -254,9 +236,6 @@
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>Passed</t>
   </si>
   <si>
     <t>Mathematics</t>
@@ -308,18 +287,6 @@
   </si>
   <si>
     <t>Recomputed Final Grade</t>
-  </si>
-  <si>
-    <t>Grade 2</t>
-  </si>
-  <si>
-    <t>SECTION ABACA</t>
-  </si>
-  <si>
-    <t>2024-2025</t>
-  </si>
-  <si>
-    <t>ILLEST MORENA</t>
   </si>
   <si>
     <t>SFRT 2017</t>
@@ -3964,17 +3931,13 @@
       <c r="P23" s="191"/>
       <c r="Q23" s="191"/>
       <c r="R23" s="191"/>
-      <c r="S23" s="126">
-        <v>123123</v>
-      </c>
+      <c r="S23" s="126"/>
       <c r="T23" s="128"/>
       <c r="V23" s="43" t="s">
         <v>33</v>
       </c>
       <c r="W23" s="44"/>
-      <c r="X23" s="126" t="s">
-        <v>36</v>
-      </c>
+      <c r="X23" s="126"/>
       <c r="Y23" s="126"/>
       <c r="Z23" s="126"/>
       <c r="AA23" s="126"/>
@@ -4001,18 +3964,16 @@
       <c r="AT23" s="127"/>
       <c r="AU23" s="127"/>
       <c r="AV23" s="127"/>
-      <c r="AW23" s="126">
-        <v>405592</v>
-      </c>
+      <c r="AW23" s="126"/>
       <c r="AX23" s="128"/>
     </row>
     <row r="24" spans="1:53" customHeight="1" ht="20.1">
       <c r="B24" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="90" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="90">
-        <v>2</v>
       </c>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
@@ -4021,7 +3982,7 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J24" s="91"/>
       <c r="K24" s="91"/>
@@ -4032,29 +3993,25 @@
       <c r="P24" s="91"/>
       <c r="Q24" s="91"/>
       <c r="R24" s="124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S24" s="124"/>
       <c r="T24" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V24" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W24" s="16"/>
-      <c r="X24" s="90" t="s">
-        <v>42</v>
-      </c>
+      <c r="X24" s="90"/>
       <c r="Y24" s="90"/>
       <c r="Z24" s="90"/>
       <c r="AA24" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB24" s="16"/>
       <c r="AC24" s="16"/>
-      <c r="AD24" s="91" t="s">
-        <v>44</v>
-      </c>
+      <c r="AD24" s="91"/>
       <c r="AE24" s="91"/>
       <c r="AF24" s="91"/>
       <c r="AG24" s="91"/>
@@ -4072,64 +4029,58 @@
       <c r="AS24" s="91"/>
       <c r="AT24" s="91"/>
       <c r="AU24" s="124" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AV24" s="124"/>
       <c r="AW24" s="124"/>
-      <c r="AX24" s="47" t="s">
-        <v>41</v>
-      </c>
+      <c r="AX24" s="47"/>
     </row>
     <row r="25" spans="1:53" customHeight="1" ht="20.1">
       <c r="B25" s="48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="49">
-        <v>1</v>
+      <c r="F25" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K25" s="91"/>
       <c r="L25" s="91"/>
       <c r="M25" s="91"/>
       <c r="N25" s="91"/>
       <c r="O25" s="197" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P25" s="197"/>
       <c r="Q25" s="197"/>
       <c r="R25" s="197"/>
       <c r="S25" s="91" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T25" s="92"/>
       <c r="V25" s="129" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W25" s="130"/>
       <c r="X25" s="130"/>
       <c r="Y25" s="130"/>
-      <c r="Z25" s="91" t="s">
-        <v>50</v>
-      </c>
+      <c r="Z25" s="91"/>
       <c r="AA25" s="91"/>
       <c r="AB25" s="124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AC25" s="124"/>
       <c r="AD25" s="124"/>
-      <c r="AE25" s="91" t="s">
-        <v>51</v>
-      </c>
+      <c r="AE25" s="91"/>
       <c r="AF25" s="91"/>
       <c r="AG25" s="91"/>
       <c r="AH25" s="91"/>
@@ -4140,23 +4091,21 @@
       <c r="AM25" s="91"/>
       <c r="AN25" s="91"/>
       <c r="AO25" s="124" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AP25" s="124"/>
       <c r="AQ25" s="124"/>
       <c r="AR25" s="124"/>
       <c r="AS25" s="124"/>
       <c r="AT25" s="124"/>
-      <c r="AU25" s="91" t="s">
-        <v>53</v>
-      </c>
+      <c r="AU25" s="91"/>
       <c r="AV25" s="91"/>
       <c r="AW25" s="91"/>
       <c r="AX25" s="92"/>
     </row>
     <row r="26" spans="1:53" customHeight="1" ht="19.5">
       <c r="B26" s="129" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C26" s="130"/>
       <c r="D26" s="130"/>
@@ -4164,7 +4113,7 @@
       <c r="F26" s="130"/>
       <c r="G26" s="130"/>
       <c r="H26" s="91" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I26" s="91"/>
       <c r="J26" s="91"/>
@@ -4173,7 +4122,7 @@
       <c r="M26" s="91"/>
       <c r="N26" s="91"/>
       <c r="O26" s="124" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P26" s="124"/>
       <c r="Q26" s="124"/>
@@ -4181,7 +4130,7 @@
       <c r="S26" s="91"/>
       <c r="T26" s="92"/>
       <c r="V26" s="51" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
@@ -4189,9 +4138,7 @@
       <c r="Z26" s="39"/>
       <c r="AA26" s="40"/>
       <c r="AB26" s="40"/>
-      <c r="AC26" s="91" t="s">
-        <v>58</v>
-      </c>
+      <c r="AC26" s="91"/>
       <c r="AD26" s="91"/>
       <c r="AE26" s="91"/>
       <c r="AF26" s="91"/>
@@ -4205,7 +4152,7 @@
       <c r="AN26" s="91"/>
       <c r="AO26" s="91"/>
       <c r="AP26" s="124" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AQ26" s="124"/>
       <c r="AR26" s="124"/>
@@ -4268,7 +4215,7 @@
     </row>
     <row r="28" spans="1:53" customHeight="1" ht="15">
       <c r="B28" s="173" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C28" s="103"/>
       <c r="D28" s="103"/>
@@ -4279,23 +4226,23 @@
       <c r="I28" s="103"/>
       <c r="J28" s="104"/>
       <c r="K28" s="105" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L28" s="106"/>
       <c r="M28" s="106"/>
       <c r="N28" s="106"/>
       <c r="O28" s="107"/>
       <c r="P28" s="193" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="195"/>
       <c r="R28" s="196"/>
       <c r="S28" s="193" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="T28" s="194"/>
       <c r="V28" s="173" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="W28" s="103"/>
       <c r="X28" s="103"/>
@@ -4311,7 +4258,7 @@
       <c r="AH28" s="103"/>
       <c r="AI28" s="104"/>
       <c r="AJ28" s="175" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AK28" s="175"/>
       <c r="AL28" s="175"/>
@@ -4323,12 +4270,12 @@
       <c r="AR28" s="175"/>
       <c r="AS28" s="175"/>
       <c r="AT28" s="102" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AU28" s="103"/>
       <c r="AV28" s="104"/>
       <c r="AW28" s="102" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AX28" s="177"/>
     </row>
@@ -4400,7 +4347,7 @@
     </row>
     <row r="30" spans="1:53" customHeight="1" ht="21.95">
       <c r="B30" s="143" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C30" s="144"/>
       <c r="D30" s="144"/>
@@ -4421,7 +4368,7 @@
       <c r="S30" s="171"/>
       <c r="T30" s="172"/>
       <c r="V30" s="143" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="W30" s="144"/>
       <c r="X30" s="144"/>
@@ -4454,7 +4401,7 @@
     </row>
     <row r="31" spans="1:53" customHeight="1" ht="21.95">
       <c r="B31" s="143" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C31" s="144"/>
       <c r="D31" s="144"/>
@@ -4475,7 +4422,7 @@
       <c r="S31" s="171"/>
       <c r="T31" s="172"/>
       <c r="V31" s="143" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="W31" s="144"/>
       <c r="X31" s="144"/>
@@ -4508,7 +4455,7 @@
     </row>
     <row r="32" spans="1:53" customHeight="1" ht="21.95">
       <c r="B32" s="143" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C32" s="144"/>
       <c r="D32" s="144"/>
@@ -4518,30 +4465,18 @@
       <c r="H32" s="144"/>
       <c r="I32" s="144"/>
       <c r="J32" s="145"/>
-      <c r="K32" s="238">
-        <v>90</v>
-      </c>
-      <c r="L32" s="239">
-        <v>88</v>
-      </c>
+      <c r="K32" s="238"/>
+      <c r="L32" s="239"/>
       <c r="M32" s="240"/>
-      <c r="N32" s="241">
-        <v>87</v>
-      </c>
-      <c r="O32" s="241">
-        <v>79</v>
-      </c>
-      <c r="P32" s="242">
-        <v>86.0</v>
-      </c>
+      <c r="N32" s="241"/>
+      <c r="O32" s="241"/>
+      <c r="P32" s="242"/>
       <c r="Q32" s="243"/>
       <c r="R32" s="244"/>
-      <c r="S32" s="171" t="s">
-        <v>68</v>
-      </c>
+      <c r="S32" s="171"/>
       <c r="T32" s="172"/>
       <c r="V32" s="143" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="W32" s="144"/>
       <c r="X32" s="144"/>
@@ -4574,7 +4509,7 @@
     </row>
     <row r="33" spans="1:53" customHeight="1" ht="21.95">
       <c r="B33" s="143" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C33" s="144"/>
       <c r="D33" s="144"/>
@@ -4584,30 +4519,18 @@
       <c r="H33" s="144"/>
       <c r="I33" s="144"/>
       <c r="J33" s="145"/>
-      <c r="K33" s="238">
-        <v>89</v>
-      </c>
-      <c r="L33" s="239">
-        <v>90</v>
-      </c>
+      <c r="K33" s="238"/>
+      <c r="L33" s="239"/>
       <c r="M33" s="240"/>
-      <c r="N33" s="241">
-        <v>99</v>
-      </c>
-      <c r="O33" s="241">
-        <v>87</v>
-      </c>
-      <c r="P33" s="242">
-        <v>91.25</v>
-      </c>
+      <c r="N33" s="241"/>
+      <c r="O33" s="241"/>
+      <c r="P33" s="242"/>
       <c r="Q33" s="243"/>
       <c r="R33" s="244"/>
-      <c r="S33" s="171" t="s">
-        <v>68</v>
-      </c>
+      <c r="S33" s="171"/>
       <c r="T33" s="172"/>
       <c r="V33" s="143" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="W33" s="144"/>
       <c r="X33" s="144"/>
@@ -4640,7 +4563,7 @@
     </row>
     <row r="34" spans="1:53" customHeight="1" ht="21.95">
       <c r="B34" s="143" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C34" s="144"/>
       <c r="D34" s="144"/>
@@ -4661,7 +4584,7 @@
       <c r="S34" s="192"/>
       <c r="T34" s="172"/>
       <c r="V34" s="143" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="W34" s="144"/>
       <c r="X34" s="144"/>
@@ -4694,7 +4617,7 @@
     </row>
     <row r="35" spans="1:53" customHeight="1" ht="21.95">
       <c r="B35" s="143" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C35" s="144"/>
       <c r="D35" s="144"/>
@@ -4715,7 +4638,7 @@
       <c r="S35" s="171"/>
       <c r="T35" s="172"/>
       <c r="V35" s="143" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="W35" s="144"/>
       <c r="X35" s="144"/>
@@ -4748,7 +4671,7 @@
     </row>
     <row r="36" spans="1:53" customHeight="1" ht="21.95">
       <c r="B36" s="143" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C36" s="144"/>
       <c r="D36" s="144"/>
@@ -4758,18 +4681,26 @@
       <c r="H36" s="144"/>
       <c r="I36" s="144"/>
       <c r="J36" s="145"/>
-      <c r="K36" s="238"/>
-      <c r="L36" s="239"/>
+      <c r="K36" s="238">
+        <v>90</v>
+      </c>
+      <c r="L36" s="239">
+        <v>92</v>
+      </c>
       <c r="M36" s="240"/>
-      <c r="N36" s="241"/>
-      <c r="O36" s="241"/>
+      <c r="N36" s="241">
+        <v>85</v>
+      </c>
+      <c r="O36" s="241">
+        <v>93</v>
+      </c>
       <c r="P36" s="242"/>
       <c r="Q36" s="243"/>
       <c r="R36" s="244"/>
       <c r="S36" s="171"/>
       <c r="T36" s="172"/>
       <c r="V36" s="143" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="W36" s="144"/>
       <c r="X36" s="144"/>
@@ -4802,7 +4733,7 @@
     </row>
     <row r="37" spans="1:53" customHeight="1" ht="21.95">
       <c r="B37" s="143" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C37" s="144"/>
       <c r="D37" s="144"/>
@@ -4823,7 +4754,7 @@
       <c r="S37" s="171"/>
       <c r="T37" s="172"/>
       <c r="V37" s="143" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="W37" s="144"/>
       <c r="X37" s="144"/>
@@ -4838,37 +4769,25 @@
       <c r="AG37" s="144"/>
       <c r="AH37" s="144"/>
       <c r="AI37" s="145"/>
-      <c r="AJ37" s="242">
-        <v>76.5</v>
-      </c>
+      <c r="AJ37" s="242"/>
       <c r="AK37" s="243"/>
       <c r="AL37" s="244"/>
-      <c r="AM37" s="242">
-        <v>88.666666666667</v>
-      </c>
+      <c r="AM37" s="242"/>
       <c r="AN37" s="244"/>
-      <c r="AO37" s="242">
-        <v>89.0</v>
-      </c>
+      <c r="AO37" s="242"/>
       <c r="AP37" s="243"/>
       <c r="AQ37" s="244"/>
-      <c r="AR37" s="242">
-        <v>90.666666666667</v>
-      </c>
+      <c r="AR37" s="242"/>
       <c r="AS37" s="244"/>
-      <c r="AT37" s="242">
-        <v>86.21</v>
-      </c>
+      <c r="AT37" s="242"/>
       <c r="AU37" s="243"/>
       <c r="AV37" s="244"/>
-      <c r="AW37" s="149" t="s">
-        <v>68</v>
-      </c>
+      <c r="AW37" s="149"/>
       <c r="AX37" s="150"/>
     </row>
     <row r="38" spans="1:53" customHeight="1" ht="21.95">
       <c r="B38" s="151" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C38" s="152"/>
       <c r="D38" s="152"/>
@@ -4889,7 +4808,7 @@
       <c r="S38" s="171"/>
       <c r="T38" s="172"/>
       <c r="V38" s="151" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="W38" s="152"/>
       <c r="X38" s="152"/>
@@ -4904,23 +4823,15 @@
       <c r="AG38" s="152"/>
       <c r="AH38" s="152"/>
       <c r="AI38" s="153"/>
-      <c r="AJ38" s="251">
-        <v>98</v>
-      </c>
+      <c r="AJ38" s="251"/>
       <c r="AK38" s="252"/>
       <c r="AL38" s="253"/>
-      <c r="AM38" s="251">
-        <v>88</v>
-      </c>
+      <c r="AM38" s="251"/>
       <c r="AN38" s="253"/>
-      <c r="AO38" s="251">
-        <v>92</v>
-      </c>
+      <c r="AO38" s="251"/>
       <c r="AP38" s="252"/>
       <c r="AQ38" s="253"/>
-      <c r="AR38" s="251">
-        <v>87</v>
-      </c>
+      <c r="AR38" s="251"/>
       <c r="AS38" s="253"/>
       <c r="AT38" s="242"/>
       <c r="AU38" s="243"/>
@@ -4930,7 +4841,7 @@
     </row>
     <row r="39" spans="1:53" customHeight="1" ht="21.95">
       <c r="B39" s="151" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C39" s="152"/>
       <c r="D39" s="152"/>
@@ -4951,7 +4862,7 @@
       <c r="S39" s="171"/>
       <c r="T39" s="172"/>
       <c r="V39" s="151" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="W39" s="152"/>
       <c r="X39" s="152"/>
@@ -4966,23 +4877,15 @@
       <c r="AG39" s="152"/>
       <c r="AH39" s="152"/>
       <c r="AI39" s="153"/>
-      <c r="AJ39" s="251">
-        <v>88</v>
-      </c>
+      <c r="AJ39" s="251"/>
       <c r="AK39" s="252"/>
       <c r="AL39" s="253"/>
-      <c r="AM39" s="251">
-        <v>92</v>
-      </c>
+      <c r="AM39" s="251"/>
       <c r="AN39" s="253"/>
-      <c r="AO39" s="251">
-        <v>87</v>
-      </c>
+      <c r="AO39" s="251"/>
       <c r="AP39" s="252"/>
       <c r="AQ39" s="253"/>
-      <c r="AR39" s="251">
-        <v>90</v>
-      </c>
+      <c r="AR39" s="251"/>
       <c r="AS39" s="253"/>
       <c r="AT39" s="242"/>
       <c r="AU39" s="243"/>
@@ -4992,7 +4895,7 @@
     </row>
     <row r="40" spans="1:53" customHeight="1" ht="21.95">
       <c r="B40" s="151" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C40" s="152"/>
       <c r="D40" s="152"/>
@@ -5013,7 +4916,7 @@
       <c r="S40" s="171"/>
       <c r="T40" s="172"/>
       <c r="V40" s="151" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="W40" s="152"/>
       <c r="X40" s="152"/>
@@ -5028,23 +4931,15 @@
       <c r="AG40" s="152"/>
       <c r="AH40" s="152"/>
       <c r="AI40" s="153"/>
-      <c r="AJ40" s="251">
-        <v>91</v>
-      </c>
+      <c r="AJ40" s="251"/>
       <c r="AK40" s="252"/>
       <c r="AL40" s="253"/>
-      <c r="AM40" s="251">
-        <v>86</v>
-      </c>
+      <c r="AM40" s="251"/>
       <c r="AN40" s="253"/>
-      <c r="AO40" s="251">
-        <v>88</v>
-      </c>
+      <c r="AO40" s="251"/>
       <c r="AP40" s="252"/>
       <c r="AQ40" s="253"/>
-      <c r="AR40" s="251">
-        <v>95</v>
-      </c>
+      <c r="AR40" s="251"/>
       <c r="AS40" s="253"/>
       <c r="AT40" s="242"/>
       <c r="AU40" s="243"/>
@@ -5054,7 +4949,7 @@
     </row>
     <row r="41" spans="1:53" customHeight="1" ht="21.95">
       <c r="B41" s="151" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C41" s="152"/>
       <c r="D41" s="152"/>
@@ -5075,7 +4970,7 @@
       <c r="S41" s="171"/>
       <c r="T41" s="172"/>
       <c r="V41" s="151" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="W41" s="152"/>
       <c r="X41" s="152"/>
@@ -5108,7 +5003,7 @@
     </row>
     <row r="42" spans="1:53" customHeight="1" ht="21.95">
       <c r="B42" s="143" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C42" s="144"/>
       <c r="D42" s="144"/>
@@ -5118,18 +5013,26 @@
       <c r="H42" s="144"/>
       <c r="I42" s="144"/>
       <c r="J42" s="145"/>
-      <c r="K42" s="238"/>
-      <c r="L42" s="239"/>
+      <c r="K42" s="238">
+        <v>90</v>
+      </c>
+      <c r="L42" s="239">
+        <v>85</v>
+      </c>
       <c r="M42" s="240"/>
-      <c r="N42" s="241"/>
-      <c r="O42" s="241"/>
+      <c r="N42" s="241">
+        <v>85</v>
+      </c>
+      <c r="O42" s="241">
+        <v>90</v>
+      </c>
       <c r="P42" s="242"/>
       <c r="Q42" s="243"/>
       <c r="R42" s="244"/>
       <c r="S42" s="171"/>
       <c r="T42" s="172"/>
       <c r="V42" s="143" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="W42" s="144"/>
       <c r="X42" s="144"/>
@@ -5162,7 +5065,7 @@
     </row>
     <row r="43" spans="1:53" customHeight="1" ht="21.95">
       <c r="B43" s="146" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C43" s="147"/>
       <c r="D43" s="147"/>
@@ -5183,7 +5086,7 @@
       <c r="S43" s="171"/>
       <c r="T43" s="172"/>
       <c r="V43" s="146" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="W43" s="147"/>
       <c r="X43" s="147"/>
@@ -5216,7 +5119,7 @@
     </row>
     <row r="44" spans="1:53" customHeight="1" ht="21.95">
       <c r="B44" s="146" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C44" s="147"/>
       <c r="D44" s="147"/>
@@ -5237,7 +5140,7 @@
       <c r="S44" s="171"/>
       <c r="T44" s="172"/>
       <c r="V44" s="146" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="W44" s="147"/>
       <c r="X44" s="147"/>
@@ -5270,7 +5173,7 @@
     </row>
     <row r="45" spans="1:53" customHeight="1" ht="21.95">
       <c r="B45" s="161" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C45" s="162"/>
       <c r="D45" s="162"/>
@@ -5282,31 +5185,31 @@
       <c r="J45" s="163"/>
       <c r="K45" s="259">
         <f>AVERAGE(K30:K37,K42)</f>
-        <v>89.5</v>
+        <v>90</v>
       </c>
       <c r="L45" s="260">
         <f>AVERAGE(L30:M37,L42)</f>
-        <v>89</v>
+        <v>88.5</v>
       </c>
       <c r="M45" s="261"/>
       <c r="N45" s="259">
         <f>AVERAGE(N30:N37,N42)</f>
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="O45" s="259">
         <f>AVERAGE(O30:O37,O42)</f>
-        <v>83</v>
+        <v>91.5</v>
       </c>
       <c r="P45" s="262">
         <f>AVERAGE(K45:O45)</f>
-        <v>88.625</v>
+        <v>88.75</v>
       </c>
       <c r="Q45" s="263"/>
       <c r="R45" s="264"/>
       <c r="S45" s="183"/>
       <c r="T45" s="184"/>
       <c r="V45" s="161" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="W45" s="162"/>
       <c r="X45" s="162"/>
@@ -5321,9 +5224,9 @@
       <c r="AG45" s="162"/>
       <c r="AH45" s="162"/>
       <c r="AI45" s="163"/>
-      <c r="AJ45" s="262">
+      <c r="AJ45" s="262" t="e">
         <f>AVERAGE(AJ30:AL37,AJ42)</f>
-        <v>76.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AK45" s="263" t="e">
         <f>AVERAGE(AK30:AK37,AK42)</f>
@@ -5333,25 +5236,25 @@
         <f>AVERAGE(AL30:AL37,AL42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM45" s="262">
+      <c r="AM45" s="262" t="e">
         <f>AVERAGE(AM30:AN37,AM42)</f>
-        <v>88.666666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AN45" s="264"/>
-      <c r="AO45" s="262">
+      <c r="AO45" s="262" t="e">
         <f>AVERAGE(AO30:AQ37,AO42)</f>
-        <v>89</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AP45" s="263"/>
       <c r="AQ45" s="264"/>
-      <c r="AR45" s="262">
+      <c r="AR45" s="262" t="e">
         <f>AVERAGE(AR30:AS37,AR42)</f>
-        <v>90.666666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AS45" s="264"/>
-      <c r="AT45" s="262">
+      <c r="AT45" s="262" t="e">
         <f>AVERAGE(AJ45:AS45)</f>
-        <v>86.208333333333</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AU45" s="263"/>
       <c r="AV45" s="264"/>
@@ -5410,14 +5313,14 @@
     </row>
     <row r="47" spans="1:53" customHeight="1" ht="21.95">
       <c r="B47" s="114" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C47" s="115"/>
       <c r="D47" s="115"/>
       <c r="E47" s="115"/>
       <c r="F47" s="116"/>
       <c r="G47" s="111" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H47" s="112"/>
       <c r="I47" s="112"/>
@@ -5433,14 +5336,14 @@
       <c r="S47" s="112"/>
       <c r="T47" s="113"/>
       <c r="V47" s="114" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="W47" s="115"/>
       <c r="X47" s="115"/>
       <c r="Y47" s="115"/>
       <c r="Z47" s="116"/>
       <c r="AA47" s="111" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AB47" s="112"/>
       <c r="AC47" s="112"/>
@@ -5468,43 +5371,43 @@
     </row>
     <row r="48" spans="1:53" customHeight="1" ht="31.5">
       <c r="B48" s="117" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C48" s="118"/>
       <c r="D48" s="118"/>
       <c r="E48" s="118"/>
       <c r="F48" s="119"/>
       <c r="G48" s="179" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H48" s="118"/>
       <c r="I48" s="118"/>
       <c r="J48" s="119"/>
       <c r="K48" s="120" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L48" s="121"/>
       <c r="M48" s="121"/>
       <c r="N48" s="122"/>
       <c r="O48" s="120" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P48" s="121"/>
       <c r="Q48" s="121"/>
       <c r="R48" s="122"/>
       <c r="S48" s="188" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="T48" s="189"/>
       <c r="V48" s="117" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="W48" s="118"/>
       <c r="X48" s="118"/>
       <c r="Y48" s="118"/>
       <c r="Z48" s="119"/>
       <c r="AA48" s="120" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AB48" s="121"/>
       <c r="AC48" s="121"/>
@@ -5515,7 +5418,7 @@
       <c r="AH48" s="121"/>
       <c r="AI48" s="121"/>
       <c r="AJ48" s="120" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AK48" s="121"/>
       <c r="AL48" s="121"/>
@@ -5524,7 +5427,7 @@
       <c r="AO48" s="121"/>
       <c r="AP48" s="121"/>
       <c r="AQ48" s="121" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AR48" s="121"/>
       <c r="AS48" s="121"/>
@@ -5532,7 +5435,7 @@
       <c r="AU48" s="121"/>
       <c r="AV48" s="122"/>
       <c r="AW48" s="188" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AX48" s="189"/>
     </row>
@@ -5670,9 +5573,7 @@
         <v>33</v>
       </c>
       <c r="C52" s="214"/>
-      <c r="D52" s="126" t="s">
-        <v>36</v>
-      </c>
+      <c r="D52" s="126"/>
       <c r="E52" s="126"/>
       <c r="F52" s="126"/>
       <c r="G52" s="126"/>
@@ -5727,21 +5628,17 @@
     </row>
     <row r="53" spans="1:53" customHeight="1" ht="20.1">
       <c r="B53" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53" s="16"/>
-      <c r="D53" s="90" t="s">
-        <v>44</v>
-      </c>
+      <c r="D53" s="90"/>
       <c r="E53" s="90"/>
       <c r="F53" s="90"/>
       <c r="G53" s="16" t="s">
         <v>38</v>
       </c>
       <c r="H53" s="16"/>
-      <c r="I53" s="91" t="s">
-        <v>44</v>
-      </c>
+      <c r="I53" s="91"/>
       <c r="J53" s="91"/>
       <c r="K53" s="91"/>
       <c r="L53" s="91"/>
@@ -5751,21 +5648,19 @@
       <c r="P53" s="91"/>
       <c r="Q53" s="91"/>
       <c r="R53" s="124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S53" s="124"/>
-      <c r="T53" s="46" t="s">
-        <v>41</v>
-      </c>
+      <c r="T53" s="46"/>
       <c r="V53" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W53" s="16"/>
       <c r="X53" s="90"/>
       <c r="Y53" s="90"/>
       <c r="Z53" s="90"/>
       <c r="AA53" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB53" s="16"/>
       <c r="AC53" s="16"/>
@@ -5787,7 +5682,7 @@
       <c r="AS53" s="91"/>
       <c r="AT53" s="91"/>
       <c r="AU53" s="124" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AV53" s="124"/>
       <c r="AW53" s="124"/>
@@ -5795,38 +5690,32 @@
     </row>
     <row r="54" spans="1:53" customHeight="1" ht="20.1">
       <c r="B54" s="48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="49" t="s">
-        <v>86</v>
-      </c>
+      <c r="F54" s="49"/>
       <c r="G54" s="50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="91" t="s">
-        <v>87</v>
-      </c>
+      <c r="J54" s="91"/>
       <c r="K54" s="91"/>
       <c r="L54" s="91"/>
       <c r="M54" s="91"/>
       <c r="N54" s="91"/>
       <c r="O54" s="197" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P54" s="197"/>
       <c r="Q54" s="197"/>
       <c r="R54" s="197"/>
-      <c r="S54" s="91" t="s">
-        <v>88</v>
-      </c>
+      <c r="S54" s="91"/>
       <c r="T54" s="92"/>
       <c r="V54" s="129" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W54" s="130"/>
       <c r="X54" s="130"/>
@@ -5834,7 +5723,7 @@
       <c r="Z54" s="91"/>
       <c r="AA54" s="91"/>
       <c r="AB54" s="124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AC54" s="124"/>
       <c r="AD54" s="124"/>
@@ -5849,7 +5738,7 @@
       <c r="AM54" s="91"/>
       <c r="AN54" s="91"/>
       <c r="AO54" s="124" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AP54" s="124"/>
       <c r="AQ54" s="124"/>
@@ -5863,16 +5752,14 @@
     </row>
     <row r="55" spans="1:53" customHeight="1" ht="20.1">
       <c r="B55" s="129" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C55" s="130"/>
       <c r="D55" s="130"/>
       <c r="E55" s="130"/>
       <c r="F55" s="130"/>
       <c r="G55" s="130"/>
-      <c r="H55" s="91" t="s">
-        <v>89</v>
-      </c>
+      <c r="H55" s="91"/>
       <c r="I55" s="91"/>
       <c r="J55" s="91"/>
       <c r="K55" s="91"/>
@@ -5880,7 +5767,7 @@
       <c r="M55" s="91"/>
       <c r="N55" s="91"/>
       <c r="O55" s="124" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P55" s="124"/>
       <c r="Q55" s="124"/>
@@ -5888,7 +5775,7 @@
       <c r="S55" s="91"/>
       <c r="T55" s="92"/>
       <c r="V55" s="51" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="W55" s="39"/>
       <c r="X55" s="39"/>
@@ -5910,7 +5797,7 @@
       <c r="AN55" s="91"/>
       <c r="AO55" s="91"/>
       <c r="AP55" s="124" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AQ55" s="124"/>
       <c r="AR55" s="124"/>
@@ -6023,7 +5910,7 @@
     </row>
     <row r="58" spans="1:53" customHeight="1" ht="18">
       <c r="B58" s="173" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C58" s="103"/>
       <c r="D58" s="103"/>
@@ -6034,23 +5921,23 @@
       <c r="I58" s="103"/>
       <c r="J58" s="104"/>
       <c r="K58" s="215" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L58" s="216"/>
       <c r="M58" s="216"/>
       <c r="N58" s="216"/>
       <c r="O58" s="217"/>
       <c r="P58" s="102" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q58" s="103"/>
       <c r="R58" s="104"/>
       <c r="S58" s="102" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="T58" s="177"/>
       <c r="V58" s="173" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="W58" s="103"/>
       <c r="X58" s="103"/>
@@ -6066,7 +5953,7 @@
       <c r="AH58" s="103"/>
       <c r="AI58" s="104"/>
       <c r="AJ58" s="175" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AK58" s="175"/>
       <c r="AL58" s="175"/>
@@ -6078,12 +5965,12 @@
       <c r="AR58" s="175"/>
       <c r="AS58" s="175"/>
       <c r="AT58" s="102" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AU58" s="103"/>
       <c r="AV58" s="104"/>
       <c r="AW58" s="102" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AX58" s="177"/>
     </row>
@@ -6155,7 +6042,7 @@
     </row>
     <row r="60" spans="1:53" customHeight="1" ht="21.95">
       <c r="B60" s="143" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C60" s="144"/>
       <c r="D60" s="144"/>
@@ -6176,7 +6063,7 @@
       <c r="S60" s="149"/>
       <c r="T60" s="150"/>
       <c r="V60" s="143" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="W60" s="144"/>
       <c r="X60" s="144"/>
@@ -6209,7 +6096,7 @@
     </row>
     <row r="61" spans="1:53" customHeight="1" ht="21.95">
       <c r="B61" s="143" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C61" s="144"/>
       <c r="D61" s="144"/>
@@ -6230,7 +6117,7 @@
       <c r="S61" s="149"/>
       <c r="T61" s="150"/>
       <c r="V61" s="143" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="W61" s="144"/>
       <c r="X61" s="144"/>
@@ -6263,7 +6150,7 @@
     </row>
     <row r="62" spans="1:53" customHeight="1" ht="21.95">
       <c r="B62" s="143" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C62" s="144"/>
       <c r="D62" s="144"/>
@@ -6273,26 +6160,18 @@
       <c r="H62" s="144"/>
       <c r="I62" s="144"/>
       <c r="J62" s="145"/>
-      <c r="K62" s="238">
-        <v>88</v>
-      </c>
-      <c r="L62" s="239">
-        <v>92</v>
-      </c>
+      <c r="K62" s="238"/>
+      <c r="L62" s="239"/>
       <c r="M62" s="240"/>
-      <c r="N62" s="241">
-        <v>91</v>
-      </c>
-      <c r="O62" s="241">
-        <v>82</v>
-      </c>
+      <c r="N62" s="241"/>
+      <c r="O62" s="241"/>
       <c r="P62" s="242"/>
       <c r="Q62" s="243"/>
       <c r="R62" s="244"/>
       <c r="S62" s="149"/>
       <c r="T62" s="150"/>
       <c r="V62" s="143" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="W62" s="144"/>
       <c r="X62" s="144"/>
@@ -6325,7 +6204,7 @@
     </row>
     <row r="63" spans="1:53" customHeight="1" ht="21.95">
       <c r="B63" s="143" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C63" s="144"/>
       <c r="D63" s="144"/>
@@ -6346,7 +6225,7 @@
       <c r="S63" s="149"/>
       <c r="T63" s="150"/>
       <c r="V63" s="143" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="W63" s="144"/>
       <c r="X63" s="144"/>
@@ -6379,7 +6258,7 @@
     </row>
     <row r="64" spans="1:53" customHeight="1" ht="21.95">
       <c r="B64" s="143" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C64" s="144"/>
       <c r="D64" s="144"/>
@@ -6400,7 +6279,7 @@
       <c r="S64" s="149"/>
       <c r="T64" s="150"/>
       <c r="V64" s="143" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="W64" s="144"/>
       <c r="X64" s="144"/>
@@ -6433,7 +6312,7 @@
     </row>
     <row r="65" spans="1:53" customHeight="1" ht="21.95">
       <c r="B65" s="143" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C65" s="144"/>
       <c r="D65" s="144"/>
@@ -6454,7 +6333,7 @@
       <c r="S65" s="149"/>
       <c r="T65" s="150"/>
       <c r="V65" s="143" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="W65" s="144"/>
       <c r="X65" s="144"/>
@@ -6487,7 +6366,7 @@
     </row>
     <row r="66" spans="1:53" customHeight="1" ht="21.95">
       <c r="B66" s="143" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C66" s="144"/>
       <c r="D66" s="144"/>
@@ -6508,7 +6387,7 @@
       <c r="S66" s="149"/>
       <c r="T66" s="150"/>
       <c r="V66" s="143" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="W66" s="144"/>
       <c r="X66" s="144"/>
@@ -6541,7 +6420,7 @@
     </row>
     <row r="67" spans="1:53" customHeight="1" ht="21.95">
       <c r="B67" s="143" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C67" s="144"/>
       <c r="D67" s="144"/>
@@ -6562,7 +6441,7 @@
       <c r="S67" s="149"/>
       <c r="T67" s="150"/>
       <c r="V67" s="143" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="W67" s="144"/>
       <c r="X67" s="144"/>
@@ -6595,7 +6474,7 @@
     </row>
     <row r="68" spans="1:53" customHeight="1" ht="21.95">
       <c r="B68" s="151" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C68" s="152"/>
       <c r="D68" s="152"/>
@@ -6616,7 +6495,7 @@
       <c r="S68" s="149"/>
       <c r="T68" s="150"/>
       <c r="V68" s="151" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="W68" s="152"/>
       <c r="X68" s="152"/>
@@ -6649,7 +6528,7 @@
     </row>
     <row r="69" spans="1:53" customHeight="1" ht="21.95">
       <c r="B69" s="151" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C69" s="152"/>
       <c r="D69" s="152"/>
@@ -6670,7 +6549,7 @@
       <c r="S69" s="149"/>
       <c r="T69" s="150"/>
       <c r="V69" s="151" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="W69" s="152"/>
       <c r="X69" s="152"/>
@@ -6703,7 +6582,7 @@
     </row>
     <row r="70" spans="1:53" customHeight="1" ht="21.95">
       <c r="B70" s="151" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C70" s="152"/>
       <c r="D70" s="152"/>
@@ -6724,7 +6603,7 @@
       <c r="S70" s="149"/>
       <c r="T70" s="150"/>
       <c r="V70" s="151" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="W70" s="152"/>
       <c r="X70" s="152"/>
@@ -6757,7 +6636,7 @@
     </row>
     <row r="71" spans="1:53" customHeight="1" ht="21.95">
       <c r="B71" s="151" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C71" s="152"/>
       <c r="D71" s="152"/>
@@ -6778,7 +6657,7 @@
       <c r="S71" s="149"/>
       <c r="T71" s="150"/>
       <c r="V71" s="151" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="W71" s="152"/>
       <c r="X71" s="152"/>
@@ -6811,7 +6690,7 @@
     </row>
     <row r="72" spans="1:53" customHeight="1" ht="21.95">
       <c r="B72" s="143" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C72" s="144"/>
       <c r="D72" s="144"/>
@@ -6832,7 +6711,7 @@
       <c r="S72" s="149"/>
       <c r="T72" s="150"/>
       <c r="V72" s="143" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="W72" s="144"/>
       <c r="X72" s="144"/>
@@ -6865,7 +6744,7 @@
     </row>
     <row r="73" spans="1:53" customHeight="1" ht="21.95">
       <c r="B73" s="146" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C73" s="147"/>
       <c r="D73" s="147"/>
@@ -6886,7 +6765,7 @@
       <c r="S73" s="149"/>
       <c r="T73" s="150"/>
       <c r="V73" s="146" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="W73" s="147"/>
       <c r="X73" s="147"/>
@@ -6919,7 +6798,7 @@
     </row>
     <row r="74" spans="1:53" customHeight="1" ht="21.95">
       <c r="B74" s="146" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C74" s="147"/>
       <c r="D74" s="147"/>
@@ -6940,7 +6819,7 @@
       <c r="S74" s="149"/>
       <c r="T74" s="150"/>
       <c r="V74" s="146" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="W74" s="147"/>
       <c r="X74" s="147"/>
@@ -6973,7 +6852,7 @@
     </row>
     <row r="75" spans="1:53" customHeight="1" ht="18.75">
       <c r="B75" s="161" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C75" s="162"/>
       <c r="D75" s="162"/>
@@ -6983,33 +6862,33 @@
       <c r="H75" s="162"/>
       <c r="I75" s="162"/>
       <c r="J75" s="163"/>
-      <c r="K75" s="259">
+      <c r="K75" s="259" t="e">
         <f>AVERAGE(K60:K67,K72)</f>
-        <v>88</v>
-      </c>
-      <c r="L75" s="260">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L75" s="260" t="e">
         <f>AVERAGE(L60:M67,L72)</f>
-        <v>92</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M75" s="261"/>
-      <c r="N75" s="259">
+      <c r="N75" s="259" t="e">
         <f>AVERAGE(N60:N67,N72)</f>
-        <v>91</v>
-      </c>
-      <c r="O75" s="259">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O75" s="259" t="e">
         <f>AVERAGE(O60:O67,O72)</f>
-        <v>82</v>
-      </c>
-      <c r="P75" s="262">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P75" s="262" t="e">
         <f>AVERAGE(K75:O75)</f>
-        <v>88.25</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q75" s="263"/>
       <c r="R75" s="264"/>
       <c r="S75" s="183"/>
       <c r="T75" s="184"/>
       <c r="V75" s="161" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="W75" s="162"/>
       <c r="X75" s="162"/>
@@ -7058,14 +6937,14 @@
     <row r="76" spans="1:53" customHeight="1" ht="7.5"/>
     <row r="77" spans="1:53" customHeight="1" ht="15.75">
       <c r="B77" s="114" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C77" s="115"/>
       <c r="D77" s="115"/>
       <c r="E77" s="115"/>
       <c r="F77" s="116"/>
       <c r="G77" s="111" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H77" s="112"/>
       <c r="I77" s="112"/>
@@ -7082,14 +6961,14 @@
       <c r="T77" s="113"/>
       <c r="U77" s="71"/>
       <c r="V77" s="114" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="W77" s="115"/>
       <c r="X77" s="115"/>
       <c r="Y77" s="115"/>
       <c r="Z77" s="116"/>
       <c r="AA77" s="111" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AB77" s="112"/>
       <c r="AC77" s="112"/>
@@ -7117,44 +6996,44 @@
     </row>
     <row r="78" spans="1:53" customHeight="1" ht="31.5">
       <c r="B78" s="117" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C78" s="118"/>
       <c r="D78" s="118"/>
       <c r="E78" s="118"/>
       <c r="F78" s="119"/>
       <c r="G78" s="179" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H78" s="118"/>
       <c r="I78" s="118"/>
       <c r="J78" s="119"/>
       <c r="K78" s="120" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L78" s="121"/>
       <c r="M78" s="121"/>
       <c r="N78" s="122"/>
       <c r="O78" s="120" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P78" s="121"/>
       <c r="Q78" s="121"/>
       <c r="R78" s="122"/>
       <c r="S78" s="188" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="T78" s="189"/>
       <c r="U78" s="9"/>
       <c r="V78" s="117" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="W78" s="118"/>
       <c r="X78" s="118"/>
       <c r="Y78" s="118"/>
       <c r="Z78" s="119"/>
       <c r="AA78" s="120" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AB78" s="121"/>
       <c r="AC78" s="121"/>
@@ -7165,7 +7044,7 @@
       <c r="AH78" s="121"/>
       <c r="AI78" s="121"/>
       <c r="AJ78" s="120" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AK78" s="121"/>
       <c r="AL78" s="121"/>
@@ -7174,7 +7053,7 @@
       <c r="AO78" s="121"/>
       <c r="AP78" s="121"/>
       <c r="AQ78" s="121" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AR78" s="121"/>
       <c r="AS78" s="121"/>
@@ -7182,7 +7061,7 @@
       <c r="AU78" s="121"/>
       <c r="AV78" s="122"/>
       <c r="AW78" s="188" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AX78" s="189"/>
     </row>
@@ -7334,7 +7213,7 @@
       <c r="AR81" s="9"/>
       <c r="AS81" s="9"/>
       <c r="AT81" s="182" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AU81" s="182"/>
       <c r="AV81" s="182"/>
@@ -8132,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="AF1" s="73" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:38" customHeight="1" ht="17.25">
@@ -8175,7 +8054,7 @@
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="20.1" s="31" customFormat="1">
       <c r="B3" s="43" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -8196,7 +8075,7 @@
       <c r="Q3" s="128"/>
       <c r="R3" s="2"/>
       <c r="S3" s="43" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
@@ -8219,7 +8098,7 @@
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="20.1">
       <c r="B4" s="48" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -8233,13 +8112,13 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4" s="124"/>
       <c r="P4" s="90"/>
       <c r="Q4" s="125"/>
       <c r="S4" s="48" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
@@ -8254,7 +8133,7 @@
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="197" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG4" s="197"/>
       <c r="AH4" s="90"/>
@@ -8262,7 +8141,7 @@
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="20.1">
       <c r="B5" s="48" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -8273,7 +8152,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="197" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L5" s="197"/>
       <c r="M5" s="197"/>
@@ -8282,7 +8161,7 @@
       <c r="P5" s="91"/>
       <c r="Q5" s="92"/>
       <c r="S5" s="48" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
@@ -8294,7 +8173,7 @@
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="197" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD5" s="197"/>
       <c r="AE5" s="197"/>
@@ -8305,7 +8184,7 @@
     </row>
     <row r="6" spans="1:38" customHeight="1" ht="20.1">
       <c r="B6" s="51" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -8316,7 +8195,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="124" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L6" s="124"/>
       <c r="M6" s="124"/>
@@ -8325,7 +8204,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="58"/>
       <c r="S6" s="51" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="T6" s="39"/>
       <c r="U6" s="40"/>
@@ -8337,7 +8216,7 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="124" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD6" s="124"/>
       <c r="AE6" s="124"/>
@@ -8383,7 +8262,7 @@
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="18">
       <c r="B8" s="173" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C8" s="103"/>
       <c r="D8" s="103"/>
@@ -8391,23 +8270,23 @@
       <c r="F8" s="103"/>
       <c r="G8" s="104"/>
       <c r="H8" s="215" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I8" s="216"/>
       <c r="J8" s="216"/>
       <c r="K8" s="217"/>
       <c r="L8" s="102" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M8" s="103"/>
       <c r="N8" s="104"/>
       <c r="O8" s="102" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="P8" s="103"/>
       <c r="Q8" s="177"/>
       <c r="S8" s="173" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="T8" s="103"/>
       <c r="U8" s="103"/>
@@ -8418,17 +8297,17 @@
       <c r="Z8" s="103"/>
       <c r="AA8" s="104"/>
       <c r="AB8" s="215" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AC8" s="216"/>
       <c r="AD8" s="216"/>
       <c r="AE8" s="216"/>
       <c r="AF8" s="217"/>
       <c r="AG8" s="235" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH8" s="102" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AI8" s="177"/>
     </row>
@@ -8485,7 +8364,7 @@
     </row>
     <row r="10" spans="1:38" customHeight="1" ht="20.1">
       <c r="B10" s="143" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C10" s="144"/>
       <c r="D10" s="144"/>
@@ -8503,7 +8382,7 @@
       <c r="P10" s="223"/>
       <c r="Q10" s="150"/>
       <c r="S10" s="143" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="T10" s="144"/>
       <c r="U10" s="144"/>
@@ -8524,7 +8403,7 @@
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="20.1">
       <c r="B11" s="143" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C11" s="144"/>
       <c r="D11" s="144"/>
@@ -8542,7 +8421,7 @@
       <c r="P11" s="223"/>
       <c r="Q11" s="150"/>
       <c r="S11" s="143" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="T11" s="144"/>
       <c r="U11" s="144"/>
@@ -8563,7 +8442,7 @@
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="20.1">
       <c r="B12" s="143" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C12" s="144"/>
       <c r="D12" s="144"/>
@@ -8581,7 +8460,7 @@
       <c r="P12" s="223"/>
       <c r="Q12" s="150"/>
       <c r="S12" s="143" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T12" s="144"/>
       <c r="U12" s="144"/>
@@ -8602,7 +8481,7 @@
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="20.1">
       <c r="B13" s="143" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C13" s="144"/>
       <c r="D13" s="144"/>
@@ -8620,7 +8499,7 @@
       <c r="P13" s="223"/>
       <c r="Q13" s="150"/>
       <c r="S13" s="143" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="T13" s="144"/>
       <c r="U13" s="144"/>
@@ -8641,7 +8520,7 @@
     </row>
     <row r="14" spans="1:38" customHeight="1" ht="20.1">
       <c r="B14" s="143" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C14" s="144"/>
       <c r="D14" s="144"/>
@@ -8659,7 +8538,7 @@
       <c r="P14" s="223"/>
       <c r="Q14" s="150"/>
       <c r="S14" s="143" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="T14" s="144"/>
       <c r="U14" s="144"/>
@@ -8680,7 +8559,7 @@
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="20.1">
       <c r="B15" s="143" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C15" s="144"/>
       <c r="D15" s="144"/>
@@ -8698,7 +8577,7 @@
       <c r="P15" s="223"/>
       <c r="Q15" s="150"/>
       <c r="S15" s="143" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="T15" s="144"/>
       <c r="U15" s="144"/>
@@ -8719,7 +8598,7 @@
     </row>
     <row r="16" spans="1:38" customHeight="1" ht="20.1">
       <c r="B16" s="143" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C16" s="144"/>
       <c r="D16" s="144"/>
@@ -8737,7 +8616,7 @@
       <c r="P16" s="223"/>
       <c r="Q16" s="150"/>
       <c r="S16" s="143" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="T16" s="144"/>
       <c r="U16" s="144"/>
@@ -8758,7 +8637,7 @@
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="20.1">
       <c r="B17" s="143" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C17" s="144"/>
       <c r="D17" s="144"/>
@@ -8776,7 +8655,7 @@
       <c r="P17" s="223"/>
       <c r="Q17" s="150"/>
       <c r="S17" s="143" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="T17" s="144"/>
       <c r="U17" s="144"/>
@@ -8797,7 +8676,7 @@
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="20.1">
       <c r="B18" s="151" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C18" s="152"/>
       <c r="D18" s="152"/>
@@ -8815,7 +8694,7 @@
       <c r="P18" s="223"/>
       <c r="Q18" s="150"/>
       <c r="S18" s="151" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T18" s="152"/>
       <c r="U18" s="152"/>
@@ -8836,7 +8715,7 @@
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="20.1">
       <c r="B19" s="151" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C19" s="152"/>
       <c r="D19" s="152"/>
@@ -8854,7 +8733,7 @@
       <c r="P19" s="223"/>
       <c r="Q19" s="150"/>
       <c r="S19" s="151" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="T19" s="152"/>
       <c r="U19" s="152"/>
@@ -8875,7 +8754,7 @@
     </row>
     <row r="20" spans="1:38" customHeight="1" ht="20.1">
       <c r="B20" s="151" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C20" s="152"/>
       <c r="D20" s="152"/>
@@ -8893,7 +8772,7 @@
       <c r="P20" s="223"/>
       <c r="Q20" s="150"/>
       <c r="S20" s="151" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="T20" s="152"/>
       <c r="U20" s="152"/>
@@ -8914,7 +8793,7 @@
     </row>
     <row r="21" spans="1:38" customHeight="1" ht="20.1">
       <c r="B21" s="151" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C21" s="152"/>
       <c r="D21" s="152"/>
@@ -8932,7 +8811,7 @@
       <c r="P21" s="223"/>
       <c r="Q21" s="150"/>
       <c r="S21" s="151" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="T21" s="152"/>
       <c r="U21" s="152"/>
@@ -8953,7 +8832,7 @@
     </row>
     <row r="22" spans="1:38" customHeight="1" ht="20.1">
       <c r="B22" s="143" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C22" s="144"/>
       <c r="D22" s="144"/>
@@ -8971,7 +8850,7 @@
       <c r="P22" s="223"/>
       <c r="Q22" s="150"/>
       <c r="S22" s="143" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T22" s="144"/>
       <c r="U22" s="144"/>
@@ -8992,7 +8871,7 @@
     </row>
     <row r="23" spans="1:38" customHeight="1" ht="20.1">
       <c r="B23" s="146" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C23" s="147"/>
       <c r="D23" s="147"/>
@@ -9010,7 +8889,7 @@
       <c r="P23" s="223"/>
       <c r="Q23" s="150"/>
       <c r="S23" s="146" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="T23" s="147"/>
       <c r="U23" s="147"/>
@@ -9031,7 +8910,7 @@
     </row>
     <row r="24" spans="1:38" customHeight="1" ht="20.1">
       <c r="B24" s="146" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C24" s="147"/>
       <c r="D24" s="147"/>
@@ -9049,7 +8928,7 @@
       <c r="P24" s="223"/>
       <c r="Q24" s="150"/>
       <c r="S24" s="146" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="T24" s="147"/>
       <c r="U24" s="147"/>
@@ -9070,7 +8949,7 @@
     </row>
     <row r="25" spans="1:38" customHeight="1" ht="20.1">
       <c r="B25" s="161" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C25" s="162"/>
       <c r="D25" s="162"/>
@@ -9103,7 +8982,7 @@
       <c r="P25" s="224"/>
       <c r="Q25" s="184"/>
       <c r="S25" s="161" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="T25" s="162"/>
       <c r="U25" s="162"/>
@@ -9174,13 +9053,13 @@
     </row>
     <row r="27" spans="1:38" customHeight="1" ht="12">
       <c r="B27" s="225" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C27" s="112"/>
       <c r="D27" s="112"/>
       <c r="E27" s="226"/>
       <c r="F27" s="111" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G27" s="112"/>
       <c r="H27" s="112"/>
@@ -9195,13 +9074,13 @@
       <c r="Q27" s="113"/>
       <c r="R27" s="44"/>
       <c r="S27" s="225" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="T27" s="112"/>
       <c r="U27" s="112"/>
       <c r="V27" s="226"/>
       <c r="W27" s="230" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="X27" s="230"/>
       <c r="Y27" s="230"/>
@@ -9218,40 +9097,40 @@
     </row>
     <row r="28" spans="1:38" customHeight="1" ht="31.5">
       <c r="B28" s="117" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C28" s="118"/>
       <c r="D28" s="118"/>
       <c r="E28" s="119"/>
       <c r="F28" s="179" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G28" s="119"/>
       <c r="H28" s="120" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I28" s="121"/>
       <c r="J28" s="122"/>
       <c r="K28" s="120" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L28" s="121"/>
       <c r="M28" s="121"/>
       <c r="N28" s="122"/>
       <c r="O28" s="188" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="P28" s="179"/>
       <c r="Q28" s="189"/>
       <c r="R28" s="9"/>
       <c r="S28" s="117" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="T28" s="118"/>
       <c r="U28" s="118"/>
       <c r="V28" s="119"/>
       <c r="W28" s="227" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="X28" s="227"/>
       <c r="Y28" s="227"/>
@@ -9259,16 +9138,16 @@
       <c r="AA28" s="227"/>
       <c r="AB28" s="227"/>
       <c r="AC28" s="227" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AD28" s="227"/>
       <c r="AE28" s="227"/>
       <c r="AF28" s="227" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AG28" s="227"/>
       <c r="AH28" s="188" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AI28" s="189"/>
     </row>
@@ -9382,7 +9261,7 @@
     </row>
     <row r="32" spans="1:38" customHeight="1" ht="18.75">
       <c r="B32" s="43" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
@@ -9402,7 +9281,7 @@
       <c r="P32" s="126"/>
       <c r="Q32" s="128"/>
       <c r="S32" s="43" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="T32" s="44"/>
       <c r="U32" s="44"/>
@@ -9425,7 +9304,7 @@
     </row>
     <row r="33" spans="1:38" customHeight="1" ht="18">
       <c r="B33" s="48" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -9439,13 +9318,13 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O33" s="124"/>
       <c r="P33" s="90"/>
       <c r="Q33" s="125"/>
       <c r="S33" s="48" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
@@ -9460,7 +9339,7 @@
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
       <c r="AF33" s="197" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG33" s="197"/>
       <c r="AH33" s="90"/>
@@ -9468,7 +9347,7 @@
     </row>
     <row r="34" spans="1:38" customHeight="1" ht="18">
       <c r="B34" s="48" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -9479,7 +9358,7 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="197" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L34" s="197"/>
       <c r="M34" s="197"/>
@@ -9488,7 +9367,7 @@
       <c r="P34" s="91"/>
       <c r="Q34" s="92"/>
       <c r="S34" s="48" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
@@ -9500,7 +9379,7 @@
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="197" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD34" s="197"/>
       <c r="AE34" s="197"/>
@@ -9511,7 +9390,7 @@
     </row>
     <row r="35" spans="1:38" customHeight="1" ht="20.1">
       <c r="B35" s="51" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
@@ -9522,7 +9401,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="124" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L35" s="124"/>
       <c r="M35" s="124"/>
@@ -9531,7 +9410,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="58"/>
       <c r="S35" s="51" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="T35" s="39"/>
       <c r="U35" s="40"/>
@@ -9543,7 +9422,7 @@
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="124" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD35" s="124"/>
       <c r="AE35" s="124"/>
@@ -9589,7 +9468,7 @@
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="20.1">
       <c r="B37" s="173" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C37" s="103"/>
       <c r="D37" s="103"/>
@@ -9597,24 +9476,24 @@
       <c r="F37" s="103"/>
       <c r="G37" s="104"/>
       <c r="H37" s="215" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I37" s="216"/>
       <c r="J37" s="216"/>
       <c r="K37" s="217"/>
       <c r="L37" s="102" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M37" s="103"/>
       <c r="N37" s="104"/>
       <c r="O37" s="102" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="P37" s="103"/>
       <c r="Q37" s="177"/>
       <c r="R37" s="9"/>
       <c r="S37" s="173" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="T37" s="103"/>
       <c r="U37" s="103"/>
@@ -9625,17 +9504,17 @@
       <c r="Z37" s="103"/>
       <c r="AA37" s="104"/>
       <c r="AB37" s="215" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AC37" s="216"/>
       <c r="AD37" s="216"/>
       <c r="AE37" s="216"/>
       <c r="AF37" s="217"/>
       <c r="AG37" s="235" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH37" s="102" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AI37" s="177"/>
     </row>
@@ -9692,7 +9571,7 @@
     </row>
     <row r="39" spans="1:38" customHeight="1" ht="20.1">
       <c r="B39" s="143" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -9710,7 +9589,7 @@
       <c r="P39" s="223"/>
       <c r="Q39" s="150"/>
       <c r="S39" s="143" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="T39" s="144"/>
       <c r="U39" s="144"/>
@@ -9731,7 +9610,7 @@
     </row>
     <row r="40" spans="1:38" customHeight="1" ht="20.1">
       <c r="B40" s="143" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C40" s="144"/>
       <c r="D40" s="144"/>
@@ -9749,7 +9628,7 @@
       <c r="P40" s="223"/>
       <c r="Q40" s="150"/>
       <c r="S40" s="143" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="T40" s="144"/>
       <c r="U40" s="144"/>
@@ -9770,7 +9649,7 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="20.1">
       <c r="B41" s="143" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C41" s="144"/>
       <c r="D41" s="144"/>
@@ -9788,7 +9667,7 @@
       <c r="P41" s="223"/>
       <c r="Q41" s="150"/>
       <c r="S41" s="143" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T41" s="144"/>
       <c r="U41" s="144"/>
@@ -9809,7 +9688,7 @@
     </row>
     <row r="42" spans="1:38" customHeight="1" ht="20.1">
       <c r="B42" s="143" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C42" s="144"/>
       <c r="D42" s="144"/>
@@ -9827,7 +9706,7 @@
       <c r="P42" s="223"/>
       <c r="Q42" s="150"/>
       <c r="S42" s="143" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="T42" s="144"/>
       <c r="U42" s="144"/>
@@ -9848,7 +9727,7 @@
     </row>
     <row r="43" spans="1:38" customHeight="1" ht="20.1">
       <c r="B43" s="143" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C43" s="144"/>
       <c r="D43" s="144"/>
@@ -9866,7 +9745,7 @@
       <c r="P43" s="83"/>
       <c r="Q43" s="62"/>
       <c r="S43" s="143" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="T43" s="144"/>
       <c r="U43" s="144"/>
@@ -9887,7 +9766,7 @@
     </row>
     <row r="44" spans="1:38" customHeight="1" ht="20.1">
       <c r="B44" s="143" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C44" s="144"/>
       <c r="D44" s="144"/>
@@ -9905,7 +9784,7 @@
       <c r="P44" s="223"/>
       <c r="Q44" s="150"/>
       <c r="S44" s="143" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="T44" s="144"/>
       <c r="U44" s="144"/>
@@ -9926,7 +9805,7 @@
     </row>
     <row r="45" spans="1:38" customHeight="1" ht="20.1">
       <c r="B45" s="143" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C45" s="144"/>
       <c r="D45" s="144"/>
@@ -9944,7 +9823,7 @@
       <c r="P45" s="83"/>
       <c r="Q45" s="62"/>
       <c r="S45" s="143" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="T45" s="144"/>
       <c r="U45" s="144"/>
@@ -9965,7 +9844,7 @@
     </row>
     <row r="46" spans="1:38" customHeight="1" ht="20.1">
       <c r="B46" s="143" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C46" s="144"/>
       <c r="D46" s="144"/>
@@ -9983,7 +9862,7 @@
       <c r="P46" s="223"/>
       <c r="Q46" s="150"/>
       <c r="S46" s="143" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="T46" s="144"/>
       <c r="U46" s="144"/>
@@ -10004,7 +9883,7 @@
     </row>
     <row r="47" spans="1:38" customHeight="1" ht="20.1">
       <c r="B47" s="151" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C47" s="152"/>
       <c r="D47" s="152"/>
@@ -10022,7 +9901,7 @@
       <c r="P47" s="223"/>
       <c r="Q47" s="150"/>
       <c r="S47" s="151" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T47" s="152"/>
       <c r="U47" s="152"/>
@@ -10043,7 +9922,7 @@
     </row>
     <row r="48" spans="1:38" customHeight="1" ht="20.1">
       <c r="B48" s="151" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C48" s="152"/>
       <c r="D48" s="152"/>
@@ -10061,7 +9940,7 @@
       <c r="P48" s="223"/>
       <c r="Q48" s="150"/>
       <c r="S48" s="151" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="T48" s="152"/>
       <c r="U48" s="152"/>
@@ -10082,7 +9961,7 @@
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="20.1">
       <c r="B49" s="151" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C49" s="152"/>
       <c r="D49" s="152"/>
@@ -10100,7 +9979,7 @@
       <c r="P49" s="223"/>
       <c r="Q49" s="150"/>
       <c r="S49" s="151" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="T49" s="152"/>
       <c r="U49" s="152"/>
@@ -10121,7 +10000,7 @@
     </row>
     <row r="50" spans="1:38" customHeight="1" ht="20.1">
       <c r="B50" s="151" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C50" s="152"/>
       <c r="D50" s="152"/>
@@ -10139,7 +10018,7 @@
       <c r="P50" s="223"/>
       <c r="Q50" s="150"/>
       <c r="S50" s="151" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="T50" s="152"/>
       <c r="U50" s="152"/>
@@ -10160,7 +10039,7 @@
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="18.75">
       <c r="B51" s="143" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C51" s="144"/>
       <c r="D51" s="144"/>
@@ -10178,7 +10057,7 @@
       <c r="P51" s="223"/>
       <c r="Q51" s="150"/>
       <c r="S51" s="143" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T51" s="144"/>
       <c r="U51" s="144"/>
@@ -10199,7 +10078,7 @@
     </row>
     <row r="52" spans="1:38">
       <c r="B52" s="146" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C52" s="147"/>
       <c r="D52" s="147"/>
@@ -10217,7 +10096,7 @@
       <c r="P52" s="223"/>
       <c r="Q52" s="150"/>
       <c r="S52" s="146" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="T52" s="147"/>
       <c r="U52" s="147"/>
@@ -10238,7 +10117,7 @@
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="20.1">
       <c r="B53" s="146" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C53" s="147"/>
       <c r="D53" s="147"/>
@@ -10256,7 +10135,7 @@
       <c r="P53" s="223"/>
       <c r="Q53" s="150"/>
       <c r="S53" s="146" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="T53" s="147"/>
       <c r="U53" s="147"/>
@@ -10277,7 +10156,7 @@
     </row>
     <row r="54" spans="1:38" customHeight="1" ht="19.5">
       <c r="B54" s="161" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C54" s="162"/>
       <c r="D54" s="162"/>
@@ -10310,7 +10189,7 @@
       <c r="P54" s="224"/>
       <c r="Q54" s="184"/>
       <c r="S54" s="161" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="T54" s="162"/>
       <c r="U54" s="162"/>
@@ -10381,13 +10260,13 @@
     </row>
     <row r="56" spans="1:38" customHeight="1" ht="15">
       <c r="B56" s="225" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C56" s="112"/>
       <c r="D56" s="112"/>
       <c r="E56" s="226"/>
       <c r="F56" s="111" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G56" s="112"/>
       <c r="H56" s="112"/>
@@ -10402,13 +10281,13 @@
       <c r="Q56" s="113"/>
       <c r="R56" s="44"/>
       <c r="S56" s="225" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="T56" s="112"/>
       <c r="U56" s="112"/>
       <c r="V56" s="226"/>
       <c r="W56" s="230" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="X56" s="230"/>
       <c r="Y56" s="230"/>
@@ -10425,40 +10304,40 @@
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="31.5">
       <c r="B57" s="117" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C57" s="118"/>
       <c r="D57" s="118"/>
       <c r="E57" s="119"/>
       <c r="F57" s="188" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G57" s="188"/>
       <c r="H57" s="120" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I57" s="121"/>
       <c r="J57" s="122"/>
       <c r="K57" s="120" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L57" s="121"/>
       <c r="M57" s="121"/>
       <c r="N57" s="122"/>
       <c r="O57" s="188" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="P57" s="179"/>
       <c r="Q57" s="189"/>
       <c r="R57" s="9"/>
       <c r="S57" s="117" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="T57" s="118"/>
       <c r="U57" s="118"/>
       <c r="V57" s="119"/>
       <c r="W57" s="227" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="X57" s="227"/>
       <c r="Y57" s="227"/>
@@ -10466,16 +10345,16 @@
       <c r="AA57" s="227"/>
       <c r="AB57" s="227"/>
       <c r="AC57" s="227" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AD57" s="227"/>
       <c r="AE57" s="227"/>
       <c r="AF57" s="227" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AG57" s="227"/>
       <c r="AH57" s="188" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AI57" s="189"/>
     </row>
@@ -10553,7 +10432,7 @@
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="27">
       <c r="B60" s="237" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C60" s="237"/>
       <c r="D60" s="237"/>
@@ -10592,7 +10471,7 @@
     <row r="61" spans="1:38" customHeight="1" ht="20.1">
       <c r="B61" s="3"/>
       <c r="C61" s="228" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D61" s="228"/>
       <c r="E61" s="228"/>
@@ -10630,7 +10509,7 @@
     <row r="62" spans="1:38" customHeight="1" ht="20.1">
       <c r="B62" s="4"/>
       <c r="C62" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -10646,14 +10525,14 @@
       <c r="O62" s="205"/>
       <c r="P62" s="205"/>
       <c r="Q62" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="R62" s="89"/>
       <c r="S62" s="205"/>
       <c r="T62" s="205"/>
       <c r="U62" s="205"/>
       <c r="V62" s="219" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="W62" s="219"/>
       <c r="X62" s="219"/>
@@ -10668,13 +10547,13 @@
       <c r="AG62" s="219"/>
       <c r="AH62" s="88"/>
       <c r="AI62" s="87" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:38" customHeight="1" ht="20.1">
       <c r="B63" s="4"/>
       <c r="C63" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="205"/>
@@ -10683,7 +10562,7 @@
       <c r="H63" s="205"/>
       <c r="I63" s="205"/>
       <c r="J63" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="218"/>
@@ -10691,13 +10570,13 @@
       <c r="N63" s="218"/>
       <c r="O63" s="12"/>
       <c r="P63" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q63" s="205"/>
       <c r="R63" s="205"/>
       <c r="S63" s="205"/>
       <c r="T63" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
@@ -10792,7 +10671,7 @@
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="205" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F66" s="205"/>
       <c r="G66" s="205"/>
@@ -10802,7 +10681,7 @@
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
@@ -10821,7 +10700,7 @@
       <c r="AB66" s="13"/>
       <c r="AC66" s="13"/>
       <c r="AD66" s="221" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="AE66" s="221"/>
       <c r="AF66" s="221"/>
@@ -10832,7 +10711,7 @@
     <row r="68" spans="1:38" customHeight="1" ht="20.1">
       <c r="B68" s="3"/>
       <c r="C68" s="228" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D68" s="228"/>
       <c r="E68" s="228"/>
@@ -10870,7 +10749,7 @@
     <row r="69" spans="1:38" customHeight="1" ht="20.1">
       <c r="B69" s="4"/>
       <c r="C69" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -10886,14 +10765,14 @@
       <c r="O69" s="205"/>
       <c r="P69" s="205"/>
       <c r="Q69" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="R69" s="89"/>
       <c r="S69" s="205"/>
       <c r="T69" s="205"/>
       <c r="U69" s="205"/>
       <c r="V69" s="219" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="W69" s="219"/>
       <c r="X69" s="219"/>
@@ -10908,13 +10787,13 @@
       <c r="AG69" s="219"/>
       <c r="AH69" s="88"/>
       <c r="AI69" s="87" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:38" customHeight="1" ht="20.1">
       <c r="B70" s="4"/>
       <c r="C70" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="205"/>
@@ -10923,7 +10802,7 @@
       <c r="H70" s="205"/>
       <c r="I70" s="205"/>
       <c r="J70" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="218"/>
@@ -10931,13 +10810,13 @@
       <c r="N70" s="218"/>
       <c r="O70" s="12"/>
       <c r="P70" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q70" s="205"/>
       <c r="R70" s="205"/>
       <c r="S70" s="205"/>
       <c r="T70" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
@@ -11032,7 +10911,7 @@
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="205" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F73" s="205"/>
       <c r="G73" s="205"/>
@@ -11042,7 +10921,7 @@
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
       <c r="M73" s="12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="N73" s="12"/>
       <c r="O73" s="12"/>
@@ -11061,7 +10940,7 @@
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
       <c r="AD73" s="221" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="AE73" s="221"/>
       <c r="AF73" s="221"/>
@@ -11072,7 +10951,7 @@
     <row r="75" spans="1:38" customHeight="1" ht="20.1">
       <c r="B75" s="3"/>
       <c r="C75" s="228" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D75" s="228"/>
       <c r="E75" s="228"/>
@@ -11110,7 +10989,7 @@
     <row r="76" spans="1:38" customHeight="1" ht="20.1">
       <c r="B76" s="4"/>
       <c r="C76" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -11126,14 +11005,14 @@
       <c r="O76" s="205"/>
       <c r="P76" s="205"/>
       <c r="Q76" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="R76" s="89"/>
       <c r="S76" s="205"/>
       <c r="T76" s="205"/>
       <c r="U76" s="205"/>
       <c r="V76" s="219" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="W76" s="219"/>
       <c r="X76" s="219"/>
@@ -11148,13 +11027,13 @@
       <c r="AG76" s="219"/>
       <c r="AH76" s="88"/>
       <c r="AI76" s="87" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:38" customHeight="1" ht="20.1">
       <c r="B77" s="4"/>
       <c r="C77" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="205"/>
@@ -11163,7 +11042,7 @@
       <c r="H77" s="205"/>
       <c r="I77" s="205"/>
       <c r="J77" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K77" s="5"/>
       <c r="L77" s="218"/>
@@ -11171,13 +11050,13 @@
       <c r="N77" s="218"/>
       <c r="O77" s="12"/>
       <c r="P77" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q77" s="205"/>
       <c r="R77" s="205"/>
       <c r="S77" s="205"/>
       <c r="T77" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
@@ -11272,7 +11151,7 @@
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="205" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F80" s="205"/>
       <c r="G80" s="205"/>
@@ -11282,7 +11161,7 @@
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
       <c r="M80" s="12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="N80" s="12"/>
       <c r="O80" s="12"/>
@@ -11301,7 +11180,7 @@
       <c r="AB80" s="13"/>
       <c r="AC80" s="13"/>
       <c r="AD80" s="221" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="AE80" s="221"/>
       <c r="AF80" s="221"/>
@@ -11311,10 +11190,10 @@
     </row>
     <row r="81" spans="1:38">
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AG81" s="86" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -11762,37 +11641,37 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
